--- a/WorshipCreator.TestData/Source/Books/PWFB2E/PWFB2E.xlsx
+++ b/WorshipCreator.TestData/Source/Books/PWFB2E/PWFB2E.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23530"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23530"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\PageOptimizer\Data\WorshipCreator.TestData\Source\Books\PWFB2E\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA402992-4CDD-46C0-A5DF-2D89FD7C1AE5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{053CF5E7-778D-495A-BD11-83C03BD98CF6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -19,7 +19,7 @@
     <externalReference r:id="rId2"/>
   </externalReferences>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Songs!$A$1:$L$413</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Songs!$A$1:$K$413</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="925" uniqueCount="446">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="924" uniqueCount="445">
   <si>
     <t>Title</t>
   </si>
@@ -1297,9 +1297,6 @@
   </si>
   <si>
     <t>Key</t>
-  </si>
-  <si>
-    <t>Tempo</t>
   </si>
   <si>
     <t>CCLI#</t>
@@ -5466,7 +5463,8 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L413"/>
+  <sheetPr filterMode="1"/>
+  <dimension ref="A1:K413"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -5479,7 +5477,7 @@
     <col min="5" max="5" width="24.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>413</v>
       </c>
@@ -5507,6878 +5505,6881 @@
       <c r="I1" s="1" t="s">
         <v>419</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="2" t="s">
         <v>420</v>
       </c>
-      <c r="K1" s="2" t="s">
-        <v>421</v>
-      </c>
-      <c r="L1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="E2" t="s">
         <v>3</v>
       </c>
       <c r="F2" t="s">
         <v>4</v>
       </c>
-      <c r="J2">
+      <c r="I2">
         <f>INDEX([1]Songs!$L:$L,MATCH(E2,[1]Songs!$E:$E,0))</f>
         <v>2672885</v>
       </c>
-      <c r="K2" t="s">
+      <c r="J2" t="s">
         <v>5</v>
       </c>
-      <c r="L2" t="str">
+      <c r="K2" t="str">
         <f>IF(ISNUMBER(INDEX([1]Songs!$L:$L,MATCH(E2,[1]Songs!$E:$E,0))),"YES","")</f>
         <v>YES</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="E3" t="s">
         <v>6</v>
       </c>
       <c r="F3" t="s">
         <v>4</v>
       </c>
-      <c r="J3" t="e">
+      <c r="I3" t="e">
         <f>INDEX([1]Songs!$L:$L,MATCH(E3,[1]Songs!$E:$E,0))</f>
         <v>#N/A</v>
       </c>
-      <c r="L3" t="str">
+      <c r="K3" t="str">
         <f>IF(ISNUMBER(INDEX([1]Songs!$L:$L,MATCH(E3,[1]Songs!$E:$E,0))),"YES","")</f>
         <v/>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="E4" t="s">
         <v>7</v>
       </c>
       <c r="F4" t="s">
         <v>4</v>
       </c>
-      <c r="J4">
+      <c r="I4">
         <f>INDEX([1]Songs!$L:$L,MATCH(E4,[1]Songs!$E:$E,0))</f>
         <v>626713</v>
       </c>
-      <c r="L4" t="str">
+      <c r="K4" t="str">
         <f>IF(ISNUMBER(INDEX([1]Songs!$L:$L,MATCH(E4,[1]Songs!$E:$E,0))),"YES","")</f>
         <v>YES</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="E5" t="s">
         <v>8</v>
       </c>
       <c r="F5" t="s">
         <v>4</v>
       </c>
-      <c r="J5">
+      <c r="I5">
         <f>INDEX([1]Songs!$L:$L,MATCH(E5,[1]Songs!$E:$E,0))</f>
         <v>6605212</v>
       </c>
-      <c r="L5" t="str">
+      <c r="K5" t="str">
         <f>IF(ISNUMBER(INDEX([1]Songs!$L:$L,MATCH(E5,[1]Songs!$E:$E,0))),"YES","")</f>
         <v>YES</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="E6" t="s">
         <v>9</v>
       </c>
       <c r="F6" t="s">
         <v>4</v>
       </c>
-      <c r="J6" t="e">
+      <c r="I6" t="e">
         <f>INDEX([1]Songs!$L:$L,MATCH(E6,[1]Songs!$E:$E,0))</f>
         <v>#N/A</v>
       </c>
-      <c r="L6" t="str">
+      <c r="K6" t="str">
         <f>IF(ISNUMBER(INDEX([1]Songs!$L:$L,MATCH(E6,[1]Songs!$E:$E,0))),"YES","")</f>
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="E7" t="s">
         <v>10</v>
       </c>
       <c r="F7" t="s">
         <v>4</v>
       </c>
-      <c r="J7">
+      <c r="I7">
         <f>INDEX([1]Songs!$L:$L,MATCH(E7,[1]Songs!$E:$E,0))</f>
         <v>7097216</v>
       </c>
-      <c r="L7" t="str">
+      <c r="K7" t="str">
         <f>IF(ISNUMBER(INDEX([1]Songs!$L:$L,MATCH(E7,[1]Songs!$E:$E,0))),"YES","")</f>
         <v>YES</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="E8" t="s">
         <v>11</v>
       </c>
       <c r="F8" t="s">
         <v>4</v>
       </c>
-      <c r="J8">
+      <c r="I8">
         <f>INDEX([1]Songs!$L:$L,MATCH(E8,[1]Songs!$E:$E,0))</f>
         <v>120556</v>
       </c>
-      <c r="K8" t="s">
+      <c r="J8" t="s">
         <v>5</v>
       </c>
-      <c r="L8" t="str">
+      <c r="K8" t="str">
         <f>IF(ISNUMBER(INDEX([1]Songs!$L:$L,MATCH(E8,[1]Songs!$E:$E,0))),"YES","")</f>
         <v>YES</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="E9" t="s">
         <v>12</v>
       </c>
       <c r="F9" t="s">
         <v>4</v>
       </c>
-      <c r="J9">
+      <c r="I9">
         <f>INDEX([1]Songs!$L:$L,MATCH(E9,[1]Songs!$E:$E,0))</f>
         <v>5174122</v>
       </c>
-      <c r="L9" t="str">
+      <c r="K9" t="str">
         <f>IF(ISNUMBER(INDEX([1]Songs!$L:$L,MATCH(E9,[1]Songs!$E:$E,0))),"YES","")</f>
         <v>YES</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="E10" t="s">
         <v>13</v>
       </c>
       <c r="F10" t="s">
         <v>4</v>
       </c>
-      <c r="J10" t="e">
+      <c r="I10" t="e">
         <f>INDEX([1]Songs!$L:$L,MATCH(E10,[1]Songs!$E:$E,0))</f>
         <v>#N/A</v>
       </c>
-      <c r="L10" t="str">
+      <c r="K10" t="str">
         <f>IF(ISNUMBER(INDEX([1]Songs!$L:$L,MATCH(E10,[1]Songs!$E:$E,0))),"YES","")</f>
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="E11" t="s">
         <v>14</v>
       </c>
       <c r="F11" t="s">
         <v>4</v>
       </c>
-      <c r="J11">
+      <c r="I11">
         <f>INDEX([1]Songs!$L:$L,MATCH(E11,[1]Songs!$E:$E,0))</f>
         <v>5881130</v>
       </c>
-      <c r="K11" t="s">
+      <c r="J11" t="s">
         <v>15</v>
       </c>
-      <c r="L11" t="str">
+      <c r="K11" t="str">
         <f>IF(ISNUMBER(INDEX([1]Songs!$L:$L,MATCH(E11,[1]Songs!$E:$E,0))),"YES","")</f>
         <v>YES</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="E12" t="s">
         <v>16</v>
       </c>
       <c r="F12" t="s">
         <v>4</v>
       </c>
-      <c r="J12" t="e">
+      <c r="I12" t="e">
         <f>INDEX([1]Songs!$L:$L,MATCH(E12,[1]Songs!$E:$E,0))</f>
         <v>#N/A</v>
       </c>
-      <c r="L12" t="str">
+      <c r="K12" t="str">
         <f>IF(ISNUMBER(INDEX([1]Songs!$L:$L,MATCH(E12,[1]Songs!$E:$E,0))),"YES","")</f>
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="E13" t="s">
         <v>17</v>
       </c>
       <c r="F13" t="s">
         <v>4</v>
       </c>
-      <c r="J13">
+      <c r="I13">
         <f>INDEX([1]Songs!$L:$L,MATCH(E13,[1]Songs!$E:$E,0))</f>
         <v>2489542</v>
       </c>
-      <c r="L13" t="str">
+      <c r="K13" t="str">
         <f>IF(ISNUMBER(INDEX([1]Songs!$L:$L,MATCH(E13,[1]Songs!$E:$E,0))),"YES","")</f>
         <v>YES</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="E14" t="s">
         <v>18</v>
       </c>
       <c r="F14" t="s">
         <v>4</v>
       </c>
-      <c r="J14" t="e">
+      <c r="I14" t="e">
         <f>INDEX([1]Songs!$L:$L,MATCH(E14,[1]Songs!$E:$E,0))</f>
         <v>#N/A</v>
       </c>
-      <c r="L14" t="str">
+      <c r="K14" t="str">
         <f>IF(ISNUMBER(INDEX([1]Songs!$L:$L,MATCH(E14,[1]Songs!$E:$E,0))),"YES","")</f>
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="E15" t="s">
         <v>19</v>
       </c>
       <c r="F15" t="s">
         <v>4</v>
       </c>
-      <c r="J15">
+      <c r="I15">
         <f>INDEX([1]Songs!$L:$L,MATCH(E15,[1]Songs!$E:$E,0))</f>
         <v>5881037</v>
       </c>
-      <c r="L15" t="str">
+      <c r="K15" t="str">
         <f>IF(ISNUMBER(INDEX([1]Songs!$L:$L,MATCH(E15,[1]Songs!$E:$E,0))),"YES","")</f>
         <v>YES</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="E16" t="s">
         <v>20</v>
       </c>
       <c r="F16" t="s">
         <v>4</v>
       </c>
-      <c r="J16" t="e">
+      <c r="I16" t="e">
         <f>INDEX([1]Songs!$L:$L,MATCH(E16,[1]Songs!$E:$E,0))</f>
         <v>#N/A</v>
       </c>
-      <c r="L16" t="str">
+      <c r="K16" t="str">
         <f>IF(ISNUMBER(INDEX([1]Songs!$L:$L,MATCH(E16,[1]Songs!$E:$E,0))),"YES","")</f>
         <v/>
       </c>
     </row>
-    <row r="17" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="5:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="E17" t="s">
         <v>21</v>
       </c>
       <c r="F17" t="s">
         <v>22</v>
       </c>
-      <c r="J17">
+      <c r="I17">
         <f>INDEX([1]Songs!$L:$L,MATCH(E17,[1]Songs!$E:$E,0))</f>
         <v>4768151</v>
       </c>
-      <c r="K17" t="s">
+      <c r="J17" t="s">
         <v>15</v>
       </c>
-      <c r="L17" t="str">
+      <c r="K17" t="str">
         <f>IF(ISNUMBER(INDEX([1]Songs!$L:$L,MATCH(E17,[1]Songs!$E:$E,0))),"YES","")</f>
         <v>YES</v>
       </c>
     </row>
-    <row r="18" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="18" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E18" t="s">
         <v>23</v>
       </c>
       <c r="F18" t="s">
         <v>4</v>
       </c>
-      <c r="J18" t="e">
+      <c r="I18" t="e">
         <f>INDEX([1]Songs!$L:$L,MATCH(E18,[1]Songs!$E:$E,0))</f>
         <v>#N/A</v>
       </c>
-      <c r="L18" t="str">
+      <c r="K18" t="str">
         <f>IF(ISNUMBER(INDEX([1]Songs!$L:$L,MATCH(E18,[1]Songs!$E:$E,0))),"YES","")</f>
         <v/>
       </c>
     </row>
-    <row r="19" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="19" spans="5:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="E19" t="s">
         <v>24</v>
       </c>
       <c r="F19" t="s">
         <v>4</v>
       </c>
-      <c r="J19">
+      <c r="I19">
         <f>INDEX([1]Songs!$L:$L,MATCH(E19,[1]Songs!$E:$E,0))</f>
         <v>2986399</v>
       </c>
-      <c r="K19" t="s">
+      <c r="J19" t="s">
         <v>5</v>
       </c>
-      <c r="L19" t="str">
+      <c r="K19" t="str">
         <f>IF(ISNUMBER(INDEX([1]Songs!$L:$L,MATCH(E19,[1]Songs!$E:$E,0))),"YES","")</f>
         <v>YES</v>
       </c>
     </row>
-    <row r="20" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="20" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E20" t="s">
         <v>25</v>
       </c>
       <c r="F20" t="s">
         <v>4</v>
       </c>
-      <c r="J20" t="e">
+      <c r="I20" t="e">
         <f>INDEX([1]Songs!$L:$L,MATCH(E20,[1]Songs!$E:$E,0))</f>
         <v>#N/A</v>
       </c>
-      <c r="L20" t="str">
+      <c r="K20" t="str">
         <f>IF(ISNUMBER(INDEX([1]Songs!$L:$L,MATCH(E20,[1]Songs!$E:$E,0))),"YES","")</f>
         <v/>
       </c>
     </row>
-    <row r="21" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="21" spans="5:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="E21" t="s">
         <v>26</v>
       </c>
       <c r="F21" t="s">
         <v>4</v>
       </c>
-      <c r="J21">
+      <c r="I21">
         <f>INDEX([1]Songs!$L:$L,MATCH(E21,[1]Songs!$E:$E,0))</f>
         <v>1431</v>
       </c>
-      <c r="K21" t="s">
+      <c r="J21" t="s">
         <v>27</v>
       </c>
-      <c r="L21" t="str">
+      <c r="K21" t="str">
         <f>IF(ISNUMBER(INDEX([1]Songs!$L:$L,MATCH(E21,[1]Songs!$E:$E,0))),"YES","")</f>
         <v>YES</v>
       </c>
     </row>
-    <row r="22" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="22" spans="5:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="E22" t="s">
         <v>28</v>
       </c>
       <c r="F22" t="s">
         <v>29</v>
       </c>
-      <c r="J22">
+      <c r="I22">
         <f>INDEX([1]Songs!$L:$L,MATCH(E22,[1]Songs!$E:$E,0))</f>
         <v>7017786</v>
       </c>
-      <c r="K22" t="s">
+      <c r="J22" t="s">
         <v>15</v>
       </c>
-      <c r="L22" t="str">
+      <c r="K22" t="str">
         <f>IF(ISNUMBER(INDEX([1]Songs!$L:$L,MATCH(E22,[1]Songs!$E:$E,0))),"YES","")</f>
         <v>YES</v>
       </c>
     </row>
-    <row r="23" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="23" spans="5:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="E23" t="s">
         <v>28</v>
       </c>
       <c r="F23" t="s">
         <v>4</v>
       </c>
-      <c r="J23">
+      <c r="I23">
         <f>INDEX([1]Songs!$L:$L,MATCH(E23,[1]Songs!$E:$E,0))</f>
         <v>7017786</v>
       </c>
-      <c r="L23" t="str">
+      <c r="K23" t="str">
         <f>IF(ISNUMBER(INDEX([1]Songs!$L:$L,MATCH(E23,[1]Songs!$E:$E,0))),"YES","")</f>
         <v>YES</v>
       </c>
     </row>
-    <row r="24" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="24" spans="5:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="E24" t="s">
         <v>28</v>
       </c>
       <c r="F24" t="s">
         <v>4</v>
       </c>
-      <c r="J24">
+      <c r="I24">
         <f>INDEX([1]Songs!$L:$L,MATCH(E24,[1]Songs!$E:$E,0))</f>
         <v>7017786</v>
       </c>
-      <c r="L24" t="str">
+      <c r="K24" t="str">
         <f>IF(ISNUMBER(INDEX([1]Songs!$L:$L,MATCH(E24,[1]Songs!$E:$E,0))),"YES","")</f>
         <v>YES</v>
       </c>
     </row>
-    <row r="25" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="25" spans="5:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="E25" t="s">
         <v>30</v>
       </c>
       <c r="F25" t="s">
         <v>4</v>
       </c>
-      <c r="J25">
+      <c r="I25">
         <f>INDEX([1]Songs!$L:$L,MATCH(E25,[1]Songs!$E:$E,0))</f>
         <v>5942543</v>
       </c>
-      <c r="L25" t="str">
+      <c r="K25" t="str">
         <f>IF(ISNUMBER(INDEX([1]Songs!$L:$L,MATCH(E25,[1]Songs!$E:$E,0))),"YES","")</f>
         <v>YES</v>
       </c>
     </row>
-    <row r="26" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="26" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E26" t="s">
         <v>31</v>
       </c>
       <c r="F26" t="s">
         <v>4</v>
       </c>
-      <c r="J26" t="e">
+      <c r="I26" t="e">
         <f>INDEX([1]Songs!$L:$L,MATCH(E26,[1]Songs!$E:$E,0))</f>
         <v>#N/A</v>
       </c>
-      <c r="L26" t="str">
+      <c r="K26" t="str">
         <f>IF(ISNUMBER(INDEX([1]Songs!$L:$L,MATCH(E26,[1]Songs!$E:$E,0))),"YES","")</f>
         <v/>
       </c>
     </row>
-    <row r="27" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="27" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E27" t="s">
         <v>32</v>
       </c>
       <c r="F27" t="s">
         <v>4</v>
       </c>
-      <c r="J27" t="e">
+      <c r="I27" t="e">
         <f>INDEX([1]Songs!$L:$L,MATCH(E27,[1]Songs!$E:$E,0))</f>
         <v>#N/A</v>
       </c>
-      <c r="L27" t="str">
+      <c r="K27" t="str">
         <f>IF(ISNUMBER(INDEX([1]Songs!$L:$L,MATCH(E27,[1]Songs!$E:$E,0))),"YES","")</f>
         <v/>
       </c>
     </row>
-    <row r="28" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="28" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E28" t="s">
         <v>33</v>
       </c>
       <c r="F28" t="s">
         <v>4</v>
       </c>
-      <c r="J28" t="e">
+      <c r="I28" t="e">
         <f>INDEX([1]Songs!$L:$L,MATCH(E28,[1]Songs!$E:$E,0))</f>
         <v>#N/A</v>
       </c>
-      <c r="L28" t="str">
+      <c r="K28" t="str">
         <f>IF(ISNUMBER(INDEX([1]Songs!$L:$L,MATCH(E28,[1]Songs!$E:$E,0))),"YES","")</f>
         <v/>
       </c>
     </row>
-    <row r="29" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="29" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E29" t="s">
         <v>34</v>
       </c>
       <c r="F29" t="s">
         <v>4</v>
       </c>
-      <c r="J29" t="e">
+      <c r="I29" t="e">
         <f>INDEX([1]Songs!$L:$L,MATCH(E29,[1]Songs!$E:$E,0))</f>
         <v>#N/A</v>
       </c>
-      <c r="L29" t="str">
+      <c r="K29" t="str">
         <f>IF(ISNUMBER(INDEX([1]Songs!$L:$L,MATCH(E29,[1]Songs!$E:$E,0))),"YES","")</f>
         <v/>
       </c>
     </row>
-    <row r="30" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="30" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E30" t="s">
         <v>35</v>
       </c>
       <c r="F30" t="s">
         <v>4</v>
       </c>
-      <c r="J30" t="e">
+      <c r="I30" t="e">
         <f>INDEX([1]Songs!$L:$L,MATCH(E30,[1]Songs!$E:$E,0))</f>
         <v>#N/A</v>
       </c>
-      <c r="L30" t="str">
+      <c r="K30" t="str">
         <f>IF(ISNUMBER(INDEX([1]Songs!$L:$L,MATCH(E30,[1]Songs!$E:$E,0))),"YES","")</f>
         <v/>
       </c>
     </row>
-    <row r="31" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="31" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E31" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="F31" t="s">
         <v>4</v>
       </c>
-      <c r="J31" t="e">
+      <c r="I31" t="e">
         <f>INDEX([1]Songs!$L:$L,MATCH(E31,[1]Songs!$E:$E,0))</f>
         <v>#N/A</v>
       </c>
-      <c r="L31" t="str">
+      <c r="K31" t="str">
         <f>IF(ISNUMBER(INDEX([1]Songs!$L:$L,MATCH(E31,[1]Songs!$E:$E,0))),"YES","")</f>
         <v/>
       </c>
     </row>
-    <row r="32" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="32" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E32" t="s">
         <v>36</v>
       </c>
       <c r="F32" t="s">
         <v>4</v>
       </c>
-      <c r="J32" t="e">
+      <c r="I32" t="e">
         <f>INDEX([1]Songs!$L:$L,MATCH(E32,[1]Songs!$E:$E,0))</f>
         <v>#N/A</v>
       </c>
-      <c r="L32" t="str">
+      <c r="K32" t="str">
         <f>IF(ISNUMBER(INDEX([1]Songs!$L:$L,MATCH(E32,[1]Songs!$E:$E,0))),"YES","")</f>
         <v/>
       </c>
     </row>
-    <row r="33" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="33" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E33" t="s">
         <v>36</v>
       </c>
       <c r="F33" t="s">
         <v>4</v>
       </c>
-      <c r="J33" t="e">
+      <c r="I33" t="e">
         <f>INDEX([1]Songs!$L:$L,MATCH(E33,[1]Songs!$E:$E,0))</f>
         <v>#N/A</v>
       </c>
-      <c r="L33" t="str">
+      <c r="K33" t="str">
         <f>IF(ISNUMBER(INDEX([1]Songs!$L:$L,MATCH(E33,[1]Songs!$E:$E,0))),"YES","")</f>
         <v/>
       </c>
     </row>
-    <row r="34" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="34" spans="5:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="E34" t="s">
         <v>37</v>
       </c>
       <c r="F34" t="s">
         <v>4</v>
       </c>
-      <c r="J34">
+      <c r="I34">
         <f>INDEX([1]Songs!$L:$L,MATCH(E34,[1]Songs!$E:$E,0))</f>
         <v>2650429</v>
       </c>
-      <c r="L34" t="str">
+      <c r="K34" t="str">
         <f>IF(ISNUMBER(INDEX([1]Songs!$L:$L,MATCH(E34,[1]Songs!$E:$E,0))),"YES","")</f>
         <v>YES</v>
       </c>
     </row>
-    <row r="35" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="35" spans="5:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="E35" t="s">
         <v>38</v>
       </c>
       <c r="F35" t="s">
         <v>4</v>
       </c>
-      <c r="J35">
+      <c r="I35">
         <f>INDEX([1]Songs!$L:$L,MATCH(E35,[1]Songs!$E:$E,0))</f>
         <v>2177476</v>
       </c>
-      <c r="L35" t="str">
+      <c r="K35" t="str">
         <f>IF(ISNUMBER(INDEX([1]Songs!$L:$L,MATCH(E35,[1]Songs!$E:$E,0))),"YES","")</f>
         <v>YES</v>
       </c>
     </row>
-    <row r="36" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="36" spans="5:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="E36" t="s">
         <v>39</v>
       </c>
       <c r="F36" t="s">
         <v>4</v>
       </c>
-      <c r="J36">
+      <c r="I36">
         <f>INDEX([1]Songs!$L:$L,MATCH(E36,[1]Songs!$E:$E,0))</f>
         <v>3915912</v>
       </c>
-      <c r="K36" t="s">
+      <c r="J36" t="s">
         <v>15</v>
       </c>
-      <c r="L36" t="str">
+      <c r="K36" t="str">
         <f>IF(ISNUMBER(INDEX([1]Songs!$L:$L,MATCH(E36,[1]Songs!$E:$E,0))),"YES","")</f>
         <v>YES</v>
       </c>
     </row>
-    <row r="37" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="37" spans="5:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="E37" t="s">
         <v>40</v>
       </c>
       <c r="F37" t="s">
         <v>4</v>
       </c>
-      <c r="J37">
+      <c r="I37">
         <f>INDEX([1]Songs!$L:$L,MATCH(E37,[1]Songs!$E:$E,0))</f>
         <v>5665521</v>
       </c>
-      <c r="L37" t="str">
+      <c r="K37" t="str">
         <f>IF(ISNUMBER(INDEX([1]Songs!$L:$L,MATCH(E37,[1]Songs!$E:$E,0))),"YES","")</f>
         <v>YES</v>
       </c>
     </row>
-    <row r="38" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="38" spans="5:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="E38" t="s">
         <v>41</v>
       </c>
       <c r="F38" t="s">
         <v>4</v>
       </c>
-      <c r="J38">
+      <c r="I38">
         <f>INDEX([1]Songs!$L:$L,MATCH(E38,[1]Songs!$E:$E,0))</f>
         <v>16880</v>
       </c>
-      <c r="K38" t="s">
+      <c r="J38" t="s">
         <v>27</v>
       </c>
-      <c r="L38" t="str">
+      <c r="K38" t="str">
         <f>IF(ISNUMBER(INDEX([1]Songs!$L:$L,MATCH(E38,[1]Songs!$E:$E,0))),"YES","")</f>
         <v>YES</v>
       </c>
     </row>
-    <row r="39" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="39" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E39" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="F39" t="s">
         <v>4</v>
       </c>
-      <c r="J39" t="e">
+      <c r="I39" t="e">
         <f>INDEX([1]Songs!$L:$L,MATCH(E39,[1]Songs!$E:$E,0))</f>
         <v>#N/A</v>
       </c>
-      <c r="L39" t="str">
+      <c r="K39" t="str">
         <f>IF(ISNUMBER(INDEX([1]Songs!$L:$L,MATCH(E39,[1]Songs!$E:$E,0))),"YES","")</f>
         <v/>
       </c>
     </row>
-    <row r="40" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="40" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E40" t="s">
         <v>42</v>
       </c>
       <c r="F40" t="s">
         <v>4</v>
       </c>
-      <c r="J40" t="e">
+      <c r="I40" t="e">
         <f>INDEX([1]Songs!$L:$L,MATCH(E40,[1]Songs!$E:$E,0))</f>
         <v>#N/A</v>
       </c>
-      <c r="L40" t="str">
+      <c r="K40" t="str">
         <f>IF(ISNUMBER(INDEX([1]Songs!$L:$L,MATCH(E40,[1]Songs!$E:$E,0))),"YES","")</f>
         <v/>
       </c>
     </row>
-    <row r="41" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="41" spans="5:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="E41" t="s">
         <v>43</v>
       </c>
       <c r="F41" t="s">
         <v>4</v>
       </c>
-      <c r="J41">
+      <c r="I41">
         <f>INDEX([1]Songs!$L:$L,MATCH(E41,[1]Songs!$E:$E,0))</f>
         <v>2306412</v>
       </c>
-      <c r="K41" t="s">
+      <c r="J41" t="s">
         <v>27</v>
       </c>
-      <c r="L41" t="str">
+      <c r="K41" t="str">
         <f>IF(ISNUMBER(INDEX([1]Songs!$L:$L,MATCH(E41,[1]Songs!$E:$E,0))),"YES","")</f>
         <v>YES</v>
       </c>
     </row>
-    <row r="42" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="42" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E42" t="s">
         <v>44</v>
       </c>
       <c r="F42" t="s">
         <v>4</v>
       </c>
-      <c r="J42" t="e">
+      <c r="I42" t="e">
         <f>INDEX([1]Songs!$L:$L,MATCH(E42,[1]Songs!$E:$E,0))</f>
         <v>#N/A</v>
       </c>
-      <c r="L42" t="str">
+      <c r="K42" t="str">
         <f>IF(ISNUMBER(INDEX([1]Songs!$L:$L,MATCH(E42,[1]Songs!$E:$E,0))),"YES","")</f>
         <v/>
       </c>
     </row>
-    <row r="43" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="43" spans="5:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="E43" t="s">
         <v>45</v>
       </c>
       <c r="F43" t="s">
         <v>4</v>
       </c>
-      <c r="J43">
+      <c r="I43">
         <f>INDEX([1]Songs!$L:$L,MATCH(E43,[1]Songs!$E:$E,0))</f>
         <v>7122996</v>
       </c>
-      <c r="L43" t="str">
+      <c r="K43" t="str">
         <f>IF(ISNUMBER(INDEX([1]Songs!$L:$L,MATCH(E43,[1]Songs!$E:$E,0))),"YES","")</f>
         <v>YES</v>
       </c>
     </row>
-    <row r="44" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="44" spans="5:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="E44" t="s">
         <v>46</v>
       </c>
       <c r="F44" t="s">
         <v>4</v>
       </c>
-      <c r="J44">
+      <c r="I44">
         <f>INDEX([1]Songs!$L:$L,MATCH(E44,[1]Songs!$E:$E,0))</f>
         <v>1097451</v>
       </c>
-      <c r="K44" t="s">
+      <c r="J44" t="s">
         <v>5</v>
       </c>
-      <c r="L44" t="str">
+      <c r="K44" t="str">
         <f>IF(ISNUMBER(INDEX([1]Songs!$L:$L,MATCH(E44,[1]Songs!$E:$E,0))),"YES","")</f>
         <v>YES</v>
       </c>
     </row>
-    <row r="45" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="45" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E45" t="s">
         <v>47</v>
       </c>
       <c r="F45" t="s">
         <v>4</v>
       </c>
-      <c r="J45" t="e">
+      <c r="I45" t="e">
         <f>INDEX([1]Songs!$L:$L,MATCH(E45,[1]Songs!$E:$E,0))</f>
         <v>#N/A</v>
       </c>
-      <c r="L45" t="str">
+      <c r="K45" t="str">
         <f>IF(ISNUMBER(INDEX([1]Songs!$L:$L,MATCH(E45,[1]Songs!$E:$E,0))),"YES","")</f>
         <v/>
       </c>
     </row>
-    <row r="46" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="46" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E46" t="s">
         <v>48</v>
       </c>
       <c r="F46" t="s">
         <v>4</v>
       </c>
-      <c r="J46" t="e">
+      <c r="I46" t="e">
         <f>INDEX([1]Songs!$L:$L,MATCH(E46,[1]Songs!$E:$E,0))</f>
         <v>#N/A</v>
       </c>
-      <c r="L46" t="str">
+      <c r="K46" t="str">
         <f>IF(ISNUMBER(INDEX([1]Songs!$L:$L,MATCH(E46,[1]Songs!$E:$E,0))),"YES","")</f>
         <v/>
       </c>
     </row>
-    <row r="47" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="47" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E47" t="s">
         <v>49</v>
       </c>
       <c r="F47" t="s">
         <v>4</v>
       </c>
-      <c r="J47" t="e">
+      <c r="I47" t="e">
         <f>INDEX([1]Songs!$L:$L,MATCH(E47,[1]Songs!$E:$E,0))</f>
         <v>#N/A</v>
       </c>
-      <c r="L47" t="str">
+      <c r="K47" t="str">
         <f>IF(ISNUMBER(INDEX([1]Songs!$L:$L,MATCH(E47,[1]Songs!$E:$E,0))),"YES","")</f>
         <v/>
       </c>
     </row>
-    <row r="48" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="48" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E48" t="s">
         <v>50</v>
       </c>
       <c r="F48" t="s">
         <v>4</v>
       </c>
-      <c r="J48" t="e">
+      <c r="I48" t="e">
         <f>INDEX([1]Songs!$L:$L,MATCH(E48,[1]Songs!$E:$E,0))</f>
         <v>#N/A</v>
       </c>
-      <c r="L48" t="str">
+      <c r="K48" t="str">
         <f>IF(ISNUMBER(INDEX([1]Songs!$L:$L,MATCH(E48,[1]Songs!$E:$E,0))),"YES","")</f>
         <v/>
       </c>
     </row>
-    <row r="49" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="49" spans="5:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="E49" t="s">
         <v>51</v>
       </c>
       <c r="F49" t="s">
         <v>4</v>
       </c>
-      <c r="J49">
+      <c r="I49">
         <f>INDEX([1]Songs!$L:$L,MATCH(E49,[1]Songs!$E:$E,0))</f>
         <v>3798438</v>
       </c>
-      <c r="K49" t="s">
+      <c r="J49" t="s">
         <v>15</v>
       </c>
-      <c r="L49" t="str">
+      <c r="K49" t="str">
         <f>IF(ISNUMBER(INDEX([1]Songs!$L:$L,MATCH(E49,[1]Songs!$E:$E,0))),"YES","")</f>
         <v>YES</v>
       </c>
     </row>
-    <row r="50" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="50" spans="5:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="E50" t="s">
         <v>52</v>
       </c>
       <c r="F50" t="s">
         <v>4</v>
       </c>
-      <c r="J50">
+      <c r="I50">
         <f>INDEX([1]Songs!$L:$L,MATCH(E50,[1]Songs!$E:$E,0))</f>
         <v>5910977</v>
       </c>
-      <c r="K50" t="s">
+      <c r="J50" t="s">
         <v>15</v>
       </c>
-      <c r="L50" t="str">
+      <c r="K50" t="str">
         <f>IF(ISNUMBER(INDEX([1]Songs!$L:$L,MATCH(E50,[1]Songs!$E:$E,0))),"YES","")</f>
         <v>YES</v>
       </c>
     </row>
-    <row r="51" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="51" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E51" t="s">
         <v>53</v>
       </c>
       <c r="F51" t="s">
         <v>4</v>
       </c>
-      <c r="J51" t="e">
+      <c r="I51" t="e">
         <f>INDEX([1]Songs!$L:$L,MATCH(E51,[1]Songs!$E:$E,0))</f>
         <v>#N/A</v>
       </c>
-      <c r="L51" t="str">
+      <c r="K51" t="str">
         <f>IF(ISNUMBER(INDEX([1]Songs!$L:$L,MATCH(E51,[1]Songs!$E:$E,0))),"YES","")</f>
         <v/>
       </c>
     </row>
-    <row r="52" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="52" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E52" t="s">
         <v>54</v>
       </c>
       <c r="F52" t="s">
         <v>4</v>
       </c>
-      <c r="J52" t="e">
+      <c r="I52" t="e">
         <f>INDEX([1]Songs!$L:$L,MATCH(E52,[1]Songs!$E:$E,0))</f>
         <v>#N/A</v>
       </c>
-      <c r="L52" t="str">
+      <c r="K52" t="str">
         <f>IF(ISNUMBER(INDEX([1]Songs!$L:$L,MATCH(E52,[1]Songs!$E:$E,0))),"YES","")</f>
         <v/>
       </c>
     </row>
-    <row r="53" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="53" spans="5:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="E53" t="s">
         <v>55</v>
       </c>
       <c r="F53" t="s">
         <v>21</v>
       </c>
-      <c r="J53">
+      <c r="I53">
         <f>INDEX([1]Songs!$L:$L,MATCH(E53,[1]Songs!$E:$E,0))</f>
         <v>7019974</v>
       </c>
-      <c r="K53" t="s">
+      <c r="J53" t="s">
         <v>15</v>
       </c>
-      <c r="L53" t="str">
+      <c r="K53" t="str">
         <f>IF(ISNUMBER(INDEX([1]Songs!$L:$L,MATCH(E53,[1]Songs!$E:$E,0))),"YES","")</f>
         <v>YES</v>
       </c>
     </row>
-    <row r="54" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="54" spans="5:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="E54" t="s">
         <v>56</v>
       </c>
       <c r="F54" t="s">
         <v>4</v>
       </c>
-      <c r="J54">
+      <c r="I54">
         <f>INDEX([1]Songs!$L:$L,MATCH(E54,[1]Songs!$E:$E,0))</f>
         <v>6186078</v>
       </c>
-      <c r="K54" t="s">
+      <c r="J54" t="s">
         <v>15</v>
       </c>
-      <c r="L54" t="str">
+      <c r="K54" t="str">
         <f>IF(ISNUMBER(INDEX([1]Songs!$L:$L,MATCH(E54,[1]Songs!$E:$E,0))),"YES","")</f>
         <v>YES</v>
       </c>
     </row>
-    <row r="55" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="55" spans="5:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="E55" t="s">
         <v>57</v>
       </c>
       <c r="F55" t="s">
         <v>4</v>
       </c>
-      <c r="J55">
+      <c r="I55">
         <f>INDEX([1]Songs!$L:$L,MATCH(E55,[1]Songs!$E:$E,0))</f>
         <v>4705190</v>
       </c>
-      <c r="K55" t="s">
+      <c r="J55" t="s">
         <v>15</v>
       </c>
-      <c r="L55" t="str">
+      <c r="K55" t="str">
         <f>IF(ISNUMBER(INDEX([1]Songs!$L:$L,MATCH(E55,[1]Songs!$E:$E,0))),"YES","")</f>
         <v>YES</v>
       </c>
     </row>
-    <row r="56" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="56" spans="5:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="E56" t="s">
         <v>58</v>
       </c>
       <c r="F56" t="s">
         <v>4</v>
       </c>
-      <c r="J56">
+      <c r="I56">
         <f>INDEX([1]Songs!$L:$L,MATCH(E56,[1]Songs!$E:$E,0))</f>
         <v>5124055</v>
       </c>
-      <c r="L56" t="str">
+      <c r="K56" t="str">
         <f>IF(ISNUMBER(INDEX([1]Songs!$L:$L,MATCH(E56,[1]Songs!$E:$E,0))),"YES","")</f>
         <v>YES</v>
       </c>
     </row>
-    <row r="57" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="57" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E57" t="s">
         <v>59</v>
       </c>
       <c r="F57" t="s">
         <v>4</v>
       </c>
-      <c r="J57" t="e">
+      <c r="I57" t="e">
         <f>INDEX([1]Songs!$L:$L,MATCH(E57,[1]Songs!$E:$E,0))</f>
         <v>#N/A</v>
       </c>
-      <c r="L57" t="str">
+      <c r="K57" t="str">
         <f>IF(ISNUMBER(INDEX([1]Songs!$L:$L,MATCH(E57,[1]Songs!$E:$E,0))),"YES","")</f>
         <v/>
       </c>
     </row>
-    <row r="58" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="58" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E58" t="s">
         <v>60</v>
       </c>
       <c r="F58" t="s">
         <v>4</v>
       </c>
-      <c r="J58" t="e">
+      <c r="I58" t="e">
         <f>INDEX([1]Songs!$L:$L,MATCH(E58,[1]Songs!$E:$E,0))</f>
         <v>#N/A</v>
       </c>
-      <c r="L58" t="str">
+      <c r="K58" t="str">
         <f>IF(ISNUMBER(INDEX([1]Songs!$L:$L,MATCH(E58,[1]Songs!$E:$E,0))),"YES","")</f>
         <v/>
       </c>
     </row>
-    <row r="59" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="59" spans="5:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="E59" t="s">
         <v>61</v>
       </c>
       <c r="F59" t="s">
         <v>4</v>
       </c>
-      <c r="J59">
+      <c r="I59">
         <f>INDEX([1]Songs!$L:$L,MATCH(E59,[1]Songs!$E:$E,0))</f>
         <v>6514035</v>
       </c>
-      <c r="K59" t="s">
+      <c r="J59" t="s">
         <v>15</v>
       </c>
-      <c r="L59" t="str">
+      <c r="K59" t="str">
         <f>IF(ISNUMBER(INDEX([1]Songs!$L:$L,MATCH(E59,[1]Songs!$E:$E,0))),"YES","")</f>
         <v>YES</v>
       </c>
     </row>
-    <row r="60" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="60" spans="5:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="E60" t="s">
         <v>62</v>
       </c>
       <c r="F60" t="s">
         <v>4</v>
       </c>
-      <c r="J60">
+      <c r="I60">
         <f>INDEX([1]Songs!$L:$L,MATCH(E60,[1]Songs!$E:$E,0))</f>
         <v>5242683</v>
       </c>
-      <c r="L60" t="str">
+      <c r="K60" t="str">
         <f>IF(ISNUMBER(INDEX([1]Songs!$L:$L,MATCH(E60,[1]Songs!$E:$E,0))),"YES","")</f>
         <v>YES</v>
       </c>
     </row>
-    <row r="61" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="61" spans="5:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="E61" t="s">
         <v>63</v>
       </c>
       <c r="F61" t="s">
         <v>4</v>
       </c>
-      <c r="J61">
+      <c r="I61">
         <f>INDEX([1]Songs!$L:$L,MATCH(E61,[1]Songs!$E:$E,0))</f>
         <v>7017790</v>
       </c>
-      <c r="L61" t="str">
+      <c r="K61" t="str">
         <f>IF(ISNUMBER(INDEX([1]Songs!$L:$L,MATCH(E61,[1]Songs!$E:$E,0))),"YES","")</f>
         <v>YES</v>
       </c>
     </row>
-    <row r="62" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="62" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E62" t="s">
         <v>64</v>
       </c>
       <c r="F62" t="s">
         <v>4</v>
       </c>
-      <c r="J62" t="e">
+      <c r="I62" t="e">
         <f>INDEX([1]Songs!$L:$L,MATCH(E62,[1]Songs!$E:$E,0))</f>
         <v>#N/A</v>
       </c>
-      <c r="L62" t="str">
+      <c r="K62" t="str">
         <f>IF(ISNUMBER(INDEX([1]Songs!$L:$L,MATCH(E62,[1]Songs!$E:$E,0))),"YES","")</f>
         <v/>
       </c>
     </row>
-    <row r="63" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="63" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E63" t="s">
         <v>65</v>
       </c>
       <c r="F63" t="s">
         <v>4</v>
       </c>
-      <c r="J63" t="e">
+      <c r="I63" t="e">
         <f>INDEX([1]Songs!$L:$L,MATCH(E63,[1]Songs!$E:$E,0))</f>
         <v>#N/A</v>
       </c>
-      <c r="L63" t="str">
+      <c r="K63" t="str">
         <f>IF(ISNUMBER(INDEX([1]Songs!$L:$L,MATCH(E63,[1]Songs!$E:$E,0))),"YES","")</f>
         <v/>
       </c>
     </row>
-    <row r="64" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="64" spans="5:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="E64" t="s">
         <v>66</v>
       </c>
       <c r="F64" t="s">
         <v>4</v>
       </c>
-      <c r="J64">
+      <c r="I64">
         <f>INDEX([1]Songs!$L:$L,MATCH(E64,[1]Songs!$E:$E,0))</f>
         <v>2430948</v>
       </c>
-      <c r="K64" t="s">
+      <c r="J64" t="s">
         <v>5</v>
       </c>
-      <c r="L64" t="str">
+      <c r="K64" t="str">
         <f>IF(ISNUMBER(INDEX([1]Songs!$L:$L,MATCH(E64,[1]Songs!$E:$E,0))),"YES","")</f>
         <v>YES</v>
       </c>
     </row>
-    <row r="65" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="65" spans="5:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="E65" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="F65" t="s">
         <v>4</v>
       </c>
-      <c r="J65">
+      <c r="I65">
         <f>INDEX([1]Songs!$L:$L,MATCH(E65,[1]Songs!$E:$E,0))</f>
         <v>4775010</v>
       </c>
-      <c r="L65" t="str">
+      <c r="K65" t="str">
         <f>IF(ISNUMBER(INDEX([1]Songs!$L:$L,MATCH(E65,[1]Songs!$E:$E,0))),"YES","")</f>
         <v>YES</v>
       </c>
     </row>
-    <row r="66" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="66" spans="5:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="E66" t="s">
         <v>67</v>
       </c>
       <c r="F66" t="s">
         <v>4</v>
       </c>
-      <c r="J66">
+      <c r="I66">
         <f>INDEX([1]Songs!$L:$L,MATCH(E66,[1]Songs!$E:$E,0))</f>
         <v>6158927</v>
       </c>
-      <c r="K66" t="s">
+      <c r="J66" t="s">
         <v>15</v>
       </c>
-      <c r="L66" t="str">
+      <c r="K66" t="str">
         <f>IF(ISNUMBER(INDEX([1]Songs!$L:$L,MATCH(E66,[1]Songs!$E:$E,0))),"YES","")</f>
         <v>YES</v>
       </c>
     </row>
-    <row r="67" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="67" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E67" t="s">
         <v>68</v>
       </c>
       <c r="F67" t="s">
         <v>4</v>
       </c>
-      <c r="J67" t="e">
+      <c r="I67" t="e">
         <f>INDEX([1]Songs!$L:$L,MATCH(E67,[1]Songs!$E:$E,0))</f>
         <v>#N/A</v>
       </c>
-      <c r="L67" t="str">
+      <c r="K67" t="str">
         <f>IF(ISNUMBER(INDEX([1]Songs!$L:$L,MATCH(E67,[1]Songs!$E:$E,0))),"YES","")</f>
         <v/>
       </c>
     </row>
-    <row r="68" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="68" spans="5:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="E68" t="s">
         <v>69</v>
       </c>
       <c r="F68" t="s">
         <v>70</v>
       </c>
-      <c r="J68">
+      <c r="I68">
         <f>INDEX([1]Songs!$L:$L,MATCH(E68,[1]Songs!$E:$E,0))</f>
         <v>6463818</v>
       </c>
-      <c r="L68" t="str">
+      <c r="K68" t="str">
         <f>IF(ISNUMBER(INDEX([1]Songs!$L:$L,MATCH(E68,[1]Songs!$E:$E,0))),"YES","")</f>
         <v>YES</v>
       </c>
     </row>
-    <row r="69" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="69" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E69" t="s">
         <v>71</v>
       </c>
       <c r="F69" t="s">
         <v>4</v>
       </c>
-      <c r="J69" t="e">
+      <c r="I69" t="e">
         <f>INDEX([1]Songs!$L:$L,MATCH(E69,[1]Songs!$E:$E,0))</f>
         <v>#N/A</v>
       </c>
-      <c r="L69" t="str">
+      <c r="K69" t="str">
         <f>IF(ISNUMBER(INDEX([1]Songs!$L:$L,MATCH(E69,[1]Songs!$E:$E,0))),"YES","")</f>
         <v/>
       </c>
     </row>
-    <row r="70" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="70" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E70" t="s">
         <v>72</v>
       </c>
       <c r="F70" t="s">
         <v>4</v>
       </c>
-      <c r="J70" t="e">
+      <c r="I70" t="e">
         <f>INDEX([1]Songs!$L:$L,MATCH(E70,[1]Songs!$E:$E,0))</f>
         <v>#N/A</v>
       </c>
-      <c r="L70" t="str">
+      <c r="K70" t="str">
         <f>IF(ISNUMBER(INDEX([1]Songs!$L:$L,MATCH(E70,[1]Songs!$E:$E,0))),"YES","")</f>
         <v/>
       </c>
     </row>
-    <row r="71" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="71" spans="5:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="E71" t="s">
         <v>73</v>
       </c>
       <c r="F71" t="s">
         <v>4</v>
       </c>
-      <c r="J71">
+      <c r="I71">
         <f>INDEX([1]Songs!$L:$L,MATCH(E71,[1]Songs!$E:$E,0))</f>
         <v>1537904</v>
       </c>
-      <c r="K71" t="s">
+      <c r="J71" t="s">
         <v>15</v>
       </c>
-      <c r="L71" t="str">
+      <c r="K71" t="str">
         <f>IF(ISNUMBER(INDEX([1]Songs!$L:$L,MATCH(E71,[1]Songs!$E:$E,0))),"YES","")</f>
         <v>YES</v>
       </c>
     </row>
-    <row r="72" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="72" spans="5:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="E72" t="s">
         <v>74</v>
       </c>
       <c r="F72" t="s">
         <v>4</v>
       </c>
-      <c r="J72">
+      <c r="I72">
         <f>INDEX([1]Songs!$L:$L,MATCH(E72,[1]Songs!$E:$E,0))</f>
         <v>5060793</v>
       </c>
-      <c r="L72" t="str">
+      <c r="K72" t="str">
         <f>IF(ISNUMBER(INDEX([1]Songs!$L:$L,MATCH(E72,[1]Songs!$E:$E,0))),"YES","")</f>
         <v>YES</v>
       </c>
     </row>
-    <row r="73" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="73" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E73" t="s">
         <v>75</v>
       </c>
       <c r="F73" t="s">
         <v>4</v>
       </c>
-      <c r="J73" t="e">
+      <c r="I73" t="e">
         <f>INDEX([1]Songs!$L:$L,MATCH(E73,[1]Songs!$E:$E,0))</f>
         <v>#N/A</v>
       </c>
-      <c r="L73" t="str">
+      <c r="K73" t="str">
         <f>IF(ISNUMBER(INDEX([1]Songs!$L:$L,MATCH(E73,[1]Songs!$E:$E,0))),"YES","")</f>
         <v/>
       </c>
     </row>
-    <row r="74" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="74" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E74" t="s">
         <v>76</v>
       </c>
       <c r="F74" t="s">
         <v>4</v>
       </c>
-      <c r="J74" t="e">
+      <c r="I74" t="e">
         <f>INDEX([1]Songs!$L:$L,MATCH(E74,[1]Songs!$E:$E,0))</f>
         <v>#N/A</v>
       </c>
-      <c r="L74" t="str">
+      <c r="K74" t="str">
         <f>IF(ISNUMBER(INDEX([1]Songs!$L:$L,MATCH(E74,[1]Songs!$E:$E,0))),"YES","")</f>
         <v/>
       </c>
     </row>
-    <row r="75" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="75" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E75" t="s">
         <v>77</v>
       </c>
       <c r="F75" t="s">
         <v>4</v>
       </c>
-      <c r="J75" t="e">
+      <c r="I75" t="e">
         <f>INDEX([1]Songs!$L:$L,MATCH(E75,[1]Songs!$E:$E,0))</f>
         <v>#N/A</v>
       </c>
-      <c r="L75" t="str">
+      <c r="K75" t="str">
         <f>IF(ISNUMBER(INDEX([1]Songs!$L:$L,MATCH(E75,[1]Songs!$E:$E,0))),"YES","")</f>
         <v/>
       </c>
     </row>
-    <row r="76" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="76" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E76" t="s">
         <v>78</v>
       </c>
       <c r="F76" t="s">
         <v>4</v>
       </c>
-      <c r="J76" t="e">
+      <c r="I76" t="e">
         <f>INDEX([1]Songs!$L:$L,MATCH(E76,[1]Songs!$E:$E,0))</f>
         <v>#N/A</v>
       </c>
-      <c r="L76" t="str">
+      <c r="K76" t="str">
         <f>IF(ISNUMBER(INDEX([1]Songs!$L:$L,MATCH(E76,[1]Songs!$E:$E,0))),"YES","")</f>
         <v/>
       </c>
     </row>
-    <row r="77" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="77" spans="5:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="E77" t="s">
         <v>79</v>
       </c>
       <c r="F77" t="s">
         <v>4</v>
       </c>
-      <c r="J77">
+      <c r="I77">
         <f>INDEX([1]Songs!$L:$L,MATCH(E77,[1]Songs!$E:$E,0))</f>
         <v>3599479</v>
       </c>
-      <c r="L77" t="str">
+      <c r="K77" t="str">
         <f>IF(ISNUMBER(INDEX([1]Songs!$L:$L,MATCH(E77,[1]Songs!$E:$E,0))),"YES","")</f>
         <v>YES</v>
       </c>
     </row>
-    <row r="78" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="78" spans="5:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="E78" t="s">
         <v>80</v>
       </c>
       <c r="F78" t="s">
         <v>81</v>
       </c>
-      <c r="J78">
+      <c r="I78">
         <f>INDEX([1]Songs!$L:$L,MATCH(E78,[1]Songs!$E:$E,0))</f>
         <v>7036288</v>
       </c>
-      <c r="K78" t="s">
+      <c r="J78" t="s">
         <v>15</v>
       </c>
-      <c r="L78" t="str">
+      <c r="K78" t="str">
         <f>IF(ISNUMBER(INDEX([1]Songs!$L:$L,MATCH(E78,[1]Songs!$E:$E,0))),"YES","")</f>
         <v>YES</v>
       </c>
     </row>
-    <row r="79" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="79" spans="5:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="E79" t="s">
         <v>82</v>
       </c>
       <c r="F79" t="s">
         <v>4</v>
       </c>
-      <c r="J79">
+      <c r="I79">
         <f>INDEX([1]Songs!$L:$L,MATCH(E79,[1]Songs!$E:$E,0))</f>
         <v>7030065</v>
       </c>
-      <c r="K79" t="s">
+      <c r="J79" t="s">
         <v>15</v>
       </c>
-      <c r="L79" t="str">
+      <c r="K79" t="str">
         <f>IF(ISNUMBER(INDEX([1]Songs!$L:$L,MATCH(E79,[1]Songs!$E:$E,0))),"YES","")</f>
         <v>YES</v>
       </c>
     </row>
-    <row r="80" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="80" spans="5:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="E80" t="s">
         <v>83</v>
       </c>
       <c r="F80" t="s">
         <v>4</v>
       </c>
-      <c r="J80">
+      <c r="I80">
         <f>INDEX([1]Songs!$L:$L,MATCH(E80,[1]Songs!$E:$E,0))</f>
         <v>4556538</v>
       </c>
-      <c r="L80" t="str">
+      <c r="K80" t="str">
         <f>IF(ISNUMBER(INDEX([1]Songs!$L:$L,MATCH(E80,[1]Songs!$E:$E,0))),"YES","")</f>
         <v>YES</v>
       </c>
     </row>
-    <row r="81" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="81" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E81" t="s">
         <v>84</v>
       </c>
       <c r="F81" t="s">
         <v>4</v>
       </c>
-      <c r="J81" t="e">
+      <c r="I81" t="e">
         <f>INDEX([1]Songs!$L:$L,MATCH(E81,[1]Songs!$E:$E,0))</f>
         <v>#N/A</v>
       </c>
-      <c r="L81" t="str">
+      <c r="K81" t="str">
         <f>IF(ISNUMBER(INDEX([1]Songs!$L:$L,MATCH(E81,[1]Songs!$E:$E,0))),"YES","")</f>
         <v/>
       </c>
     </row>
-    <row r="82" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="82" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E82" t="s">
         <v>85</v>
       </c>
       <c r="F82" t="s">
         <v>4</v>
       </c>
-      <c r="J82" t="e">
+      <c r="I82" t="e">
         <f>INDEX([1]Songs!$L:$L,MATCH(E82,[1]Songs!$E:$E,0))</f>
         <v>#N/A</v>
       </c>
-      <c r="L82" t="str">
+      <c r="K82" t="str">
         <f>IF(ISNUMBER(INDEX([1]Songs!$L:$L,MATCH(E82,[1]Songs!$E:$E,0))),"YES","")</f>
         <v/>
       </c>
     </row>
-    <row r="83" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="83" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E83" t="s">
         <v>86</v>
       </c>
       <c r="F83" t="s">
         <v>4</v>
       </c>
-      <c r="J83" t="e">
+      <c r="I83" t="e">
         <f>INDEX([1]Songs!$L:$L,MATCH(E83,[1]Songs!$E:$E,0))</f>
         <v>#N/A</v>
       </c>
-      <c r="L83" t="str">
+      <c r="K83" t="str">
         <f>IF(ISNUMBER(INDEX([1]Songs!$L:$L,MATCH(E83,[1]Songs!$E:$E,0))),"YES","")</f>
         <v/>
       </c>
     </row>
-    <row r="84" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="84" spans="5:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="E84" t="s">
         <v>87</v>
       </c>
       <c r="F84" t="s">
         <v>4</v>
       </c>
-      <c r="J84">
+      <c r="I84">
         <f>INDEX([1]Songs!$L:$L,MATCH(E84,[1]Songs!$E:$E,0))</f>
         <v>465840</v>
       </c>
-      <c r="L84" t="str">
+      <c r="K84" t="str">
         <f>IF(ISNUMBER(INDEX([1]Songs!$L:$L,MATCH(E84,[1]Songs!$E:$E,0))),"YES","")</f>
         <v>YES</v>
       </c>
     </row>
-    <row r="85" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="85" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E85" t="s">
         <v>88</v>
       </c>
       <c r="F85" t="s">
         <v>4</v>
       </c>
-      <c r="J85" t="e">
+      <c r="I85" t="e">
         <f>INDEX([1]Songs!$L:$L,MATCH(E85,[1]Songs!$E:$E,0))</f>
         <v>#N/A</v>
       </c>
-      <c r="L85" t="str">
+      <c r="K85" t="str">
         <f>IF(ISNUMBER(INDEX([1]Songs!$L:$L,MATCH(E85,[1]Songs!$E:$E,0))),"YES","")</f>
         <v/>
       </c>
     </row>
-    <row r="86" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="86" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E86" t="s">
         <v>89</v>
       </c>
       <c r="F86" t="s">
         <v>4</v>
       </c>
-      <c r="J86" t="e">
+      <c r="I86" t="e">
         <f>INDEX([1]Songs!$L:$L,MATCH(E86,[1]Songs!$E:$E,0))</f>
         <v>#N/A</v>
       </c>
-      <c r="L86" t="str">
+      <c r="K86" t="str">
         <f>IF(ISNUMBER(INDEX([1]Songs!$L:$L,MATCH(E86,[1]Songs!$E:$E,0))),"YES","")</f>
         <v/>
       </c>
     </row>
-    <row r="87" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="87" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E87" t="s">
         <v>90</v>
       </c>
       <c r="F87" t="s">
         <v>4</v>
       </c>
-      <c r="J87" t="e">
+      <c r="I87" t="e">
         <f>INDEX([1]Songs!$L:$L,MATCH(E87,[1]Songs!$E:$E,0))</f>
         <v>#N/A</v>
       </c>
-      <c r="L87" t="str">
+      <c r="K87" t="str">
         <f>IF(ISNUMBER(INDEX([1]Songs!$L:$L,MATCH(E87,[1]Songs!$E:$E,0))),"YES","")</f>
         <v/>
       </c>
     </row>
-    <row r="88" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="88" spans="5:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="E88" t="s">
         <v>91</v>
       </c>
       <c r="F88" t="s">
         <v>4</v>
       </c>
-      <c r="J88">
+      <c r="I88">
         <f>INDEX([1]Songs!$L:$L,MATCH(E88,[1]Songs!$E:$E,0))</f>
         <v>3148428</v>
       </c>
-      <c r="K88" t="s">
+      <c r="J88" t="s">
         <v>15</v>
       </c>
-      <c r="L88" t="str">
+      <c r="K88" t="str">
         <f>IF(ISNUMBER(INDEX([1]Songs!$L:$L,MATCH(E88,[1]Songs!$E:$E,0))),"YES","")</f>
         <v>YES</v>
       </c>
     </row>
-    <row r="89" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="89" spans="5:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="E89" t="s">
         <v>92</v>
       </c>
       <c r="F89" t="s">
         <v>4</v>
       </c>
-      <c r="J89">
+      <c r="I89">
         <f>INDEX([1]Songs!$L:$L,MATCH(E89,[1]Songs!$E:$E,0))</f>
         <v>5639997</v>
       </c>
-      <c r="L89" t="str">
+      <c r="K89" t="str">
         <f>IF(ISNUMBER(INDEX([1]Songs!$L:$L,MATCH(E89,[1]Songs!$E:$E,0))),"YES","")</f>
         <v>YES</v>
       </c>
     </row>
-    <row r="90" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="90" spans="5:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="E90" t="s">
         <v>91</v>
       </c>
       <c r="F90" t="s">
         <v>93</v>
       </c>
-      <c r="J90">
+      <c r="I90">
         <f>INDEX([1]Songs!$L:$L,MATCH(E90,[1]Songs!$E:$E,0))</f>
         <v>3148428</v>
       </c>
-      <c r="L90" t="str">
+      <c r="K90" t="str">
         <f>IF(ISNUMBER(INDEX([1]Songs!$L:$L,MATCH(E90,[1]Songs!$E:$E,0))),"YES","")</f>
         <v>YES</v>
       </c>
     </row>
-    <row r="91" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="91" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E91" t="s">
         <v>94</v>
       </c>
       <c r="F91" t="s">
         <v>4</v>
       </c>
-      <c r="J91" t="e">
+      <c r="I91" t="e">
         <f>INDEX([1]Songs!$L:$L,MATCH(E91,[1]Songs!$E:$E,0))</f>
         <v>#N/A</v>
       </c>
-      <c r="L91" t="str">
+      <c r="K91" t="str">
         <f>IF(ISNUMBER(INDEX([1]Songs!$L:$L,MATCH(E91,[1]Songs!$E:$E,0))),"YES","")</f>
         <v/>
       </c>
     </row>
-    <row r="92" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="92" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E92" t="s">
         <v>95</v>
       </c>
       <c r="F92" t="s">
         <v>4</v>
       </c>
-      <c r="J92" t="e">
+      <c r="I92" t="e">
         <f>INDEX([1]Songs!$L:$L,MATCH(E92,[1]Songs!$E:$E,0))</f>
         <v>#N/A</v>
       </c>
-      <c r="L92" t="str">
+      <c r="K92" t="str">
         <f>IF(ISNUMBER(INDEX([1]Songs!$L:$L,MATCH(E92,[1]Songs!$E:$E,0))),"YES","")</f>
         <v/>
       </c>
     </row>
-    <row r="93" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="93" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E93" t="s">
         <v>96</v>
       </c>
       <c r="F93" t="s">
         <v>4</v>
       </c>
-      <c r="J93" t="e">
+      <c r="I93" t="e">
         <f>INDEX([1]Songs!$L:$L,MATCH(E93,[1]Songs!$E:$E,0))</f>
         <v>#N/A</v>
       </c>
-      <c r="L93" t="str">
+      <c r="K93" t="str">
         <f>IF(ISNUMBER(INDEX([1]Songs!$L:$L,MATCH(E93,[1]Songs!$E:$E,0))),"YES","")</f>
         <v/>
       </c>
     </row>
-    <row r="94" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="94" spans="5:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="E94" t="s">
         <v>97</v>
       </c>
       <c r="F94" t="s">
         <v>4</v>
       </c>
-      <c r="J94">
+      <c r="I94">
         <f>INDEX([1]Songs!$L:$L,MATCH(E94,[1]Songs!$E:$E,0))</f>
         <v>4705176</v>
       </c>
-      <c r="K94" t="s">
+      <c r="J94" t="s">
         <v>15</v>
       </c>
-      <c r="L94" t="str">
+      <c r="K94" t="str">
         <f>IF(ISNUMBER(INDEX([1]Songs!$L:$L,MATCH(E94,[1]Songs!$E:$E,0))),"YES","")</f>
         <v>YES</v>
       </c>
     </row>
-    <row r="95" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="95" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E95" t="s">
         <v>98</v>
       </c>
       <c r="F95" t="s">
         <v>4</v>
       </c>
-      <c r="J95" t="e">
+      <c r="I95" t="e">
         <f>INDEX([1]Songs!$L:$L,MATCH(E95,[1]Songs!$E:$E,0))</f>
         <v>#N/A</v>
       </c>
-      <c r="L95" t="str">
+      <c r="K95" t="str">
         <f>IF(ISNUMBER(INDEX([1]Songs!$L:$L,MATCH(E95,[1]Songs!$E:$E,0))),"YES","")</f>
         <v/>
       </c>
     </row>
-    <row r="96" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="96" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E96" t="s">
         <v>99</v>
       </c>
       <c r="F96" t="s">
         <v>4</v>
       </c>
-      <c r="J96" t="e">
+      <c r="I96" t="e">
         <f>INDEX([1]Songs!$L:$L,MATCH(E96,[1]Songs!$E:$E,0))</f>
         <v>#N/A</v>
       </c>
-      <c r="L96" t="str">
+      <c r="K96" t="str">
         <f>IF(ISNUMBER(INDEX([1]Songs!$L:$L,MATCH(E96,[1]Songs!$E:$E,0))),"YES","")</f>
         <v/>
       </c>
     </row>
-    <row r="97" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="97" spans="5:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="E97" t="s">
         <v>100</v>
       </c>
       <c r="F97" t="s">
         <v>4</v>
       </c>
-      <c r="J97">
+      <c r="I97">
         <f>INDEX([1]Songs!$L:$L,MATCH(E97,[1]Songs!$E:$E,0))</f>
         <v>2060208</v>
       </c>
-      <c r="L97" t="str">
+      <c r="K97" t="str">
         <f>IF(ISNUMBER(INDEX([1]Songs!$L:$L,MATCH(E97,[1]Songs!$E:$E,0))),"YES","")</f>
         <v>YES</v>
       </c>
     </row>
-    <row r="98" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="98" spans="5:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="E98" t="s">
         <v>101</v>
       </c>
       <c r="F98" t="s">
         <v>4</v>
       </c>
-      <c r="J98">
+      <c r="I98">
         <f>INDEX([1]Songs!$L:$L,MATCH(E98,[1]Songs!$E:$E,0))</f>
         <v>1383</v>
       </c>
-      <c r="L98" t="str">
+      <c r="K98" t="str">
         <f>IF(ISNUMBER(INDEX([1]Songs!$L:$L,MATCH(E98,[1]Songs!$E:$E,0))),"YES","")</f>
         <v>YES</v>
       </c>
     </row>
-    <row r="99" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="99" spans="5:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="E99" t="s">
         <v>102</v>
       </c>
       <c r="F99" t="s">
         <v>103</v>
       </c>
-      <c r="J99">
+      <c r="I99">
         <f>INDEX([1]Songs!$L:$L,MATCH(E99,[1]Songs!$E:$E,0))</f>
         <v>7081388</v>
       </c>
-      <c r="L99" t="str">
+      <c r="K99" t="str">
         <f>IF(ISNUMBER(INDEX([1]Songs!$L:$L,MATCH(E99,[1]Songs!$E:$E,0))),"YES","")</f>
         <v>YES</v>
       </c>
     </row>
-    <row r="100" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="100" spans="5:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="E100" t="s">
         <v>104</v>
       </c>
       <c r="F100" t="s">
         <v>4</v>
       </c>
-      <c r="J100">
+      <c r="I100">
         <f>INDEX([1]Songs!$L:$L,MATCH(E100,[1]Songs!$E:$E,0))</f>
         <v>5384338</v>
       </c>
-      <c r="L100" t="str">
+      <c r="K100" t="str">
         <f>IF(ISNUMBER(INDEX([1]Songs!$L:$L,MATCH(E100,[1]Songs!$E:$E,0))),"YES","")</f>
         <v>YES</v>
       </c>
     </row>
-    <row r="101" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="101" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E101" t="s">
         <v>105</v>
       </c>
       <c r="F101" t="s">
         <v>4</v>
       </c>
-      <c r="J101" t="e">
+      <c r="I101" t="e">
         <f>INDEX([1]Songs!$L:$L,MATCH(E101,[1]Songs!$E:$E,0))</f>
         <v>#N/A</v>
       </c>
-      <c r="L101" t="str">
+      <c r="K101" t="str">
         <f>IF(ISNUMBER(INDEX([1]Songs!$L:$L,MATCH(E101,[1]Songs!$E:$E,0))),"YES","")</f>
         <v/>
       </c>
     </row>
-    <row r="102" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="102" spans="5:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="E102" t="s">
         <v>106</v>
       </c>
       <c r="F102" t="s">
         <v>4</v>
       </c>
-      <c r="J102">
+      <c r="I102">
         <f>INDEX([1]Songs!$L:$L,MATCH(E102,[1]Songs!$E:$E,0))</f>
         <v>5894275</v>
       </c>
-      <c r="L102" t="str">
+      <c r="K102" t="str">
         <f>IF(ISNUMBER(INDEX([1]Songs!$L:$L,MATCH(E102,[1]Songs!$E:$E,0))),"YES","")</f>
         <v>YES</v>
       </c>
     </row>
-    <row r="103" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="103" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E103" t="s">
         <v>107</v>
       </c>
       <c r="F103" t="s">
         <v>4</v>
       </c>
-      <c r="J103" t="e">
+      <c r="I103" t="e">
         <f>INDEX([1]Songs!$L:$L,MATCH(E103,[1]Songs!$E:$E,0))</f>
         <v>#N/A</v>
       </c>
-      <c r="L103" t="str">
+      <c r="K103" t="str">
         <f>IF(ISNUMBER(INDEX([1]Songs!$L:$L,MATCH(E103,[1]Songs!$E:$E,0))),"YES","")</f>
         <v/>
       </c>
     </row>
-    <row r="104" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="104" spans="5:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="E104" t="s">
         <v>108</v>
       </c>
       <c r="F104" t="s">
         <v>4</v>
       </c>
-      <c r="J104">
+      <c r="I104">
         <f>INDEX([1]Songs!$L:$L,MATCH(E104,[1]Songs!$E:$E,0))</f>
         <v>7100964</v>
       </c>
-      <c r="L104" t="str">
+      <c r="K104" t="str">
         <f>IF(ISNUMBER(INDEX([1]Songs!$L:$L,MATCH(E104,[1]Songs!$E:$E,0))),"YES","")</f>
         <v>YES</v>
       </c>
     </row>
-    <row r="105" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="105" spans="5:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="E105" t="s">
         <v>109</v>
       </c>
       <c r="F105" t="s">
         <v>4</v>
       </c>
-      <c r="J105">
+      <c r="I105">
         <f>INDEX([1]Songs!$L:$L,MATCH(E105,[1]Songs!$E:$E,0))</f>
         <v>5037070</v>
       </c>
-      <c r="K105" t="s">
+      <c r="J105" t="s">
         <v>15</v>
       </c>
-      <c r="L105" t="str">
+      <c r="K105" t="str">
         <f>IF(ISNUMBER(INDEX([1]Songs!$L:$L,MATCH(E105,[1]Songs!$E:$E,0))),"YES","")</f>
         <v>YES</v>
       </c>
     </row>
-    <row r="106" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="106" spans="5:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="E106" t="s">
         <v>110</v>
       </c>
       <c r="F106" t="s">
         <v>4</v>
       </c>
-      <c r="J106">
+      <c r="I106">
         <f>INDEX([1]Songs!$L:$L,MATCH(E106,[1]Songs!$E:$E,0))</f>
         <v>3118757</v>
       </c>
-      <c r="K106" t="s">
+      <c r="J106" t="s">
         <v>15</v>
       </c>
-      <c r="L106" t="str">
+      <c r="K106" t="str">
         <f>IF(ISNUMBER(INDEX([1]Songs!$L:$L,MATCH(E106,[1]Songs!$E:$E,0))),"YES","")</f>
         <v>YES</v>
       </c>
     </row>
-    <row r="107" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="107" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E107" t="s">
         <v>111</v>
       </c>
       <c r="F107" t="s">
         <v>4</v>
       </c>
-      <c r="J107" t="e">
+      <c r="I107" t="e">
         <f>INDEX([1]Songs!$L:$L,MATCH(E107,[1]Songs!$E:$E,0))</f>
         <v>#N/A</v>
       </c>
-      <c r="L107" t="str">
+      <c r="K107" t="str">
         <f>IF(ISNUMBER(INDEX([1]Songs!$L:$L,MATCH(E107,[1]Songs!$E:$E,0))),"YES","")</f>
         <v/>
       </c>
     </row>
-    <row r="108" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="108" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E108" t="s">
         <v>112</v>
       </c>
       <c r="F108" t="s">
         <v>4</v>
       </c>
-      <c r="J108" t="e">
+      <c r="I108" t="e">
         <f>INDEX([1]Songs!$L:$L,MATCH(E108,[1]Songs!$E:$E,0))</f>
         <v>#N/A</v>
       </c>
-      <c r="L108" t="str">
+      <c r="K108" t="str">
         <f>IF(ISNUMBER(INDEX([1]Songs!$L:$L,MATCH(E108,[1]Songs!$E:$E,0))),"YES","")</f>
         <v/>
       </c>
     </row>
-    <row r="109" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="109" spans="5:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="E109" t="s">
         <v>113</v>
       </c>
       <c r="F109" t="s">
         <v>4</v>
       </c>
-      <c r="J109">
+      <c r="I109">
         <f>INDEX([1]Songs!$L:$L,MATCH(E109,[1]Songs!$E:$E,0))</f>
         <v>7036612</v>
       </c>
-      <c r="K109" t="s">
+      <c r="J109" t="s">
         <v>15</v>
       </c>
-      <c r="L109" t="str">
+      <c r="K109" t="str">
         <f>IF(ISNUMBER(INDEX([1]Songs!$L:$L,MATCH(E109,[1]Songs!$E:$E,0))),"YES","")</f>
         <v>YES</v>
       </c>
     </row>
-    <row r="110" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="110" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E110" t="s">
         <v>114</v>
       </c>
       <c r="F110" t="s">
         <v>4</v>
       </c>
-      <c r="J110" t="e">
+      <c r="I110" t="e">
         <f>INDEX([1]Songs!$L:$L,MATCH(E110,[1]Songs!$E:$E,0))</f>
         <v>#N/A</v>
       </c>
-      <c r="L110" t="str">
+      <c r="K110" t="str">
         <f>IF(ISNUMBER(INDEX([1]Songs!$L:$L,MATCH(E110,[1]Songs!$E:$E,0))),"YES","")</f>
         <v/>
       </c>
     </row>
-    <row r="111" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="111" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E111" t="s">
         <v>115</v>
       </c>
       <c r="F111" t="s">
         <v>4</v>
       </c>
-      <c r="J111" t="e">
+      <c r="I111" t="e">
         <f>INDEX([1]Songs!$L:$L,MATCH(E111,[1]Songs!$E:$E,0))</f>
         <v>#N/A</v>
       </c>
-      <c r="L111" t="str">
+      <c r="K111" t="str">
         <f>IF(ISNUMBER(INDEX([1]Songs!$L:$L,MATCH(E111,[1]Songs!$E:$E,0))),"YES","")</f>
         <v/>
       </c>
     </row>
-    <row r="112" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="112" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E112" t="s">
         <v>116</v>
       </c>
       <c r="F112" t="s">
         <v>4</v>
       </c>
-      <c r="J112" t="e">
+      <c r="I112" t="e">
         <f>INDEX([1]Songs!$L:$L,MATCH(E112,[1]Songs!$E:$E,0))</f>
         <v>#N/A</v>
       </c>
-      <c r="L112" t="str">
+      <c r="K112" t="str">
         <f>IF(ISNUMBER(INDEX([1]Songs!$L:$L,MATCH(E112,[1]Songs!$E:$E,0))),"YES","")</f>
         <v/>
       </c>
     </row>
-    <row r="113" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="113" spans="5:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="E113" t="s">
         <v>117</v>
       </c>
       <c r="F113" t="s">
         <v>4</v>
       </c>
-      <c r="J113">
+      <c r="I113">
         <f>INDEX([1]Songs!$L:$L,MATCH(E113,[1]Songs!$E:$E,0))</f>
         <v>6460220</v>
       </c>
-      <c r="K113" t="s">
+      <c r="J113" t="s">
         <v>15</v>
       </c>
-      <c r="L113" t="str">
+      <c r="K113" t="str">
         <f>IF(ISNUMBER(INDEX([1]Songs!$L:$L,MATCH(E113,[1]Songs!$E:$E,0))),"YES","")</f>
         <v>YES</v>
       </c>
     </row>
-    <row r="114" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="114" spans="5:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="E114" t="s">
         <v>118</v>
       </c>
       <c r="F114" t="s">
         <v>4</v>
       </c>
-      <c r="J114">
+      <c r="I114">
         <f>INDEX([1]Songs!$L:$L,MATCH(E114,[1]Songs!$E:$E,0))</f>
         <v>5881491</v>
       </c>
-      <c r="K114" t="s">
+      <c r="J114" t="s">
         <v>15</v>
       </c>
-      <c r="L114" t="str">
+      <c r="K114" t="str">
         <f>IF(ISNUMBER(INDEX([1]Songs!$L:$L,MATCH(E114,[1]Songs!$E:$E,0))),"YES","")</f>
         <v>YES</v>
       </c>
     </row>
-    <row r="115" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="115" spans="5:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="E115" t="s">
         <v>119</v>
       </c>
       <c r="F115" t="s">
         <v>4</v>
       </c>
-      <c r="J115">
+      <c r="I115">
         <f>INDEX([1]Songs!$L:$L,MATCH(E115,[1]Songs!$E:$E,0))</f>
         <v>10769</v>
       </c>
-      <c r="L115" t="str">
+      <c r="K115" t="str">
         <f>IF(ISNUMBER(INDEX([1]Songs!$L:$L,MATCH(E115,[1]Songs!$E:$E,0))),"YES","")</f>
         <v>YES</v>
       </c>
     </row>
-    <row r="116" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="116" spans="5:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="E116" t="s">
         <v>120</v>
       </c>
       <c r="F116" t="s">
         <v>4</v>
       </c>
-      <c r="J116">
+      <c r="I116">
         <f>INDEX([1]Songs!$L:$L,MATCH(E116,[1]Songs!$E:$E,0))</f>
         <v>18723</v>
       </c>
-      <c r="L116" t="str">
+      <c r="K116" t="str">
         <f>IF(ISNUMBER(INDEX([1]Songs!$L:$L,MATCH(E116,[1]Songs!$E:$E,0))),"YES","")</f>
         <v>YES</v>
       </c>
     </row>
-    <row r="117" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="117" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E117" t="s">
         <v>121</v>
       </c>
       <c r="F117" t="s">
         <v>4</v>
       </c>
-      <c r="J117" t="e">
+      <c r="I117" t="e">
         <f>INDEX([1]Songs!$L:$L,MATCH(E117,[1]Songs!$E:$E,0))</f>
         <v>#N/A</v>
       </c>
-      <c r="L117" t="str">
+      <c r="K117" t="str">
         <f>IF(ISNUMBER(INDEX([1]Songs!$L:$L,MATCH(E117,[1]Songs!$E:$E,0))),"YES","")</f>
         <v/>
       </c>
     </row>
-    <row r="118" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="118" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E118" t="s">
         <v>122</v>
       </c>
       <c r="F118" t="s">
         <v>123</v>
       </c>
-      <c r="J118" t="e">
+      <c r="I118" t="e">
         <f>INDEX([1]Songs!$L:$L,MATCH(E118,[1]Songs!$E:$E,0))</f>
         <v>#N/A</v>
       </c>
-      <c r="L118" t="str">
+      <c r="K118" t="str">
         <f>IF(ISNUMBER(INDEX([1]Songs!$L:$L,MATCH(E118,[1]Songs!$E:$E,0))),"YES","")</f>
         <v/>
       </c>
     </row>
-    <row r="119" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="119" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E119" t="s">
         <v>124</v>
       </c>
       <c r="F119" t="s">
         <v>4</v>
       </c>
-      <c r="J119" t="e">
+      <c r="I119" t="e">
         <f>INDEX([1]Songs!$L:$L,MATCH(E119,[1]Songs!$E:$E,0))</f>
         <v>#N/A</v>
       </c>
-      <c r="L119" t="str">
+      <c r="K119" t="str">
         <f>IF(ISNUMBER(INDEX([1]Songs!$L:$L,MATCH(E119,[1]Songs!$E:$E,0))),"YES","")</f>
         <v/>
       </c>
     </row>
-    <row r="120" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="120" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E120" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="F120" t="s">
         <v>4</v>
       </c>
-      <c r="J120" t="e">
+      <c r="I120" t="e">
         <f>INDEX([1]Songs!$L:$L,MATCH(E120,[1]Songs!$E:$E,0))</f>
         <v>#N/A</v>
       </c>
-      <c r="L120" t="str">
+      <c r="K120" t="str">
         <f>IF(ISNUMBER(INDEX([1]Songs!$L:$L,MATCH(E120,[1]Songs!$E:$E,0))),"YES","")</f>
         <v/>
       </c>
     </row>
-    <row r="121" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="121" spans="5:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="E121" t="s">
         <v>125</v>
       </c>
       <c r="F121" t="s">
         <v>4</v>
       </c>
-      <c r="J121">
+      <c r="I121">
         <f>INDEX([1]Songs!$L:$L,MATCH(E121,[1]Songs!$E:$E,0))</f>
         <v>4847027</v>
       </c>
-      <c r="L121" t="str">
+      <c r="K121" t="str">
         <f>IF(ISNUMBER(INDEX([1]Songs!$L:$L,MATCH(E121,[1]Songs!$E:$E,0))),"YES","")</f>
         <v>YES</v>
       </c>
     </row>
-    <row r="122" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="122" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E122" t="s">
         <v>126</v>
       </c>
       <c r="F122" t="s">
         <v>4</v>
       </c>
-      <c r="J122" t="e">
+      <c r="I122" t="e">
         <f>INDEX([1]Songs!$L:$L,MATCH(E122,[1]Songs!$E:$E,0))</f>
         <v>#N/A</v>
       </c>
-      <c r="L122" t="str">
+      <c r="K122" t="str">
         <f>IF(ISNUMBER(INDEX([1]Songs!$L:$L,MATCH(E122,[1]Songs!$E:$E,0))),"YES","")</f>
         <v/>
       </c>
     </row>
-    <row r="123" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="123" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E123" t="s">
         <v>127</v>
       </c>
       <c r="F123" t="s">
         <v>4</v>
       </c>
-      <c r="J123" t="e">
+      <c r="I123" t="e">
         <f>INDEX([1]Songs!$L:$L,MATCH(E123,[1]Songs!$E:$E,0))</f>
         <v>#N/A</v>
       </c>
-      <c r="L123" t="str">
+      <c r="K123" t="str">
         <f>IF(ISNUMBER(INDEX([1]Songs!$L:$L,MATCH(E123,[1]Songs!$E:$E,0))),"YES","")</f>
         <v/>
       </c>
     </row>
-    <row r="124" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="124" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E124" t="s">
         <v>128</v>
       </c>
       <c r="F124" t="s">
         <v>129</v>
       </c>
-      <c r="J124" t="e">
+      <c r="I124" t="e">
         <f>INDEX([1]Songs!$L:$L,MATCH(E124,[1]Songs!$E:$E,0))</f>
         <v>#N/A</v>
       </c>
-      <c r="L124" t="str">
+      <c r="K124" t="str">
         <f>IF(ISNUMBER(INDEX([1]Songs!$L:$L,MATCH(E124,[1]Songs!$E:$E,0))),"YES","")</f>
         <v/>
       </c>
     </row>
-    <row r="125" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="125" spans="5:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="E125" t="s">
         <v>130</v>
       </c>
       <c r="F125" t="s">
         <v>4</v>
       </c>
-      <c r="J125">
+      <c r="I125">
         <f>INDEX([1]Songs!$L:$L,MATCH(E125,[1]Songs!$E:$E,0))</f>
         <v>17827</v>
       </c>
-      <c r="L125" t="str">
+      <c r="K125" t="str">
         <f>IF(ISNUMBER(INDEX([1]Songs!$L:$L,MATCH(E125,[1]Songs!$E:$E,0))),"YES","")</f>
         <v>YES</v>
       </c>
     </row>
-    <row r="126" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="126" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E126" t="s">
         <v>131</v>
       </c>
       <c r="F126" t="s">
         <v>4</v>
       </c>
-      <c r="J126" t="e">
+      <c r="I126" t="e">
         <f>INDEX([1]Songs!$L:$L,MATCH(E126,[1]Songs!$E:$E,0))</f>
         <v>#N/A</v>
       </c>
-      <c r="L126" t="str">
+      <c r="K126" t="str">
         <f>IF(ISNUMBER(INDEX([1]Songs!$L:$L,MATCH(E126,[1]Songs!$E:$E,0))),"YES","")</f>
         <v/>
       </c>
     </row>
-    <row r="127" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="127" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E127" t="s">
         <v>132</v>
       </c>
       <c r="F127" t="s">
         <v>4</v>
       </c>
-      <c r="J127" t="e">
+      <c r="I127" t="e">
         <f>INDEX([1]Songs!$L:$L,MATCH(E127,[1]Songs!$E:$E,0))</f>
         <v>#N/A</v>
       </c>
-      <c r="L127" t="str">
+      <c r="K127" t="str">
         <f>IF(ISNUMBER(INDEX([1]Songs!$L:$L,MATCH(E127,[1]Songs!$E:$E,0))),"YES","")</f>
         <v/>
       </c>
     </row>
-    <row r="128" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="128" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E128" t="s">
         <v>133</v>
       </c>
       <c r="F128" t="s">
         <v>4</v>
       </c>
-      <c r="J128" t="e">
+      <c r="I128" t="e">
         <f>INDEX([1]Songs!$L:$L,MATCH(E128,[1]Songs!$E:$E,0))</f>
         <v>#N/A</v>
       </c>
-      <c r="L128" t="str">
+      <c r="K128" t="str">
         <f>IF(ISNUMBER(INDEX([1]Songs!$L:$L,MATCH(E128,[1]Songs!$E:$E,0))),"YES","")</f>
         <v/>
       </c>
     </row>
-    <row r="129" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="129" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E129" t="s">
         <v>134</v>
       </c>
       <c r="F129" t="s">
         <v>4</v>
       </c>
-      <c r="J129" t="e">
+      <c r="I129" t="e">
         <f>INDEX([1]Songs!$L:$L,MATCH(E129,[1]Songs!$E:$E,0))</f>
         <v>#N/A</v>
       </c>
-      <c r="L129" t="str">
+      <c r="K129" t="str">
         <f>IF(ISNUMBER(INDEX([1]Songs!$L:$L,MATCH(E129,[1]Songs!$E:$E,0))),"YES","")</f>
         <v/>
       </c>
     </row>
-    <row r="130" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="130" spans="5:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="E130" t="s">
         <v>135</v>
       </c>
       <c r="F130" t="s">
         <v>4</v>
       </c>
-      <c r="J130">
+      <c r="I130">
         <f>INDEX([1]Songs!$L:$L,MATCH(E130,[1]Songs!$E:$E,0))</f>
         <v>4026635</v>
       </c>
-      <c r="L130" t="str">
+      <c r="K130" t="str">
         <f>IF(ISNUMBER(INDEX([1]Songs!$L:$L,MATCH(E130,[1]Songs!$E:$E,0))),"YES","")</f>
         <v>YES</v>
       </c>
     </row>
-    <row r="131" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="131" spans="5:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="E131" t="s">
         <v>136</v>
       </c>
       <c r="F131" t="s">
         <v>4</v>
       </c>
-      <c r="J131">
+      <c r="I131">
         <f>INDEX([1]Songs!$L:$L,MATCH(E131,[1]Songs!$E:$E,0))</f>
         <v>4873981</v>
       </c>
-      <c r="K131" t="s">
+      <c r="J131" t="s">
         <v>15</v>
       </c>
-      <c r="L131" t="str">
+      <c r="K131" t="str">
         <f>IF(ISNUMBER(INDEX([1]Songs!$L:$L,MATCH(E131,[1]Songs!$E:$E,0))),"YES","")</f>
         <v>YES</v>
       </c>
     </row>
-    <row r="132" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="132" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E132" t="s">
         <v>137</v>
       </c>
       <c r="F132" t="s">
         <v>4</v>
       </c>
-      <c r="J132" t="e">
+      <c r="I132" t="e">
         <f>INDEX([1]Songs!$L:$L,MATCH(E132,[1]Songs!$E:$E,0))</f>
         <v>#N/A</v>
       </c>
-      <c r="L132" t="str">
+      <c r="K132" t="str">
         <f>IF(ISNUMBER(INDEX([1]Songs!$L:$L,MATCH(E132,[1]Songs!$E:$E,0))),"YES","")</f>
         <v/>
       </c>
     </row>
-    <row r="133" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="133" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E133" t="s">
         <v>138</v>
       </c>
       <c r="F133" t="s">
         <v>139</v>
       </c>
-      <c r="J133" t="e">
+      <c r="I133" t="e">
         <f>INDEX([1]Songs!$L:$L,MATCH(E133,[1]Songs!$E:$E,0))</f>
         <v>#N/A</v>
       </c>
-      <c r="K133" t="s">
+      <c r="J133" t="s">
         <v>15</v>
       </c>
-      <c r="L133" t="str">
+      <c r="K133" t="str">
         <f>IF(ISNUMBER(INDEX([1]Songs!$L:$L,MATCH(E133,[1]Songs!$E:$E,0))),"YES","")</f>
         <v/>
       </c>
     </row>
-    <row r="134" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="134" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E134" t="s">
         <v>140</v>
       </c>
       <c r="F134" t="s">
         <v>4</v>
       </c>
-      <c r="J134" t="e">
+      <c r="I134" t="e">
         <f>INDEX([1]Songs!$L:$L,MATCH(E134,[1]Songs!$E:$E,0))</f>
         <v>#N/A</v>
       </c>
-      <c r="L134" t="str">
+      <c r="K134" t="str">
         <f>IF(ISNUMBER(INDEX([1]Songs!$L:$L,MATCH(E134,[1]Songs!$E:$E,0))),"YES","")</f>
         <v/>
       </c>
     </row>
-    <row r="135" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="135" spans="5:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="E135" t="s">
         <v>141</v>
       </c>
       <c r="F135" t="s">
         <v>4</v>
       </c>
-      <c r="J135">
+      <c r="I135">
         <f>INDEX([1]Songs!$L:$L,MATCH(E135,[1]Songs!$E:$E,0))</f>
         <v>5925649</v>
       </c>
-      <c r="L135" t="str">
+      <c r="K135" t="str">
         <f>IF(ISNUMBER(INDEX([1]Songs!$L:$L,MATCH(E135,[1]Songs!$E:$E,0))),"YES","")</f>
         <v>YES</v>
       </c>
     </row>
-    <row r="136" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="136" spans="5:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="E136" t="s">
         <v>142</v>
       </c>
       <c r="F136" t="s">
         <v>143</v>
       </c>
-      <c r="J136">
+      <c r="I136">
         <f>INDEX([1]Songs!$L:$L,MATCH(E136,[1]Songs!$E:$E,0))</f>
         <v>3266032</v>
       </c>
-      <c r="K136" t="s">
+      <c r="J136" t="s">
         <v>15</v>
       </c>
-      <c r="L136" t="str">
+      <c r="K136" t="str">
         <f>IF(ISNUMBER(INDEX([1]Songs!$L:$L,MATCH(E136,[1]Songs!$E:$E,0))),"YES","")</f>
         <v>YES</v>
       </c>
     </row>
-    <row r="137" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="137" spans="5:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="E137" t="s">
         <v>144</v>
       </c>
       <c r="F137" t="s">
         <v>4</v>
       </c>
-      <c r="J137">
+      <c r="I137">
         <f>INDEX([1]Songs!$L:$L,MATCH(E137,[1]Songs!$E:$E,0))</f>
         <v>6517898</v>
       </c>
-      <c r="K137" t="s">
+      <c r="J137" t="s">
         <v>15</v>
       </c>
-      <c r="L137" t="str">
+      <c r="K137" t="str">
         <f>IF(ISNUMBER(INDEX([1]Songs!$L:$L,MATCH(E137,[1]Songs!$E:$E,0))),"YES","")</f>
         <v>YES</v>
       </c>
     </row>
-    <row r="138" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="138" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E138" t="s">
         <v>145</v>
       </c>
       <c r="F138" t="s">
         <v>4</v>
       </c>
-      <c r="J138" t="e">
+      <c r="I138" t="e">
         <f>INDEX([1]Songs!$L:$L,MATCH(E138,[1]Songs!$E:$E,0))</f>
         <v>#N/A</v>
       </c>
-      <c r="L138" t="str">
+      <c r="K138" t="str">
         <f>IF(ISNUMBER(INDEX([1]Songs!$L:$L,MATCH(E138,[1]Songs!$E:$E,0))),"YES","")</f>
         <v/>
       </c>
     </row>
-    <row r="139" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="139" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E139" t="s">
         <v>146</v>
       </c>
       <c r="F139" t="s">
         <v>4</v>
       </c>
-      <c r="J139" t="e">
+      <c r="I139" t="e">
         <f>INDEX([1]Songs!$L:$L,MATCH(E139,[1]Songs!$E:$E,0))</f>
         <v>#N/A</v>
       </c>
-      <c r="L139" t="str">
+      <c r="K139" t="str">
         <f>IF(ISNUMBER(INDEX([1]Songs!$L:$L,MATCH(E139,[1]Songs!$E:$E,0))),"YES","")</f>
         <v/>
       </c>
     </row>
-    <row r="140" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="140" spans="5:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="E140" t="s">
         <v>147</v>
       </c>
       <c r="F140" t="s">
         <v>4</v>
       </c>
-      <c r="J140">
+      <c r="I140">
         <f>INDEX([1]Songs!$L:$L,MATCH(E140,[1]Songs!$E:$E,0))</f>
         <v>164361</v>
       </c>
-      <c r="L140" t="str">
+      <c r="K140" t="str">
         <f>IF(ISNUMBER(INDEX([1]Songs!$L:$L,MATCH(E140,[1]Songs!$E:$E,0))),"YES","")</f>
         <v>YES</v>
       </c>
     </row>
-    <row r="141" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="141" spans="5:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="E141" t="s">
         <v>148</v>
       </c>
       <c r="F141" t="s">
         <v>4</v>
       </c>
-      <c r="J141">
+      <c r="I141">
         <f>INDEX([1]Songs!$L:$L,MATCH(E141,[1]Songs!$E:$E,0))</f>
         <v>7078152</v>
       </c>
-      <c r="L141" t="str">
+      <c r="K141" t="str">
         <f>IF(ISNUMBER(INDEX([1]Songs!$L:$L,MATCH(E141,[1]Songs!$E:$E,0))),"YES","")</f>
         <v>YES</v>
       </c>
     </row>
-    <row r="142" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="142" spans="5:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="E142" t="s">
         <v>148</v>
       </c>
       <c r="F142" t="s">
         <v>4</v>
       </c>
-      <c r="J142">
+      <c r="I142">
         <f>INDEX([1]Songs!$L:$L,MATCH(E142,[1]Songs!$E:$E,0))</f>
         <v>7078152</v>
       </c>
-      <c r="L142" t="str">
+      <c r="K142" t="str">
         <f>IF(ISNUMBER(INDEX([1]Songs!$L:$L,MATCH(E142,[1]Songs!$E:$E,0))),"YES","")</f>
         <v>YES</v>
       </c>
     </row>
-    <row r="143" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="143" spans="5:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="E143" t="s">
         <v>149</v>
       </c>
       <c r="F143" t="s">
         <v>4</v>
       </c>
-      <c r="J143">
+      <c r="I143">
         <f>INDEX([1]Songs!$L:$L,MATCH(E143,[1]Songs!$E:$E,0))</f>
         <v>4158039</v>
       </c>
-      <c r="L143" t="str">
+      <c r="K143" t="str">
         <f>IF(ISNUMBER(INDEX([1]Songs!$L:$L,MATCH(E143,[1]Songs!$E:$E,0))),"YES","")</f>
         <v>YES</v>
       </c>
     </row>
-    <row r="144" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="144" spans="5:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="E144" t="s">
         <v>150</v>
       </c>
       <c r="F144" t="s">
         <v>4</v>
       </c>
-      <c r="J144">
+      <c r="I144">
         <f>INDEX([1]Songs!$L:$L,MATCH(E144,[1]Songs!$E:$E,0))</f>
         <v>6087919</v>
       </c>
-      <c r="L144" t="str">
+      <c r="K144" t="str">
         <f>IF(ISNUMBER(INDEX([1]Songs!$L:$L,MATCH(E144,[1]Songs!$E:$E,0))),"YES","")</f>
         <v>YES</v>
       </c>
     </row>
-    <row r="145" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="145" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E145" t="s">
         <v>151</v>
       </c>
       <c r="F145" t="s">
         <v>4</v>
       </c>
-      <c r="J145" t="e">
+      <c r="I145" t="e">
         <f>INDEX([1]Songs!$L:$L,MATCH(E145,[1]Songs!$E:$E,0))</f>
         <v>#N/A</v>
       </c>
-      <c r="L145" t="str">
+      <c r="K145" t="str">
         <f>IF(ISNUMBER(INDEX([1]Songs!$L:$L,MATCH(E145,[1]Songs!$E:$E,0))),"YES","")</f>
         <v/>
       </c>
     </row>
-    <row r="146" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="146" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E146" t="s">
+        <v>425</v>
+      </c>
+      <c r="F146" t="s">
+        <v>4</v>
+      </c>
+      <c r="I146" t="e">
+        <f>INDEX([1]Songs!$L:$L,MATCH(E146,[1]Songs!$E:$E,0))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="K146" t="str">
+        <f>IF(ISNUMBER(INDEX([1]Songs!$L:$L,MATCH(E146,[1]Songs!$E:$E,0))),"YES","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="147" spans="5:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="E147" t="s">
         <v>426</v>
       </c>
-      <c r="F146" t="s">
-        <v>4</v>
-      </c>
-      <c r="J146" t="e">
-        <f>INDEX([1]Songs!$L:$L,MATCH(E146,[1]Songs!$E:$E,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="L146" t="str">
-        <f>IF(ISNUMBER(INDEX([1]Songs!$L:$L,MATCH(E146,[1]Songs!$E:$E,0))),"YES","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="147" spans="5:12" x14ac:dyDescent="0.25">
-      <c r="E147" t="s">
-        <v>427</v>
-      </c>
       <c r="F147" t="s">
         <v>4</v>
       </c>
-      <c r="J147">
+      <c r="I147">
         <f>INDEX([1]Songs!$L:$L,MATCH(E147,[1]Songs!$E:$E,0))</f>
         <v>1540719</v>
       </c>
-      <c r="L147" t="str">
+      <c r="K147" t="str">
         <f>IF(ISNUMBER(INDEX([1]Songs!$L:$L,MATCH(E147,[1]Songs!$E:$E,0))),"YES","")</f>
         <v>YES</v>
       </c>
     </row>
-    <row r="148" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="148" spans="5:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="E148" t="s">
         <v>152</v>
       </c>
       <c r="F148" t="s">
         <v>4</v>
       </c>
-      <c r="J148">
+      <c r="I148">
         <f>INDEX([1]Songs!$L:$L,MATCH(E148,[1]Songs!$E:$E,0))</f>
         <v>4662491</v>
       </c>
-      <c r="K148" t="s">
+      <c r="J148" t="s">
         <v>15</v>
       </c>
-      <c r="L148" t="str">
+      <c r="K148" t="str">
         <f>IF(ISNUMBER(INDEX([1]Songs!$L:$L,MATCH(E148,[1]Songs!$E:$E,0))),"YES","")</f>
         <v>YES</v>
       </c>
     </row>
-    <row r="149" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="149" spans="5:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="E149" t="s">
         <v>152</v>
       </c>
       <c r="F149" t="s">
         <v>4</v>
       </c>
-      <c r="J149">
+      <c r="I149">
         <f>INDEX([1]Songs!$L:$L,MATCH(E149,[1]Songs!$E:$E,0))</f>
         <v>4662491</v>
       </c>
-      <c r="L149" t="str">
+      <c r="K149" t="str">
         <f>IF(ISNUMBER(INDEX([1]Songs!$L:$L,MATCH(E149,[1]Songs!$E:$E,0))),"YES","")</f>
         <v>YES</v>
       </c>
     </row>
-    <row r="150" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="150" spans="5:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="E150" t="s">
         <v>152</v>
       </c>
       <c r="F150" t="s">
         <v>153</v>
       </c>
-      <c r="J150">
+      <c r="I150">
         <f>INDEX([1]Songs!$L:$L,MATCH(E150,[1]Songs!$E:$E,0))</f>
         <v>4662491</v>
       </c>
-      <c r="K150" t="s">
+      <c r="J150" t="s">
         <v>15</v>
       </c>
-      <c r="L150" t="str">
+      <c r="K150" t="str">
         <f>IF(ISNUMBER(INDEX([1]Songs!$L:$L,MATCH(E150,[1]Songs!$E:$E,0))),"YES","")</f>
         <v>YES</v>
       </c>
     </row>
-    <row r="151" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="151" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E151" t="s">
         <v>154</v>
       </c>
       <c r="F151" t="s">
         <v>4</v>
       </c>
-      <c r="J151" t="e">
+      <c r="I151" t="e">
         <f>INDEX([1]Songs!$L:$L,MATCH(E151,[1]Songs!$E:$E,0))</f>
         <v>#N/A</v>
       </c>
-      <c r="L151" t="str">
+      <c r="K151" t="str">
         <f>IF(ISNUMBER(INDEX([1]Songs!$L:$L,MATCH(E151,[1]Songs!$E:$E,0))),"YES","")</f>
         <v/>
       </c>
     </row>
-    <row r="152" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="152" spans="5:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="E152" t="s">
         <v>155</v>
       </c>
       <c r="F152" t="s">
         <v>4</v>
       </c>
-      <c r="J152">
+      <c r="I152">
         <f>INDEX([1]Songs!$L:$L,MATCH(E152,[1]Songs!$E:$E,0))</f>
         <v>1558110</v>
       </c>
-      <c r="K152" t="s">
+      <c r="J152" t="s">
         <v>27</v>
       </c>
-      <c r="L152" t="str">
+      <c r="K152" t="str">
         <f>IF(ISNUMBER(INDEX([1]Songs!$L:$L,MATCH(E152,[1]Songs!$E:$E,0))),"YES","")</f>
         <v>YES</v>
       </c>
     </row>
-    <row r="153" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="153" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E153" t="s">
         <v>156</v>
       </c>
       <c r="F153" t="s">
         <v>4</v>
       </c>
-      <c r="J153" t="e">
+      <c r="I153" t="e">
         <f>INDEX([1]Songs!$L:$L,MATCH(E153,[1]Songs!$E:$E,0))</f>
         <v>#N/A</v>
       </c>
-      <c r="L153" t="str">
+      <c r="K153" t="str">
         <f>IF(ISNUMBER(INDEX([1]Songs!$L:$L,MATCH(E153,[1]Songs!$E:$E,0))),"YES","")</f>
         <v/>
       </c>
     </row>
-    <row r="154" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="154" spans="5:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="E154" t="s">
         <v>157</v>
       </c>
       <c r="F154" t="s">
         <v>4</v>
       </c>
-      <c r="J154">
+      <c r="I154">
         <f>INDEX([1]Songs!$L:$L,MATCH(E154,[1]Songs!$E:$E,0))</f>
         <v>4348399</v>
       </c>
-      <c r="K154" t="s">
+      <c r="J154" t="s">
         <v>15</v>
       </c>
-      <c r="L154" t="str">
+      <c r="K154" t="str">
         <f>IF(ISNUMBER(INDEX([1]Songs!$L:$L,MATCH(E154,[1]Songs!$E:$E,0))),"YES","")</f>
         <v>YES</v>
       </c>
     </row>
-    <row r="155" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="155" spans="5:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="E155" t="s">
         <v>158</v>
       </c>
       <c r="F155" t="s">
         <v>4</v>
       </c>
-      <c r="J155">
+      <c r="I155">
         <f>INDEX([1]Songs!$L:$L,MATCH(E155,[1]Songs!$E:$E,0))</f>
         <v>14181</v>
       </c>
-      <c r="L155" t="str">
+      <c r="K155" t="str">
         <f>IF(ISNUMBER(INDEX([1]Songs!$L:$L,MATCH(E155,[1]Songs!$E:$E,0))),"YES","")</f>
         <v>YES</v>
       </c>
     </row>
-    <row r="156" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="156" spans="5:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="E156" t="s">
         <v>159</v>
       </c>
       <c r="F156" t="s">
         <v>4</v>
       </c>
-      <c r="J156">
+      <c r="I156">
         <f>INDEX([1]Songs!$L:$L,MATCH(E156,[1]Songs!$E:$E,0))</f>
         <v>5032549</v>
       </c>
-      <c r="L156" t="str">
+      <c r="K156" t="str">
         <f>IF(ISNUMBER(INDEX([1]Songs!$L:$L,MATCH(E156,[1]Songs!$E:$E,0))),"YES","")</f>
         <v>YES</v>
       </c>
     </row>
-    <row r="157" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="157" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E157" t="s">
         <v>160</v>
       </c>
       <c r="F157" t="s">
         <v>4</v>
       </c>
-      <c r="J157" t="e">
+      <c r="I157" t="e">
         <f>INDEX([1]Songs!$L:$L,MATCH(E157,[1]Songs!$E:$E,0))</f>
         <v>#N/A</v>
       </c>
-      <c r="L157" t="str">
+      <c r="K157" t="str">
         <f>IF(ISNUMBER(INDEX([1]Songs!$L:$L,MATCH(E157,[1]Songs!$E:$E,0))),"YES","")</f>
         <v/>
       </c>
     </row>
-    <row r="158" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="158" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E158" t="s">
         <v>161</v>
       </c>
       <c r="F158" t="s">
         <v>4</v>
       </c>
-      <c r="J158" t="e">
+      <c r="I158" t="e">
         <f>INDEX([1]Songs!$L:$L,MATCH(E158,[1]Songs!$E:$E,0))</f>
         <v>#N/A</v>
       </c>
-      <c r="L158" t="str">
+      <c r="K158" t="str">
         <f>IF(ISNUMBER(INDEX([1]Songs!$L:$L,MATCH(E158,[1]Songs!$E:$E,0))),"YES","")</f>
         <v/>
       </c>
     </row>
-    <row r="159" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="159" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E159" t="s">
         <v>162</v>
       </c>
       <c r="F159" t="s">
         <v>4</v>
       </c>
-      <c r="J159" t="e">
+      <c r="I159" t="e">
         <f>INDEX([1]Songs!$L:$L,MATCH(E159,[1]Songs!$E:$E,0))</f>
         <v>#N/A</v>
       </c>
-      <c r="L159" t="str">
+      <c r="K159" t="str">
         <f>IF(ISNUMBER(INDEX([1]Songs!$L:$L,MATCH(E159,[1]Songs!$E:$E,0))),"YES","")</f>
         <v/>
       </c>
     </row>
-    <row r="160" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="160" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E160" t="s">
         <v>163</v>
       </c>
       <c r="F160" t="s">
         <v>164</v>
       </c>
-      <c r="J160" t="e">
+      <c r="I160" t="e">
         <f>INDEX([1]Songs!$L:$L,MATCH(E160,[1]Songs!$E:$E,0))</f>
         <v>#N/A</v>
       </c>
-      <c r="L160" t="str">
+      <c r="K160" t="str">
         <f>IF(ISNUMBER(INDEX([1]Songs!$L:$L,MATCH(E160,[1]Songs!$E:$E,0))),"YES","")</f>
         <v/>
       </c>
     </row>
-    <row r="161" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="161" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E161" t="s">
         <v>165</v>
       </c>
       <c r="F161" t="s">
         <v>4</v>
       </c>
-      <c r="J161" t="e">
+      <c r="I161" t="e">
         <f>INDEX([1]Songs!$L:$L,MATCH(E161,[1]Songs!$E:$E,0))</f>
         <v>#N/A</v>
       </c>
-      <c r="L161" t="str">
+      <c r="K161" t="str">
         <f>IF(ISNUMBER(INDEX([1]Songs!$L:$L,MATCH(E161,[1]Songs!$E:$E,0))),"YES","")</f>
         <v/>
       </c>
     </row>
-    <row r="162" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="162" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E162" t="s">
         <v>166</v>
       </c>
       <c r="F162" t="s">
         <v>4</v>
       </c>
-      <c r="J162" t="e">
+      <c r="I162" t="e">
         <f>INDEX([1]Songs!$L:$L,MATCH(E162,[1]Songs!$E:$E,0))</f>
         <v>#N/A</v>
       </c>
-      <c r="L162" t="str">
+      <c r="K162" t="str">
         <f>IF(ISNUMBER(INDEX([1]Songs!$L:$L,MATCH(E162,[1]Songs!$E:$E,0))),"YES","")</f>
         <v/>
       </c>
     </row>
-    <row r="163" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="163" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E163" t="s">
         <v>167</v>
       </c>
       <c r="F163" t="s">
         <v>4</v>
       </c>
-      <c r="J163" t="e">
+      <c r="I163" t="e">
         <f>INDEX([1]Songs!$L:$L,MATCH(E163,[1]Songs!$E:$E,0))</f>
         <v>#N/A</v>
       </c>
-      <c r="L163" t="str">
+      <c r="K163" t="str">
         <f>IF(ISNUMBER(INDEX([1]Songs!$L:$L,MATCH(E163,[1]Songs!$E:$E,0))),"YES","")</f>
         <v/>
       </c>
     </row>
-    <row r="164" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="164" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E164" t="s">
         <v>168</v>
       </c>
       <c r="F164" t="s">
         <v>4</v>
       </c>
-      <c r="J164" t="e">
+      <c r="I164" t="e">
         <f>INDEX([1]Songs!$L:$L,MATCH(E164,[1]Songs!$E:$E,0))</f>
         <v>#N/A</v>
       </c>
-      <c r="L164" t="str">
+      <c r="K164" t="str">
         <f>IF(ISNUMBER(INDEX([1]Songs!$L:$L,MATCH(E164,[1]Songs!$E:$E,0))),"YES","")</f>
         <v/>
       </c>
     </row>
-    <row r="165" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="165" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E165" t="s">
         <v>169</v>
       </c>
       <c r="F165" t="s">
         <v>4</v>
       </c>
-      <c r="J165" t="e">
+      <c r="I165" t="e">
         <f>INDEX([1]Songs!$L:$L,MATCH(E165,[1]Songs!$E:$E,0))</f>
         <v>#N/A</v>
       </c>
-      <c r="L165" t="str">
+      <c r="K165" t="str">
         <f>IF(ISNUMBER(INDEX([1]Songs!$L:$L,MATCH(E165,[1]Songs!$E:$E,0))),"YES","")</f>
         <v/>
       </c>
     </row>
-    <row r="166" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="166" spans="5:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="E166" t="s">
         <v>170</v>
       </c>
       <c r="F166" t="s">
         <v>4</v>
       </c>
-      <c r="J166">
+      <c r="I166">
         <f>INDEX([1]Songs!$L:$L,MATCH(E166,[1]Songs!$E:$E,0))</f>
         <v>2978857</v>
       </c>
-      <c r="K166" t="s">
+      <c r="J166" t="s">
         <v>15</v>
       </c>
-      <c r="L166" t="str">
+      <c r="K166" t="str">
         <f>IF(ISNUMBER(INDEX([1]Songs!$L:$L,MATCH(E166,[1]Songs!$E:$E,0))),"YES","")</f>
         <v>YES</v>
       </c>
     </row>
-    <row r="167" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="167" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E167" t="s">
         <v>171</v>
       </c>
       <c r="F167" t="s">
         <v>4</v>
       </c>
-      <c r="J167" t="e">
+      <c r="I167" t="e">
         <f>INDEX([1]Songs!$L:$L,MATCH(E167,[1]Songs!$E:$E,0))</f>
         <v>#N/A</v>
       </c>
-      <c r="L167" t="str">
+      <c r="K167" t="str">
         <f>IF(ISNUMBER(INDEX([1]Songs!$L:$L,MATCH(E167,[1]Songs!$E:$E,0))),"YES","")</f>
         <v/>
       </c>
     </row>
-    <row r="168" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="168" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E168" t="s">
         <v>172</v>
       </c>
       <c r="F168" t="s">
         <v>4</v>
       </c>
-      <c r="J168" t="e">
+      <c r="I168" t="e">
         <f>INDEX([1]Songs!$L:$L,MATCH(E168,[1]Songs!$E:$E,0))</f>
         <v>#N/A</v>
       </c>
-      <c r="L168" t="str">
+      <c r="K168" t="str">
         <f>IF(ISNUMBER(INDEX([1]Songs!$L:$L,MATCH(E168,[1]Songs!$E:$E,0))),"YES","")</f>
         <v/>
       </c>
     </row>
-    <row r="169" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="169" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E169" t="s">
         <v>173</v>
       </c>
       <c r="F169" t="s">
         <v>4</v>
       </c>
-      <c r="J169" t="e">
+      <c r="I169" t="e">
         <f>INDEX([1]Songs!$L:$L,MATCH(E169,[1]Songs!$E:$E,0))</f>
         <v>#N/A</v>
       </c>
-      <c r="L169" t="str">
+      <c r="K169" t="str">
         <f>IF(ISNUMBER(INDEX([1]Songs!$L:$L,MATCH(E169,[1]Songs!$E:$E,0))),"YES","")</f>
         <v/>
       </c>
     </row>
-    <row r="170" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="170" spans="5:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="E170" t="s">
         <v>174</v>
       </c>
       <c r="F170" t="s">
         <v>4</v>
       </c>
-      <c r="J170">
+      <c r="I170">
         <f>INDEX([1]Songs!$L:$L,MATCH(E170,[1]Songs!$E:$E,0))</f>
         <v>1866132</v>
       </c>
-      <c r="L170" t="str">
+      <c r="K170" t="str">
         <f>IF(ISNUMBER(INDEX([1]Songs!$L:$L,MATCH(E170,[1]Songs!$E:$E,0))),"YES","")</f>
         <v>YES</v>
       </c>
     </row>
-    <row r="171" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="171" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E171" t="s">
         <v>175</v>
       </c>
       <c r="F171" t="s">
         <v>4</v>
       </c>
-      <c r="J171" t="e">
+      <c r="I171" t="e">
         <f>INDEX([1]Songs!$L:$L,MATCH(E171,[1]Songs!$E:$E,0))</f>
         <v>#N/A</v>
       </c>
-      <c r="L171" t="str">
+      <c r="K171" t="str">
         <f>IF(ISNUMBER(INDEX([1]Songs!$L:$L,MATCH(E171,[1]Songs!$E:$E,0))),"YES","")</f>
         <v/>
       </c>
     </row>
-    <row r="172" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="172" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E172" t="s">
         <v>176</v>
       </c>
       <c r="F172" t="s">
         <v>4</v>
       </c>
-      <c r="J172" t="e">
+      <c r="I172" t="e">
         <f>INDEX([1]Songs!$L:$L,MATCH(E172,[1]Songs!$E:$E,0))</f>
         <v>#N/A</v>
       </c>
-      <c r="L172" t="str">
+      <c r="K172" t="str">
         <f>IF(ISNUMBER(INDEX([1]Songs!$L:$L,MATCH(E172,[1]Songs!$E:$E,0))),"YES","")</f>
         <v/>
       </c>
     </row>
-    <row r="173" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="173" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E173" t="s">
         <v>177</v>
       </c>
       <c r="F173" t="s">
         <v>4</v>
       </c>
-      <c r="J173" t="e">
+      <c r="I173" t="e">
         <f>INDEX([1]Songs!$L:$L,MATCH(E173,[1]Songs!$E:$E,0))</f>
         <v>#N/A</v>
       </c>
-      <c r="L173" t="str">
+      <c r="K173" t="str">
         <f>IF(ISNUMBER(INDEX([1]Songs!$L:$L,MATCH(E173,[1]Songs!$E:$E,0))),"YES","")</f>
         <v/>
       </c>
     </row>
-    <row r="174" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="174" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E174" t="s">
         <v>178</v>
       </c>
       <c r="F174" t="s">
         <v>4</v>
       </c>
-      <c r="J174" t="e">
+      <c r="I174" t="e">
         <f>INDEX([1]Songs!$L:$L,MATCH(E174,[1]Songs!$E:$E,0))</f>
         <v>#N/A</v>
       </c>
-      <c r="L174" t="str">
+      <c r="K174" t="str">
         <f>IF(ISNUMBER(INDEX([1]Songs!$L:$L,MATCH(E174,[1]Songs!$E:$E,0))),"YES","")</f>
         <v/>
       </c>
     </row>
-    <row r="175" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="175" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E175" t="s">
         <v>179</v>
       </c>
       <c r="F175" t="s">
         <v>4</v>
       </c>
-      <c r="J175" t="e">
+      <c r="I175" t="e">
         <f>INDEX([1]Songs!$L:$L,MATCH(E175,[1]Songs!$E:$E,0))</f>
         <v>#N/A</v>
       </c>
-      <c r="L175" t="str">
+      <c r="K175" t="str">
         <f>IF(ISNUMBER(INDEX([1]Songs!$L:$L,MATCH(E175,[1]Songs!$E:$E,0))),"YES","")</f>
         <v/>
       </c>
     </row>
-    <row r="176" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="176" spans="5:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="E176" t="s">
         <v>180</v>
       </c>
       <c r="F176" t="s">
         <v>181</v>
       </c>
-      <c r="J176">
+      <c r="I176">
         <f>INDEX([1]Songs!$L:$L,MATCH(E176,[1]Songs!$E:$E,0))</f>
         <v>4674207</v>
       </c>
-      <c r="K176" t="s">
+      <c r="J176" t="s">
         <v>5</v>
       </c>
-      <c r="L176" t="str">
+      <c r="K176" t="str">
         <f>IF(ISNUMBER(INDEX([1]Songs!$L:$L,MATCH(E176,[1]Songs!$E:$E,0))),"YES","")</f>
         <v>YES</v>
       </c>
     </row>
-    <row r="177" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="177" spans="5:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="E177" t="s">
         <v>182</v>
       </c>
       <c r="F177" t="s">
         <v>4</v>
       </c>
-      <c r="J177">
+      <c r="I177">
         <f>INDEX([1]Songs!$L:$L,MATCH(E177,[1]Songs!$E:$E,0))</f>
         <v>23914</v>
       </c>
-      <c r="L177" t="str">
+      <c r="K177" t="str">
         <f>IF(ISNUMBER(INDEX([1]Songs!$L:$L,MATCH(E177,[1]Songs!$E:$E,0))),"YES","")</f>
         <v>YES</v>
       </c>
     </row>
-    <row r="178" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="178" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E178" t="s">
         <v>183</v>
       </c>
       <c r="F178" t="s">
         <v>4</v>
       </c>
-      <c r="J178" t="e">
+      <c r="I178" t="e">
         <f>INDEX([1]Songs!$L:$L,MATCH(E178,[1]Songs!$E:$E,0))</f>
         <v>#N/A</v>
       </c>
-      <c r="L178" t="str">
+      <c r="K178" t="str">
         <f>IF(ISNUMBER(INDEX([1]Songs!$L:$L,MATCH(E178,[1]Songs!$E:$E,0))),"YES","")</f>
         <v/>
       </c>
     </row>
-    <row r="179" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="179" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E179" t="s">
         <v>184</v>
       </c>
       <c r="F179" t="s">
         <v>4</v>
       </c>
-      <c r="J179" t="e">
+      <c r="I179" t="e">
         <f>INDEX([1]Songs!$L:$L,MATCH(E179,[1]Songs!$E:$E,0))</f>
         <v>#N/A</v>
       </c>
-      <c r="L179" t="str">
+      <c r="K179" t="str">
         <f>IF(ISNUMBER(INDEX([1]Songs!$L:$L,MATCH(E179,[1]Songs!$E:$E,0))),"YES","")</f>
         <v/>
       </c>
     </row>
-    <row r="180" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="180" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E180" t="s">
         <v>185</v>
       </c>
       <c r="F180" t="s">
         <v>4</v>
       </c>
-      <c r="J180" t="e">
+      <c r="I180" t="e">
         <f>INDEX([1]Songs!$L:$L,MATCH(E180,[1]Songs!$E:$E,0))</f>
         <v>#N/A</v>
       </c>
-      <c r="L180" t="str">
+      <c r="K180" t="str">
         <f>IF(ISNUMBER(INDEX([1]Songs!$L:$L,MATCH(E180,[1]Songs!$E:$E,0))),"YES","")</f>
         <v/>
       </c>
     </row>
-    <row r="181" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="181" spans="5:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="E181" t="s">
         <v>186</v>
       </c>
       <c r="F181" t="s">
         <v>4</v>
       </c>
-      <c r="J181">
+      <c r="I181">
         <f>INDEX([1]Songs!$L:$L,MATCH(E181,[1]Songs!$E:$E,0))</f>
         <v>5806878</v>
       </c>
-      <c r="K181" t="s">
+      <c r="J181" t="s">
         <v>15</v>
       </c>
-      <c r="L181" t="str">
+      <c r="K181" t="str">
         <f>IF(ISNUMBER(INDEX([1]Songs!$L:$L,MATCH(E181,[1]Songs!$E:$E,0))),"YES","")</f>
         <v>YES</v>
       </c>
     </row>
-    <row r="182" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="182" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E182" t="s">
         <v>187</v>
       </c>
       <c r="F182" t="s">
         <v>4</v>
       </c>
-      <c r="J182" t="e">
+      <c r="I182" t="e">
         <f>INDEX([1]Songs!$L:$L,MATCH(E182,[1]Songs!$E:$E,0))</f>
         <v>#N/A</v>
       </c>
-      <c r="L182" t="str">
+      <c r="K182" t="str">
         <f>IF(ISNUMBER(INDEX([1]Songs!$L:$L,MATCH(E182,[1]Songs!$E:$E,0))),"YES","")</f>
         <v/>
       </c>
     </row>
-    <row r="183" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="183" spans="5:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="E183" t="s">
         <v>188</v>
       </c>
       <c r="F183" t="s">
         <v>4</v>
       </c>
-      <c r="J183">
+      <c r="I183">
         <f>INDEX([1]Songs!$L:$L,MATCH(E183,[1]Songs!$E:$E,0))</f>
         <v>1083764</v>
       </c>
-      <c r="L183" t="str">
+      <c r="K183" t="str">
         <f>IF(ISNUMBER(INDEX([1]Songs!$L:$L,MATCH(E183,[1]Songs!$E:$E,0))),"YES","")</f>
         <v>YES</v>
       </c>
     </row>
-    <row r="184" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="184" spans="5:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="E184" t="s">
         <v>189</v>
       </c>
       <c r="F184" t="s">
         <v>4</v>
       </c>
-      <c r="J184">
+      <c r="I184">
         <f>INDEX([1]Songs!$L:$L,MATCH(E184,[1]Songs!$E:$E,0))</f>
         <v>5183450</v>
       </c>
-      <c r="K184" t="s">
+      <c r="J184" t="s">
         <v>15</v>
       </c>
-      <c r="L184" t="str">
+      <c r="K184" t="str">
         <f>IF(ISNUMBER(INDEX([1]Songs!$L:$L,MATCH(E184,[1]Songs!$E:$E,0))),"YES","")</f>
         <v>YES</v>
       </c>
     </row>
-    <row r="185" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="185" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E185" t="s">
         <v>190</v>
       </c>
       <c r="F185" t="s">
         <v>4</v>
       </c>
-      <c r="J185" t="e">
+      <c r="I185" t="e">
         <f>INDEX([1]Songs!$L:$L,MATCH(E185,[1]Songs!$E:$E,0))</f>
         <v>#N/A</v>
       </c>
-      <c r="L185" t="str">
+      <c r="K185" t="str">
         <f>IF(ISNUMBER(INDEX([1]Songs!$L:$L,MATCH(E185,[1]Songs!$E:$E,0))),"YES","")</f>
         <v/>
       </c>
     </row>
-    <row r="186" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="186" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E186" t="s">
         <v>191</v>
       </c>
       <c r="F186" t="s">
         <v>4</v>
       </c>
-      <c r="J186" t="e">
+      <c r="I186" t="e">
         <f>INDEX([1]Songs!$L:$L,MATCH(E186,[1]Songs!$E:$E,0))</f>
         <v>#N/A</v>
       </c>
-      <c r="L186" t="str">
+      <c r="K186" t="str">
         <f>IF(ISNUMBER(INDEX([1]Songs!$L:$L,MATCH(E186,[1]Songs!$E:$E,0))),"YES","")</f>
         <v/>
       </c>
     </row>
-    <row r="187" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="187" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E187" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="F187" t="s">
         <v>4</v>
       </c>
-      <c r="J187" t="e">
+      <c r="I187" t="e">
         <f>INDEX([1]Songs!$L:$L,MATCH(E187,[1]Songs!$E:$E,0))</f>
         <v>#N/A</v>
       </c>
-      <c r="L187" t="str">
+      <c r="K187" t="str">
         <f>IF(ISNUMBER(INDEX([1]Songs!$L:$L,MATCH(E187,[1]Songs!$E:$E,0))),"YES","")</f>
         <v/>
       </c>
     </row>
-    <row r="188" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="188" spans="5:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="E188" t="s">
         <v>192</v>
       </c>
       <c r="F188" t="s">
         <v>4</v>
       </c>
-      <c r="J188">
+      <c r="I188">
         <f>INDEX([1]Songs!$L:$L,MATCH(E188,[1]Songs!$E:$E,0))</f>
         <v>26399</v>
       </c>
-      <c r="K188" t="s">
+      <c r="J188" t="s">
         <v>27</v>
       </c>
-      <c r="L188" t="str">
+      <c r="K188" t="str">
         <f>IF(ISNUMBER(INDEX([1]Songs!$L:$L,MATCH(E188,[1]Songs!$E:$E,0))),"YES","")</f>
         <v>YES</v>
       </c>
     </row>
-    <row r="189" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="189" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E189" t="s">
         <v>193</v>
       </c>
       <c r="F189" t="s">
         <v>4</v>
       </c>
-      <c r="J189" t="e">
+      <c r="I189" t="e">
         <f>INDEX([1]Songs!$L:$L,MATCH(E189,[1]Songs!$E:$E,0))</f>
         <v>#N/A</v>
       </c>
-      <c r="L189" t="str">
+      <c r="K189" t="str">
         <f>IF(ISNUMBER(INDEX([1]Songs!$L:$L,MATCH(E189,[1]Songs!$E:$E,0))),"YES","")</f>
         <v/>
       </c>
     </row>
-    <row r="190" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="190" spans="5:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="E190" t="s">
         <v>194</v>
       </c>
       <c r="F190" t="s">
         <v>4</v>
       </c>
-      <c r="J190">
+      <c r="I190">
         <f>INDEX([1]Songs!$L:$L,MATCH(E190,[1]Songs!$E:$E,0))</f>
         <v>3350395</v>
       </c>
-      <c r="K190" t="s">
+      <c r="J190" t="s">
         <v>15</v>
       </c>
-      <c r="L190" t="str">
+      <c r="K190" t="str">
         <f>IF(ISNUMBER(INDEX([1]Songs!$L:$L,MATCH(E190,[1]Songs!$E:$E,0))),"YES","")</f>
         <v>YES</v>
       </c>
     </row>
-    <row r="191" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="191" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E191" t="s">
         <v>195</v>
       </c>
       <c r="F191" t="s">
         <v>4</v>
       </c>
-      <c r="J191" t="e">
+      <c r="I191" t="e">
         <f>INDEX([1]Songs!$L:$L,MATCH(E191,[1]Songs!$E:$E,0))</f>
         <v>#N/A</v>
       </c>
-      <c r="L191" t="str">
+      <c r="K191" t="str">
         <f>IF(ISNUMBER(INDEX([1]Songs!$L:$L,MATCH(E191,[1]Songs!$E:$E,0))),"YES","")</f>
         <v/>
       </c>
     </row>
-    <row r="192" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="192" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E192" t="s">
         <v>196</v>
       </c>
       <c r="F192" t="s">
         <v>4</v>
       </c>
-      <c r="J192" t="e">
+      <c r="I192" t="e">
         <f>INDEX([1]Songs!$L:$L,MATCH(E192,[1]Songs!$E:$E,0))</f>
         <v>#N/A</v>
       </c>
-      <c r="L192" t="str">
+      <c r="K192" t="str">
         <f>IF(ISNUMBER(INDEX([1]Songs!$L:$L,MATCH(E192,[1]Songs!$E:$E,0))),"YES","")</f>
         <v/>
       </c>
     </row>
-    <row r="193" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="193" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E193" t="s">
         <v>197</v>
       </c>
       <c r="F193" t="s">
         <v>4</v>
       </c>
-      <c r="J193" t="e">
+      <c r="I193" t="e">
         <f>INDEX([1]Songs!$L:$L,MATCH(E193,[1]Songs!$E:$E,0))</f>
         <v>#N/A</v>
       </c>
-      <c r="L193" t="str">
+      <c r="K193" t="str">
         <f>IF(ISNUMBER(INDEX([1]Songs!$L:$L,MATCH(E193,[1]Songs!$E:$E,0))),"YES","")</f>
         <v/>
       </c>
     </row>
-    <row r="194" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="194" spans="5:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="E194" t="s">
         <v>198</v>
       </c>
       <c r="F194" t="s">
         <v>4</v>
       </c>
-      <c r="J194">
+      <c r="I194">
         <f>INDEX([1]Songs!$L:$L,MATCH(E194,[1]Songs!$E:$E,0))</f>
         <v>4403076</v>
       </c>
-      <c r="K194" t="s">
+      <c r="J194" t="s">
         <v>15</v>
       </c>
-      <c r="L194" t="str">
+      <c r="K194" t="str">
         <f>IF(ISNUMBER(INDEX([1]Songs!$L:$L,MATCH(E194,[1]Songs!$E:$E,0))),"YES","")</f>
         <v>YES</v>
       </c>
     </row>
-    <row r="195" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="195" spans="5:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="E195" t="s">
         <v>199</v>
       </c>
       <c r="F195" t="s">
         <v>4</v>
       </c>
-      <c r="J195">
+      <c r="I195">
         <f>INDEX([1]Songs!$L:$L,MATCH(E195,[1]Songs!$E:$E,0))</f>
         <v>7100876</v>
       </c>
-      <c r="L195" t="str">
+      <c r="K195" t="str">
         <f>IF(ISNUMBER(INDEX([1]Songs!$L:$L,MATCH(E195,[1]Songs!$E:$E,0))),"YES","")</f>
         <v>YES</v>
       </c>
     </row>
-    <row r="196" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="196" spans="5:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="E196" t="s">
         <v>200</v>
       </c>
       <c r="F196" t="s">
         <v>4</v>
       </c>
-      <c r="J196">
+      <c r="I196">
         <f>INDEX([1]Songs!$L:$L,MATCH(E196,[1]Songs!$E:$E,0))</f>
         <v>25376</v>
       </c>
-      <c r="K196" t="s">
+      <c r="J196" t="s">
         <v>15</v>
       </c>
-      <c r="L196" t="str">
+      <c r="K196" t="str">
         <f>IF(ISNUMBER(INDEX([1]Songs!$L:$L,MATCH(E196,[1]Songs!$E:$E,0))),"YES","")</f>
         <v>YES</v>
       </c>
     </row>
-    <row r="197" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="197" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E197" t="s">
         <v>201</v>
       </c>
       <c r="F197" t="s">
         <v>4</v>
       </c>
-      <c r="J197" t="e">
+      <c r="I197" t="e">
         <f>INDEX([1]Songs!$L:$L,MATCH(E197,[1]Songs!$E:$E,0))</f>
         <v>#N/A</v>
       </c>
-      <c r="L197" t="str">
+      <c r="K197" t="str">
         <f>IF(ISNUMBER(INDEX([1]Songs!$L:$L,MATCH(E197,[1]Songs!$E:$E,0))),"YES","")</f>
         <v/>
       </c>
     </row>
-    <row r="198" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="198" spans="5:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="E198" t="s">
         <v>202</v>
       </c>
       <c r="F198" t="s">
         <v>4</v>
       </c>
-      <c r="J198">
+      <c r="I198">
         <f>INDEX([1]Songs!$L:$L,MATCH(E198,[1]Songs!$E:$E,0))</f>
         <v>7121850</v>
       </c>
-      <c r="L198" t="str">
+      <c r="K198" t="str">
         <f>IF(ISNUMBER(INDEX([1]Songs!$L:$L,MATCH(E198,[1]Songs!$E:$E,0))),"YES","")</f>
         <v>YES</v>
       </c>
     </row>
-    <row r="199" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="199" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E199" t="s">
+        <v>428</v>
+      </c>
+      <c r="F199" t="s">
+        <v>4</v>
+      </c>
+      <c r="I199" t="e">
+        <f>INDEX([1]Songs!$L:$L,MATCH(E199,[1]Songs!$E:$E,0))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="K199" t="str">
+        <f>IF(ISNUMBER(INDEX([1]Songs!$L:$L,MATCH(E199,[1]Songs!$E:$E,0))),"YES","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="200" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="E200" t="s">
         <v>429</v>
-      </c>
-      <c r="F199" t="s">
-        <v>4</v>
-      </c>
-      <c r="J199" t="e">
-        <f>INDEX([1]Songs!$L:$L,MATCH(E199,[1]Songs!$E:$E,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="L199" t="str">
-        <f>IF(ISNUMBER(INDEX([1]Songs!$L:$L,MATCH(E199,[1]Songs!$E:$E,0))),"YES","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="200" spans="5:12" x14ac:dyDescent="0.25">
-      <c r="E200" t="s">
-        <v>430</v>
       </c>
       <c r="F200" t="s">
         <v>203</v>
       </c>
-      <c r="J200" t="e">
+      <c r="I200" t="e">
         <f>INDEX([1]Songs!$L:$L,MATCH(E200,[1]Songs!$E:$E,0))</f>
         <v>#N/A</v>
       </c>
-      <c r="L200" t="str">
+      <c r="K200" t="str">
         <f>IF(ISNUMBER(INDEX([1]Songs!$L:$L,MATCH(E200,[1]Songs!$E:$E,0))),"YES","")</f>
         <v/>
       </c>
     </row>
-    <row r="201" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="201" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E201" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="F201" t="s">
         <v>4</v>
       </c>
-      <c r="J201" t="e">
+      <c r="I201" t="e">
         <f>INDEX([1]Songs!$L:$L,MATCH(E201,[1]Songs!$E:$E,0))</f>
         <v>#N/A</v>
       </c>
-      <c r="L201" t="str">
+      <c r="K201" t="str">
         <f>IF(ISNUMBER(INDEX([1]Songs!$L:$L,MATCH(E201,[1]Songs!$E:$E,0))),"YES","")</f>
         <v/>
       </c>
     </row>
-    <row r="202" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="202" spans="5:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="E202" t="s">
         <v>204</v>
       </c>
       <c r="F202" t="s">
         <v>4</v>
       </c>
-      <c r="J202">
+      <c r="I202">
         <f>INDEX([1]Songs!$L:$L,MATCH(E202,[1]Songs!$E:$E,0))</f>
         <v>7028829</v>
       </c>
-      <c r="L202" t="str">
+      <c r="K202" t="str">
         <f>IF(ISNUMBER(INDEX([1]Songs!$L:$L,MATCH(E202,[1]Songs!$E:$E,0))),"YES","")</f>
         <v>YES</v>
       </c>
     </row>
-    <row r="203" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="203" spans="5:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="E203" t="s">
         <v>205</v>
       </c>
       <c r="F203" t="s">
         <v>4</v>
       </c>
-      <c r="J203">
+      <c r="I203">
         <f>INDEX([1]Songs!$L:$L,MATCH(E203,[1]Songs!$E:$E,0))</f>
         <v>5183443</v>
       </c>
-      <c r="K203" t="s">
+      <c r="J203" t="s">
         <v>15</v>
       </c>
-      <c r="L203" t="str">
+      <c r="K203" t="str">
         <f>IF(ISNUMBER(INDEX([1]Songs!$L:$L,MATCH(E203,[1]Songs!$E:$E,0))),"YES","")</f>
         <v>YES</v>
       </c>
     </row>
-    <row r="204" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="204" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E204" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="F204" t="s">
         <v>4</v>
       </c>
-      <c r="J204" t="e">
+      <c r="I204" t="e">
         <f>INDEX([1]Songs!$L:$L,MATCH(E204,[1]Songs!$E:$E,0))</f>
         <v>#N/A</v>
       </c>
-      <c r="L204" t="str">
+      <c r="K204" t="str">
         <f>IF(ISNUMBER(INDEX([1]Songs!$L:$L,MATCH(E204,[1]Songs!$E:$E,0))),"YES","")</f>
         <v/>
       </c>
     </row>
-    <row r="205" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="205" spans="5:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="E205" t="s">
         <v>206</v>
       </c>
       <c r="F205" t="s">
         <v>4</v>
       </c>
-      <c r="J205">
+      <c r="I205">
         <f>INDEX([1]Songs!$L:$L,MATCH(E205,[1]Songs!$E:$E,0))</f>
         <v>6517269</v>
       </c>
-      <c r="L205" t="str">
+      <c r="K205" t="str">
         <f>IF(ISNUMBER(INDEX([1]Songs!$L:$L,MATCH(E205,[1]Songs!$E:$E,0))),"YES","")</f>
         <v>YES</v>
       </c>
     </row>
-    <row r="206" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="206" spans="5:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="E206" t="s">
         <v>207</v>
       </c>
       <c r="F206" t="s">
         <v>4</v>
       </c>
-      <c r="J206">
+      <c r="I206">
         <f>INDEX([1]Songs!$L:$L,MATCH(E206,[1]Songs!$E:$E,0))</f>
         <v>4689508</v>
       </c>
-      <c r="K206" t="s">
+      <c r="J206" t="s">
         <v>27</v>
       </c>
-      <c r="L206" t="str">
+      <c r="K206" t="str">
         <f>IF(ISNUMBER(INDEX([1]Songs!$L:$L,MATCH(E206,[1]Songs!$E:$E,0))),"YES","")</f>
         <v>YES</v>
       </c>
     </row>
-    <row r="207" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="207" spans="5:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="E207" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="F207" t="s">
         <v>4</v>
       </c>
-      <c r="J207">
+      <c r="I207">
         <f>INDEX([1]Songs!$L:$L,MATCH(E207,[1]Songs!$E:$E,0))</f>
         <v>6223539</v>
       </c>
-      <c r="L207" t="str">
+      <c r="K207" t="str">
         <f>IF(ISNUMBER(INDEX([1]Songs!$L:$L,MATCH(E207,[1]Songs!$E:$E,0))),"YES","")</f>
         <v>YES</v>
       </c>
     </row>
-    <row r="208" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="208" spans="5:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="E208" t="s">
         <v>208</v>
       </c>
       <c r="F208" t="s">
         <v>4</v>
       </c>
-      <c r="J208">
+      <c r="I208">
         <f>INDEX([1]Songs!$L:$L,MATCH(E208,[1]Songs!$E:$E,0))</f>
         <v>7030068</v>
       </c>
-      <c r="L208" t="str">
+      <c r="K208" t="str">
         <f>IF(ISNUMBER(INDEX([1]Songs!$L:$L,MATCH(E208,[1]Songs!$E:$E,0))),"YES","")</f>
         <v>YES</v>
       </c>
     </row>
-    <row r="209" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="209" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E209" t="s">
         <v>209</v>
       </c>
       <c r="F209" t="s">
         <v>4</v>
       </c>
-      <c r="J209" t="e">
+      <c r="I209" t="e">
         <f>INDEX([1]Songs!$L:$L,MATCH(E209,[1]Songs!$E:$E,0))</f>
         <v>#N/A</v>
       </c>
-      <c r="L209" t="str">
+      <c r="K209" t="str">
         <f>IF(ISNUMBER(INDEX([1]Songs!$L:$L,MATCH(E209,[1]Songs!$E:$E,0))),"YES","")</f>
         <v/>
       </c>
     </row>
-    <row r="210" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="210" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E210" t="s">
         <v>210</v>
       </c>
       <c r="F210" t="s">
         <v>4</v>
       </c>
-      <c r="J210" t="e">
+      <c r="I210" t="e">
         <f>INDEX([1]Songs!$L:$L,MATCH(E210,[1]Songs!$E:$E,0))</f>
         <v>#N/A</v>
       </c>
-      <c r="L210" t="str">
+      <c r="K210" t="str">
         <f>IF(ISNUMBER(INDEX([1]Songs!$L:$L,MATCH(E210,[1]Songs!$E:$E,0))),"YES","")</f>
         <v/>
       </c>
     </row>
-    <row r="211" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="211" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E211" t="s">
         <v>211</v>
       </c>
       <c r="F211" t="s">
         <v>4</v>
       </c>
-      <c r="J211" t="e">
+      <c r="I211" t="e">
         <f>INDEX([1]Songs!$L:$L,MATCH(E211,[1]Songs!$E:$E,0))</f>
         <v>#N/A</v>
       </c>
-      <c r="L211" t="str">
+      <c r="K211" t="str">
         <f>IF(ISNUMBER(INDEX([1]Songs!$L:$L,MATCH(E211,[1]Songs!$E:$E,0))),"YES","")</f>
         <v/>
       </c>
     </row>
-    <row r="212" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="212" spans="5:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="E212" t="s">
         <v>212</v>
       </c>
       <c r="F212" t="s">
         <v>213</v>
       </c>
-      <c r="J212">
+      <c r="I212">
         <f>INDEX([1]Songs!$L:$L,MATCH(E212,[1]Songs!$E:$E,0))</f>
         <v>1045238</v>
       </c>
-      <c r="K212" t="s">
+      <c r="J212" t="s">
         <v>5</v>
       </c>
-      <c r="L212" t="str">
+      <c r="K212" t="str">
         <f>IF(ISNUMBER(INDEX([1]Songs!$L:$L,MATCH(E212,[1]Songs!$E:$E,0))),"YES","")</f>
         <v>YES</v>
       </c>
     </row>
-    <row r="213" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="213" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E213" t="s">
         <v>214</v>
       </c>
       <c r="F213" t="s">
         <v>4</v>
       </c>
-      <c r="J213" t="e">
+      <c r="I213" t="e">
         <f>INDEX([1]Songs!$L:$L,MATCH(E213,[1]Songs!$E:$E,0))</f>
         <v>#N/A</v>
       </c>
-      <c r="L213" t="str">
+      <c r="K213" t="str">
         <f>IF(ISNUMBER(INDEX([1]Songs!$L:$L,MATCH(E213,[1]Songs!$E:$E,0))),"YES","")</f>
         <v/>
       </c>
     </row>
-    <row r="214" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="214" spans="5:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="E214" t="s">
         <v>215</v>
       </c>
       <c r="F214" t="s">
         <v>4</v>
       </c>
-      <c r="J214">
+      <c r="I214">
         <f>INDEX([1]Songs!$L:$L,MATCH(E214,[1]Songs!$E:$E,0))</f>
         <v>7032328</v>
       </c>
-      <c r="K214" t="s">
+      <c r="J214" t="s">
         <v>5</v>
       </c>
-      <c r="L214" t="str">
+      <c r="K214" t="str">
         <f>IF(ISNUMBER(INDEX([1]Songs!$L:$L,MATCH(E214,[1]Songs!$E:$E,0))),"YES","")</f>
         <v>YES</v>
       </c>
     </row>
-    <row r="215" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="215" spans="5:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="E215" t="s">
         <v>215</v>
       </c>
       <c r="F215" t="s">
         <v>4</v>
       </c>
-      <c r="J215">
+      <c r="I215">
         <f>INDEX([1]Songs!$L:$L,MATCH(E215,[1]Songs!$E:$E,0))</f>
         <v>7032328</v>
       </c>
-      <c r="L215" t="str">
+      <c r="K215" t="str">
         <f>IF(ISNUMBER(INDEX([1]Songs!$L:$L,MATCH(E215,[1]Songs!$E:$E,0))),"YES","")</f>
         <v>YES</v>
       </c>
     </row>
-    <row r="216" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="216" spans="5:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="E216" t="s">
         <v>216</v>
       </c>
       <c r="F216" t="s">
         <v>4</v>
       </c>
-      <c r="J216">
+      <c r="I216">
         <f>INDEX([1]Songs!$L:$L,MATCH(E216,[1]Songs!$E:$E,0))</f>
         <v>6223577</v>
       </c>
-      <c r="K216" t="s">
+      <c r="J216" t="s">
         <v>15</v>
       </c>
-      <c r="L216" t="str">
+      <c r="K216" t="str">
         <f>IF(ISNUMBER(INDEX([1]Songs!$L:$L,MATCH(E216,[1]Songs!$E:$E,0))),"YES","")</f>
         <v>YES</v>
       </c>
     </row>
-    <row r="217" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="217" spans="5:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="E217" t="s">
         <v>217</v>
       </c>
       <c r="F217" t="s">
         <v>4</v>
       </c>
-      <c r="J217">
+      <c r="I217">
         <f>INDEX([1]Songs!$L:$L,MATCH(E217,[1]Songs!$E:$E,0))</f>
         <v>4785828</v>
       </c>
-      <c r="K217" t="s">
+      <c r="J217" t="s">
         <v>15</v>
       </c>
-      <c r="L217" t="str">
+      <c r="K217" t="str">
         <f>IF(ISNUMBER(INDEX([1]Songs!$L:$L,MATCH(E217,[1]Songs!$E:$E,0))),"YES","")</f>
         <v>YES</v>
       </c>
     </row>
-    <row r="218" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="218" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E218" t="s">
         <v>218</v>
       </c>
       <c r="F218" t="s">
         <v>4</v>
       </c>
-      <c r="J218" t="e">
+      <c r="I218" t="e">
         <f>INDEX([1]Songs!$L:$L,MATCH(E218,[1]Songs!$E:$E,0))</f>
         <v>#N/A</v>
       </c>
-      <c r="L218" t="str">
+      <c r="K218" t="str">
         <f>IF(ISNUMBER(INDEX([1]Songs!$L:$L,MATCH(E218,[1]Songs!$E:$E,0))),"YES","")</f>
         <v/>
       </c>
     </row>
-    <row r="219" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="219" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E219" t="s">
         <v>219</v>
       </c>
       <c r="F219" t="s">
         <v>4</v>
       </c>
-      <c r="J219" t="e">
+      <c r="I219" t="e">
         <f>INDEX([1]Songs!$L:$L,MATCH(E219,[1]Songs!$E:$E,0))</f>
         <v>#N/A</v>
       </c>
-      <c r="L219" t="str">
+      <c r="K219" t="str">
         <f>IF(ISNUMBER(INDEX([1]Songs!$L:$L,MATCH(E219,[1]Songs!$E:$E,0))),"YES","")</f>
         <v/>
       </c>
     </row>
-    <row r="220" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="220" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E220" t="s">
         <v>220</v>
       </c>
       <c r="F220" t="s">
         <v>4</v>
       </c>
-      <c r="J220" t="e">
+      <c r="I220" t="e">
         <f>INDEX([1]Songs!$L:$L,MATCH(E220,[1]Songs!$E:$E,0))</f>
         <v>#N/A</v>
       </c>
-      <c r="L220" t="str">
+      <c r="K220" t="str">
         <f>IF(ISNUMBER(INDEX([1]Songs!$L:$L,MATCH(E220,[1]Songs!$E:$E,0))),"YES","")</f>
         <v/>
       </c>
     </row>
-    <row r="221" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="221" spans="5:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="E221" t="s">
         <v>221</v>
       </c>
       <c r="F221" t="s">
         <v>222</v>
       </c>
-      <c r="J221">
+      <c r="I221">
         <f>INDEX([1]Songs!$L:$L,MATCH(E221,[1]Songs!$E:$E,0))</f>
         <v>3040980</v>
       </c>
-      <c r="L221" t="str">
+      <c r="K221" t="str">
         <f>IF(ISNUMBER(INDEX([1]Songs!$L:$L,MATCH(E221,[1]Songs!$E:$E,0))),"YES","")</f>
         <v>YES</v>
       </c>
     </row>
-    <row r="222" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="222" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E222" t="s">
         <v>223</v>
       </c>
       <c r="F222" t="s">
         <v>4</v>
       </c>
-      <c r="J222" t="e">
+      <c r="I222" t="e">
         <f>INDEX([1]Songs!$L:$L,MATCH(E222,[1]Songs!$E:$E,0))</f>
         <v>#N/A</v>
       </c>
-      <c r="L222" t="str">
+      <c r="K222" t="str">
         <f>IF(ISNUMBER(INDEX([1]Songs!$L:$L,MATCH(E222,[1]Songs!$E:$E,0))),"YES","")</f>
         <v/>
       </c>
     </row>
-    <row r="223" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="223" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E223" t="s">
         <v>224</v>
       </c>
       <c r="F223" t="s">
         <v>4</v>
       </c>
-      <c r="J223" t="e">
+      <c r="I223" t="e">
         <f>INDEX([1]Songs!$L:$L,MATCH(E223,[1]Songs!$E:$E,0))</f>
         <v>#N/A</v>
       </c>
-      <c r="L223" t="str">
+      <c r="K223" t="str">
         <f>IF(ISNUMBER(INDEX([1]Songs!$L:$L,MATCH(E223,[1]Songs!$E:$E,0))),"YES","")</f>
         <v/>
       </c>
     </row>
-    <row r="224" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="224" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E224" t="s">
         <v>225</v>
       </c>
       <c r="F224" t="s">
         <v>4</v>
       </c>
-      <c r="J224" t="e">
+      <c r="I224" t="e">
         <f>INDEX([1]Songs!$L:$L,MATCH(E224,[1]Songs!$E:$E,0))</f>
         <v>#N/A</v>
       </c>
-      <c r="L224" t="str">
+      <c r="K224" t="str">
         <f>IF(ISNUMBER(INDEX([1]Songs!$L:$L,MATCH(E224,[1]Songs!$E:$E,0))),"YES","")</f>
         <v/>
       </c>
     </row>
-    <row r="225" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="225" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E225" t="s">
         <v>226</v>
       </c>
       <c r="F225" t="s">
         <v>4</v>
       </c>
-      <c r="J225" t="e">
+      <c r="I225" t="e">
         <f>INDEX([1]Songs!$L:$L,MATCH(E225,[1]Songs!$E:$E,0))</f>
         <v>#N/A</v>
       </c>
-      <c r="L225" t="str">
+      <c r="K225" t="str">
         <f>IF(ISNUMBER(INDEX([1]Songs!$L:$L,MATCH(E225,[1]Songs!$E:$E,0))),"YES","")</f>
         <v/>
       </c>
     </row>
-    <row r="226" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="226" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E226" t="s">
         <v>227</v>
       </c>
       <c r="F226" t="s">
         <v>4</v>
       </c>
-      <c r="J226" t="e">
+      <c r="I226" t="e">
         <f>INDEX([1]Songs!$L:$L,MATCH(E226,[1]Songs!$E:$E,0))</f>
         <v>#N/A</v>
       </c>
-      <c r="L226" t="str">
+      <c r="K226" t="str">
         <f>IF(ISNUMBER(INDEX([1]Songs!$L:$L,MATCH(E226,[1]Songs!$E:$E,0))),"YES","")</f>
         <v/>
       </c>
     </row>
-    <row r="227" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="227" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E227" t="s">
         <v>228</v>
       </c>
       <c r="F227" t="s">
         <v>4</v>
       </c>
-      <c r="J227" t="e">
+      <c r="I227" t="e">
         <f>INDEX([1]Songs!$L:$L,MATCH(E227,[1]Songs!$E:$E,0))</f>
         <v>#N/A</v>
       </c>
-      <c r="L227" t="str">
+      <c r="K227" t="str">
         <f>IF(ISNUMBER(INDEX([1]Songs!$L:$L,MATCH(E227,[1]Songs!$E:$E,0))),"YES","")</f>
         <v/>
       </c>
     </row>
-    <row r="228" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="228" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E228" t="s">
         <v>229</v>
       </c>
       <c r="F228" t="s">
         <v>230</v>
       </c>
-      <c r="J228" t="e">
+      <c r="I228" t="e">
         <f>INDEX([1]Songs!$L:$L,MATCH(E228,[1]Songs!$E:$E,0))</f>
         <v>#N/A</v>
       </c>
-      <c r="L228" t="str">
+      <c r="K228" t="str">
         <f>IF(ISNUMBER(INDEX([1]Songs!$L:$L,MATCH(E228,[1]Songs!$E:$E,0))),"YES","")</f>
         <v/>
       </c>
     </row>
-    <row r="229" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="229" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E229" t="s">
         <v>231</v>
       </c>
       <c r="F229" t="s">
         <v>4</v>
       </c>
-      <c r="J229" t="e">
+      <c r="I229" t="e">
         <f>INDEX([1]Songs!$L:$L,MATCH(E229,[1]Songs!$E:$E,0))</f>
         <v>#N/A</v>
       </c>
-      <c r="L229" t="str">
+      <c r="K229" t="str">
         <f>IF(ISNUMBER(INDEX([1]Songs!$L:$L,MATCH(E229,[1]Songs!$E:$E,0))),"YES","")</f>
         <v/>
       </c>
     </row>
-    <row r="230" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="230" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E230" t="s">
         <v>232</v>
       </c>
       <c r="F230" t="s">
         <v>4</v>
       </c>
-      <c r="J230" t="e">
+      <c r="I230" t="e">
         <f>INDEX([1]Songs!$L:$L,MATCH(E230,[1]Songs!$E:$E,0))</f>
         <v>#N/A</v>
       </c>
-      <c r="L230" t="str">
+      <c r="K230" t="str">
         <f>IF(ISNUMBER(INDEX([1]Songs!$L:$L,MATCH(E230,[1]Songs!$E:$E,0))),"YES","")</f>
         <v/>
       </c>
     </row>
-    <row r="231" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="231" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E231" t="s">
         <v>233</v>
       </c>
       <c r="F231" t="s">
         <v>4</v>
       </c>
-      <c r="J231" t="e">
+      <c r="I231" t="e">
         <f>INDEX([1]Songs!$L:$L,MATCH(E231,[1]Songs!$E:$E,0))</f>
         <v>#N/A</v>
       </c>
-      <c r="L231" t="str">
+      <c r="K231" t="str">
         <f>IF(ISNUMBER(INDEX([1]Songs!$L:$L,MATCH(E231,[1]Songs!$E:$E,0))),"YES","")</f>
         <v/>
       </c>
     </row>
-    <row r="232" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="232" spans="5:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="E232" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="F232" t="s">
         <v>4</v>
       </c>
-      <c r="J232">
+      <c r="I232">
         <f>INDEX([1]Songs!$L:$L,MATCH(E232,[1]Songs!$E:$E,0))</f>
         <v>117947</v>
       </c>
-      <c r="K232" t="s">
+      <c r="J232" t="s">
         <v>5</v>
       </c>
-      <c r="L232" t="str">
+      <c r="K232" t="str">
         <f>IF(ISNUMBER(INDEX([1]Songs!$L:$L,MATCH(E232,[1]Songs!$E:$E,0))),"YES","")</f>
         <v>YES</v>
       </c>
     </row>
-    <row r="233" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="233" spans="5:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="E233" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="F233" t="s">
         <v>4</v>
       </c>
-      <c r="J233">
+      <c r="I233">
         <f>INDEX([1]Songs!$L:$L,MATCH(E233,[1]Songs!$E:$E,0))</f>
         <v>5925687</v>
       </c>
-      <c r="K233" t="s">
+      <c r="J233" t="s">
         <v>15</v>
       </c>
-      <c r="L233" t="str">
+      <c r="K233" t="str">
         <f>IF(ISNUMBER(INDEX([1]Songs!$L:$L,MATCH(E233,[1]Songs!$E:$E,0))),"YES","")</f>
         <v>YES</v>
       </c>
     </row>
-    <row r="234" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="234" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E234" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="F234" t="s">
         <v>4</v>
       </c>
-      <c r="J234" t="e">
+      <c r="I234" t="e">
         <f>INDEX([1]Songs!$L:$L,MATCH(E234,[1]Songs!$E:$E,0))</f>
         <v>#N/A</v>
       </c>
-      <c r="L234" t="str">
+      <c r="K234" t="str">
         <f>IF(ISNUMBER(INDEX([1]Songs!$L:$L,MATCH(E234,[1]Songs!$E:$E,0))),"YES","")</f>
         <v/>
       </c>
     </row>
-    <row r="235" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="235" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E235" t="s">
         <v>234</v>
       </c>
       <c r="F235" t="s">
         <v>4</v>
       </c>
-      <c r="J235" t="e">
+      <c r="I235" t="e">
         <f>INDEX([1]Songs!$L:$L,MATCH(E235,[1]Songs!$E:$E,0))</f>
         <v>#N/A</v>
       </c>
-      <c r="L235" t="str">
+      <c r="K235" t="str">
         <f>IF(ISNUMBER(INDEX([1]Songs!$L:$L,MATCH(E235,[1]Songs!$E:$E,0))),"YES","")</f>
         <v/>
       </c>
     </row>
-    <row r="236" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="236" spans="5:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="E236" t="s">
         <v>235</v>
       </c>
       <c r="F236" t="s">
         <v>4</v>
       </c>
-      <c r="J236">
+      <c r="I236">
         <f>INDEX([1]Songs!$L:$L,MATCH(E236,[1]Songs!$E:$E,0))</f>
         <v>6518055</v>
       </c>
-      <c r="K236" t="s">
+      <c r="J236" t="s">
         <v>15</v>
       </c>
-      <c r="L236" t="str">
+      <c r="K236" t="str">
         <f>IF(ISNUMBER(INDEX([1]Songs!$L:$L,MATCH(E236,[1]Songs!$E:$E,0))),"YES","")</f>
         <v>YES</v>
       </c>
     </row>
-    <row r="237" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="237" spans="5:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="E237" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="F237" t="s">
         <v>4</v>
       </c>
-      <c r="J237">
+      <c r="I237">
         <f>INDEX([1]Songs!$L:$L,MATCH(E237,[1]Songs!$E:$E,0))</f>
         <v>2490706</v>
       </c>
-      <c r="L237" t="str">
+      <c r="K237" t="str">
         <f>IF(ISNUMBER(INDEX([1]Songs!$L:$L,MATCH(E237,[1]Songs!$E:$E,0))),"YES","")</f>
         <v>YES</v>
       </c>
     </row>
-    <row r="238" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="238" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E238" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="F238" t="s">
         <v>4</v>
       </c>
-      <c r="J238" t="e">
+      <c r="I238" t="e">
         <f>INDEX([1]Songs!$L:$L,MATCH(E238,[1]Songs!$E:$E,0))</f>
         <v>#N/A</v>
       </c>
-      <c r="L238" t="str">
+      <c r="K238" t="str">
         <f>IF(ISNUMBER(INDEX([1]Songs!$L:$L,MATCH(E238,[1]Songs!$E:$E,0))),"YES","")</f>
         <v/>
       </c>
     </row>
-    <row r="239" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="239" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E239" t="s">
         <v>236</v>
       </c>
       <c r="F239" t="s">
         <v>4</v>
       </c>
-      <c r="J239" t="e">
+      <c r="I239" t="e">
         <f>INDEX([1]Songs!$L:$L,MATCH(E239,[1]Songs!$E:$E,0))</f>
         <v>#N/A</v>
       </c>
-      <c r="L239" t="str">
+      <c r="K239" t="str">
         <f>IF(ISNUMBER(INDEX([1]Songs!$L:$L,MATCH(E239,[1]Songs!$E:$E,0))),"YES","")</f>
         <v/>
       </c>
     </row>
-    <row r="240" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="240" spans="5:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="E240" t="s">
         <v>237</v>
       </c>
       <c r="F240" t="s">
         <v>4</v>
       </c>
-      <c r="J240">
+      <c r="I240">
         <f>INDEX([1]Songs!$L:$L,MATCH(E240,[1]Songs!$E:$E,0))</f>
         <v>4572938</v>
       </c>
-      <c r="L240" t="str">
+      <c r="K240" t="str">
         <f>IF(ISNUMBER(INDEX([1]Songs!$L:$L,MATCH(E240,[1]Songs!$E:$E,0))),"YES","")</f>
         <v>YES</v>
       </c>
     </row>
-    <row r="241" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="241" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E241" t="s">
         <v>238</v>
       </c>
       <c r="F241" t="s">
         <v>4</v>
       </c>
-      <c r="J241" t="e">
+      <c r="I241" t="e">
         <f>INDEX([1]Songs!$L:$L,MATCH(E241,[1]Songs!$E:$E,0))</f>
         <v>#N/A</v>
       </c>
-      <c r="L241" t="str">
+      <c r="K241" t="str">
         <f>IF(ISNUMBER(INDEX([1]Songs!$L:$L,MATCH(E241,[1]Songs!$E:$E,0))),"YES","")</f>
         <v/>
       </c>
     </row>
-    <row r="242" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="242" spans="5:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="E242" t="s">
         <v>70</v>
       </c>
       <c r="F242" t="s">
         <v>4</v>
       </c>
-      <c r="J242">
+      <c r="I242">
         <f>INDEX([1]Songs!$L:$L,MATCH(E242,[1]Songs!$E:$E,0))</f>
         <v>4219071</v>
       </c>
-      <c r="K242" t="s">
+      <c r="J242" t="s">
         <v>5</v>
       </c>
-      <c r="L242" t="str">
+      <c r="K242" t="str">
         <f>IF(ISNUMBER(INDEX([1]Songs!$L:$L,MATCH(E242,[1]Songs!$E:$E,0))),"YES","")</f>
         <v>YES</v>
       </c>
     </row>
-    <row r="243" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="243" spans="5:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="E243" t="s">
         <v>239</v>
       </c>
       <c r="F243" t="s">
         <v>4</v>
       </c>
-      <c r="J243">
+      <c r="I243">
         <f>INDEX([1]Songs!$L:$L,MATCH(E243,[1]Songs!$E:$E,0))</f>
         <v>6476063</v>
       </c>
-      <c r="K243" t="s">
+      <c r="J243" t="s">
         <v>15</v>
       </c>
-      <c r="L243" t="str">
+      <c r="K243" t="str">
         <f>IF(ISNUMBER(INDEX([1]Songs!$L:$L,MATCH(E243,[1]Songs!$E:$E,0))),"YES","")</f>
         <v>YES</v>
       </c>
     </row>
-    <row r="244" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="244" spans="5:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="E244" t="s">
         <v>240</v>
       </c>
       <c r="F244" t="s">
         <v>4</v>
       </c>
-      <c r="J244">
+      <c r="I244">
         <f>INDEX([1]Songs!$L:$L,MATCH(E244,[1]Songs!$E:$E,0))</f>
         <v>4491002</v>
       </c>
-      <c r="L244" t="str">
+      <c r="K244" t="str">
         <f>IF(ISNUMBER(INDEX([1]Songs!$L:$L,MATCH(E244,[1]Songs!$E:$E,0))),"YES","")</f>
         <v>YES</v>
       </c>
     </row>
-    <row r="245" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="245" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E245" t="s">
         <v>241</v>
       </c>
       <c r="F245" t="s">
         <v>4</v>
       </c>
-      <c r="J245" t="e">
+      <c r="I245" t="e">
         <f>INDEX([1]Songs!$L:$L,MATCH(E245,[1]Songs!$E:$E,0))</f>
         <v>#N/A</v>
       </c>
-      <c r="L245" t="str">
+      <c r="K245" t="str">
         <f>IF(ISNUMBER(INDEX([1]Songs!$L:$L,MATCH(E245,[1]Songs!$E:$E,0))),"YES","")</f>
         <v/>
       </c>
     </row>
-    <row r="246" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="246" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E246" t="s">
         <v>242</v>
       </c>
       <c r="F246" t="s">
         <v>4</v>
       </c>
-      <c r="J246" t="e">
+      <c r="I246" t="e">
         <f>INDEX([1]Songs!$L:$L,MATCH(E246,[1]Songs!$E:$E,0))</f>
         <v>#N/A</v>
       </c>
-      <c r="L246" t="str">
+      <c r="K246" t="str">
         <f>IF(ISNUMBER(INDEX([1]Songs!$L:$L,MATCH(E246,[1]Songs!$E:$E,0))),"YES","")</f>
         <v/>
       </c>
     </row>
-    <row r="247" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="247" spans="5:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="E247" t="s">
         <v>243</v>
       </c>
       <c r="F247" t="s">
         <v>4</v>
       </c>
-      <c r="J247">
+      <c r="I247">
         <f>INDEX([1]Songs!$L:$L,MATCH(E247,[1]Songs!$E:$E,0))</f>
         <v>4591782</v>
       </c>
-      <c r="K247" t="s">
+      <c r="J247" t="s">
         <v>15</v>
       </c>
-      <c r="L247" t="str">
+      <c r="K247" t="str">
         <f>IF(ISNUMBER(INDEX([1]Songs!$L:$L,MATCH(E247,[1]Songs!$E:$E,0))),"YES","")</f>
         <v>YES</v>
       </c>
     </row>
-    <row r="248" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="248" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E248" t="s">
         <v>244</v>
       </c>
       <c r="F248" t="s">
         <v>4</v>
       </c>
-      <c r="J248" t="e">
+      <c r="I248" t="e">
         <f>INDEX([1]Songs!$L:$L,MATCH(E248,[1]Songs!$E:$E,0))</f>
         <v>#N/A</v>
       </c>
-      <c r="L248" t="str">
+      <c r="K248" t="str">
         <f>IF(ISNUMBER(INDEX([1]Songs!$L:$L,MATCH(E248,[1]Songs!$E:$E,0))),"YES","")</f>
         <v/>
       </c>
     </row>
-    <row r="249" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="249" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E249" t="s">
         <v>245</v>
       </c>
       <c r="F249" t="s">
         <v>4</v>
       </c>
-      <c r="J249" t="e">
+      <c r="I249" t="e">
         <f>INDEX([1]Songs!$L:$L,MATCH(E249,[1]Songs!$E:$E,0))</f>
         <v>#N/A</v>
       </c>
-      <c r="L249" t="str">
+      <c r="K249" t="str">
         <f>IF(ISNUMBER(INDEX([1]Songs!$L:$L,MATCH(E249,[1]Songs!$E:$E,0))),"YES","")</f>
         <v/>
       </c>
     </row>
-    <row r="250" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="250" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E250" t="s">
         <v>246</v>
       </c>
       <c r="F250" t="s">
         <v>4</v>
       </c>
-      <c r="J250" t="e">
+      <c r="I250" t="e">
         <f>INDEX([1]Songs!$L:$L,MATCH(E250,[1]Songs!$E:$E,0))</f>
         <v>#N/A</v>
       </c>
-      <c r="L250" t="str">
+      <c r="K250" t="str">
         <f>IF(ISNUMBER(INDEX([1]Songs!$L:$L,MATCH(E250,[1]Songs!$E:$E,0))),"YES","")</f>
         <v/>
       </c>
     </row>
-    <row r="251" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="251" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E251" t="s">
         <v>247</v>
       </c>
       <c r="F251" t="s">
         <v>4</v>
       </c>
-      <c r="J251" t="e">
+      <c r="I251" t="e">
         <f>INDEX([1]Songs!$L:$L,MATCH(E251,[1]Songs!$E:$E,0))</f>
         <v>#N/A</v>
       </c>
-      <c r="L251" t="str">
+      <c r="K251" t="str">
         <f>IF(ISNUMBER(INDEX([1]Songs!$L:$L,MATCH(E251,[1]Songs!$E:$E,0))),"YES","")</f>
         <v/>
       </c>
     </row>
-    <row r="252" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="252" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E252" t="s">
         <v>248</v>
       </c>
       <c r="F252" t="s">
         <v>4</v>
       </c>
-      <c r="J252" t="e">
+      <c r="I252" t="e">
         <f>INDEX([1]Songs!$L:$L,MATCH(E252,[1]Songs!$E:$E,0))</f>
         <v>#N/A</v>
       </c>
-      <c r="L252" t="str">
+      <c r="K252" t="str">
         <f>IF(ISNUMBER(INDEX([1]Songs!$L:$L,MATCH(E252,[1]Songs!$E:$E,0))),"YES","")</f>
         <v/>
       </c>
     </row>
-    <row r="253" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="253" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E253" t="s">
         <v>249</v>
       </c>
       <c r="F253" t="s">
         <v>4</v>
       </c>
-      <c r="J253" t="e">
+      <c r="I253" t="e">
         <f>INDEX([1]Songs!$L:$L,MATCH(E253,[1]Songs!$E:$E,0))</f>
         <v>#N/A</v>
       </c>
-      <c r="L253" t="str">
+      <c r="K253" t="str">
         <f>IF(ISNUMBER(INDEX([1]Songs!$L:$L,MATCH(E253,[1]Songs!$E:$E,0))),"YES","")</f>
         <v/>
       </c>
     </row>
-    <row r="254" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="254" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E254" t="s">
         <v>250</v>
       </c>
       <c r="F254" t="s">
         <v>4</v>
       </c>
-      <c r="J254" t="e">
+      <c r="I254" t="e">
         <f>INDEX([1]Songs!$L:$L,MATCH(E254,[1]Songs!$E:$E,0))</f>
         <v>#N/A</v>
       </c>
-      <c r="L254" t="str">
+      <c r="K254" t="str">
         <f>IF(ISNUMBER(INDEX([1]Songs!$L:$L,MATCH(E254,[1]Songs!$E:$E,0))),"YES","")</f>
         <v/>
       </c>
     </row>
-    <row r="255" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="255" spans="5:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="E255" t="s">
         <v>251</v>
       </c>
       <c r="F255" t="s">
         <v>4</v>
       </c>
-      <c r="J255">
+      <c r="I255">
         <f>INDEX([1]Songs!$L:$L,MATCH(E255,[1]Songs!$E:$E,0))</f>
         <v>7002032</v>
       </c>
-      <c r="K255" t="s">
+      <c r="J255" t="s">
         <v>15</v>
       </c>
-      <c r="L255" t="str">
+      <c r="K255" t="str">
         <f>IF(ISNUMBER(INDEX([1]Songs!$L:$L,MATCH(E255,[1]Songs!$E:$E,0))),"YES","")</f>
         <v>YES</v>
       </c>
     </row>
-    <row r="256" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="256" spans="5:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="E256" t="s">
         <v>252</v>
       </c>
       <c r="F256" t="s">
         <v>4</v>
       </c>
-      <c r="J256">
+      <c r="I256">
         <f>INDEX([1]Songs!$L:$L,MATCH(E256,[1]Songs!$E:$E,0))</f>
         <v>2397964</v>
       </c>
-      <c r="L256" t="str">
+      <c r="K256" t="str">
         <f>IF(ISNUMBER(INDEX([1]Songs!$L:$L,MATCH(E256,[1]Songs!$E:$E,0))),"YES","")</f>
         <v>YES</v>
       </c>
     </row>
-    <row r="257" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="257" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E257" t="s">
         <v>253</v>
       </c>
       <c r="F257" t="s">
         <v>4</v>
       </c>
-      <c r="J257" t="e">
+      <c r="I257" t="e">
         <f>INDEX([1]Songs!$L:$L,MATCH(E257,[1]Songs!$E:$E,0))</f>
         <v>#N/A</v>
       </c>
-      <c r="L257" t="str">
+      <c r="K257" t="str">
         <f>IF(ISNUMBER(INDEX([1]Songs!$L:$L,MATCH(E257,[1]Songs!$E:$E,0))),"YES","")</f>
         <v/>
       </c>
     </row>
-    <row r="258" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="258" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E258" t="s">
         <v>254</v>
       </c>
       <c r="F258" t="s">
         <v>4</v>
       </c>
-      <c r="J258" t="e">
+      <c r="I258" t="e">
         <f>INDEX([1]Songs!$L:$L,MATCH(E258,[1]Songs!$E:$E,0))</f>
         <v>#N/A</v>
       </c>
-      <c r="L258" t="str">
+      <c r="K258" t="str">
         <f>IF(ISNUMBER(INDEX([1]Songs!$L:$L,MATCH(E258,[1]Songs!$E:$E,0))),"YES","")</f>
         <v/>
       </c>
     </row>
-    <row r="259" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="259" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E259" t="s">
         <v>255</v>
       </c>
       <c r="F259" t="s">
         <v>4</v>
       </c>
-      <c r="J259" t="e">
+      <c r="I259" t="e">
         <f>INDEX([1]Songs!$L:$L,MATCH(E259,[1]Songs!$E:$E,0))</f>
         <v>#N/A</v>
       </c>
-      <c r="L259" t="str">
+      <c r="K259" t="str">
         <f>IF(ISNUMBER(INDEX([1]Songs!$L:$L,MATCH(E259,[1]Songs!$E:$E,0))),"YES","")</f>
         <v/>
       </c>
     </row>
-    <row r="260" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="260" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E260" t="s">
         <v>256</v>
       </c>
       <c r="F260" t="s">
         <v>4</v>
       </c>
-      <c r="J260" t="e">
+      <c r="I260" t="e">
         <f>INDEX([1]Songs!$L:$L,MATCH(E260,[1]Songs!$E:$E,0))</f>
         <v>#N/A</v>
       </c>
-      <c r="L260" t="str">
+      <c r="K260" t="str">
         <f>IF(ISNUMBER(INDEX([1]Songs!$L:$L,MATCH(E260,[1]Songs!$E:$E,0))),"YES","")</f>
         <v/>
       </c>
     </row>
-    <row r="261" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="261" spans="5:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="E261" t="s">
         <v>257</v>
       </c>
       <c r="F261" t="s">
         <v>4</v>
       </c>
-      <c r="J261">
+      <c r="I261">
         <f>INDEX([1]Songs!$L:$L,MATCH(E261,[1]Songs!$E:$E,0))</f>
         <v>5997055</v>
       </c>
-      <c r="L261" t="str">
+      <c r="K261" t="str">
         <f>IF(ISNUMBER(INDEX([1]Songs!$L:$L,MATCH(E261,[1]Songs!$E:$E,0))),"YES","")</f>
         <v>YES</v>
       </c>
     </row>
-    <row r="262" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="262" spans="5:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="E262" t="s">
         <v>258</v>
       </c>
       <c r="F262" t="s">
         <v>4</v>
       </c>
-      <c r="J262">
+      <c r="I262">
         <f>INDEX([1]Songs!$L:$L,MATCH(E262,[1]Songs!$E:$E,0))</f>
         <v>7030123</v>
       </c>
-      <c r="K262" t="s">
+      <c r="J262" t="s">
         <v>15</v>
       </c>
-      <c r="L262" t="str">
+      <c r="K262" t="str">
         <f>IF(ISNUMBER(INDEX([1]Songs!$L:$L,MATCH(E262,[1]Songs!$E:$E,0))),"YES","")</f>
         <v>YES</v>
       </c>
     </row>
-    <row r="263" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="263" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E263" t="s">
         <v>259</v>
       </c>
       <c r="F263" t="s">
         <v>4</v>
       </c>
-      <c r="J263" t="e">
+      <c r="I263" t="e">
         <f>INDEX([1]Songs!$L:$L,MATCH(E263,[1]Songs!$E:$E,0))</f>
         <v>#N/A</v>
       </c>
-      <c r="L263" t="str">
+      <c r="K263" t="str">
         <f>IF(ISNUMBER(INDEX([1]Songs!$L:$L,MATCH(E263,[1]Songs!$E:$E,0))),"YES","")</f>
         <v/>
       </c>
     </row>
-    <row r="264" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="264" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E264" t="s">
         <v>260</v>
       </c>
       <c r="F264" t="s">
         <v>4</v>
       </c>
-      <c r="J264" t="e">
+      <c r="I264" t="e">
         <f>INDEX([1]Songs!$L:$L,MATCH(E264,[1]Songs!$E:$E,0))</f>
         <v>#N/A</v>
       </c>
-      <c r="L264" t="str">
+      <c r="K264" t="str">
         <f>IF(ISNUMBER(INDEX([1]Songs!$L:$L,MATCH(E264,[1]Songs!$E:$E,0))),"YES","")</f>
         <v/>
       </c>
     </row>
-    <row r="265" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="265" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E265" t="s">
         <v>261</v>
       </c>
       <c r="F265" t="s">
         <v>4</v>
       </c>
-      <c r="J265" t="e">
+      <c r="I265" t="e">
         <f>INDEX([1]Songs!$L:$L,MATCH(E265,[1]Songs!$E:$E,0))</f>
         <v>#N/A</v>
       </c>
-      <c r="L265" t="str">
+      <c r="K265" t="str">
         <f>IF(ISNUMBER(INDEX([1]Songs!$L:$L,MATCH(E265,[1]Songs!$E:$E,0))),"YES","")</f>
         <v/>
       </c>
     </row>
-    <row r="266" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="266" spans="5:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="E266" t="s">
         <v>262</v>
       </c>
       <c r="F266" t="s">
         <v>4</v>
       </c>
-      <c r="J266">
+      <c r="I266">
         <f>INDEX([1]Songs!$L:$L,MATCH(E266,[1]Songs!$E:$E,0))</f>
         <v>4329411</v>
       </c>
-      <c r="L266" t="str">
+      <c r="K266" t="str">
         <f>IF(ISNUMBER(INDEX([1]Songs!$L:$L,MATCH(E266,[1]Songs!$E:$E,0))),"YES","")</f>
         <v>YES</v>
       </c>
     </row>
-    <row r="267" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="267" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E267" t="s">
         <v>263</v>
       </c>
       <c r="F267" t="s">
         <v>4</v>
       </c>
-      <c r="J267" t="e">
+      <c r="I267" t="e">
         <f>INDEX([1]Songs!$L:$L,MATCH(E267,[1]Songs!$E:$E,0))</f>
         <v>#N/A</v>
       </c>
-      <c r="L267" t="str">
+      <c r="K267" t="str">
         <f>IF(ISNUMBER(INDEX([1]Songs!$L:$L,MATCH(E267,[1]Songs!$E:$E,0))),"YES","")</f>
         <v/>
       </c>
     </row>
-    <row r="268" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="268" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E268" t="s">
+        <v>437</v>
+      </c>
+      <c r="F268" t="s">
+        <v>4</v>
+      </c>
+      <c r="I268" t="e">
+        <f>INDEX([1]Songs!$L:$L,MATCH(E268,[1]Songs!$E:$E,0))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="K268" t="str">
+        <f>IF(ISNUMBER(INDEX([1]Songs!$L:$L,MATCH(E268,[1]Songs!$E:$E,0))),"YES","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="269" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="E269" t="s">
         <v>438</v>
       </c>
-      <c r="F268" t="s">
-        <v>4</v>
-      </c>
-      <c r="J268" t="e">
-        <f>INDEX([1]Songs!$L:$L,MATCH(E268,[1]Songs!$E:$E,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="L268" t="str">
-        <f>IF(ISNUMBER(INDEX([1]Songs!$L:$L,MATCH(E268,[1]Songs!$E:$E,0))),"YES","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="269" spans="5:12" x14ac:dyDescent="0.25">
-      <c r="E269" t="s">
-        <v>439</v>
-      </c>
       <c r="F269" t="s">
         <v>4</v>
       </c>
-      <c r="J269" t="e">
+      <c r="I269" t="e">
         <f>INDEX([1]Songs!$L:$L,MATCH(E269,[1]Songs!$E:$E,0))</f>
         <v>#N/A</v>
       </c>
-      <c r="L269" t="str">
+      <c r="K269" t="str">
         <f>IF(ISNUMBER(INDEX([1]Songs!$L:$L,MATCH(E269,[1]Songs!$E:$E,0))),"YES","")</f>
         <v/>
       </c>
     </row>
-    <row r="270" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="270" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E270" t="s">
         <v>264</v>
       </c>
       <c r="F270" t="s">
         <v>4</v>
       </c>
-      <c r="J270" t="e">
+      <c r="I270" t="e">
         <f>INDEX([1]Songs!$L:$L,MATCH(E270,[1]Songs!$E:$E,0))</f>
         <v>#N/A</v>
       </c>
-      <c r="L270" t="str">
+      <c r="K270" t="str">
         <f>IF(ISNUMBER(INDEX([1]Songs!$L:$L,MATCH(E270,[1]Songs!$E:$E,0))),"YES","")</f>
         <v/>
       </c>
     </row>
-    <row r="271" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="271" spans="5:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="E271" t="s">
         <v>265</v>
       </c>
       <c r="F271" t="s">
         <v>266</v>
       </c>
-      <c r="J271">
+      <c r="I271">
         <f>INDEX([1]Songs!$L:$L,MATCH(E271,[1]Songs!$E:$E,0))</f>
         <v>4158022</v>
       </c>
-      <c r="L271" t="str">
+      <c r="K271" t="str">
         <f>IF(ISNUMBER(INDEX([1]Songs!$L:$L,MATCH(E271,[1]Songs!$E:$E,0))),"YES","")</f>
         <v>YES</v>
       </c>
     </row>
-    <row r="272" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="272" spans="5:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="E272" t="s">
         <v>267</v>
       </c>
       <c r="F272" t="s">
         <v>268</v>
       </c>
-      <c r="J272">
+      <c r="I272">
         <f>INDEX([1]Songs!$L:$L,MATCH(E272,[1]Songs!$E:$E,0))</f>
         <v>7037787</v>
       </c>
-      <c r="K272" t="s">
+      <c r="J272" t="s">
         <v>15</v>
       </c>
-      <c r="L272" t="str">
+      <c r="K272" t="str">
         <f>IF(ISNUMBER(INDEX([1]Songs!$L:$L,MATCH(E272,[1]Songs!$E:$E,0))),"YES","")</f>
         <v>YES</v>
       </c>
     </row>
-    <row r="273" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="273" spans="5:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="E273" t="s">
         <v>269</v>
       </c>
       <c r="F273" t="s">
         <v>4</v>
       </c>
-      <c r="J273">
+      <c r="I273">
         <f>INDEX([1]Songs!$L:$L,MATCH(E273,[1]Songs!$E:$E,0))</f>
         <v>5783630</v>
       </c>
-      <c r="L273" t="str">
+      <c r="K273" t="str">
         <f>IF(ISNUMBER(INDEX([1]Songs!$L:$L,MATCH(E273,[1]Songs!$E:$E,0))),"YES","")</f>
         <v>YES</v>
       </c>
     </row>
-    <row r="274" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="274" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E274" t="s">
         <v>270</v>
       </c>
       <c r="F274" t="s">
         <v>4</v>
       </c>
-      <c r="J274" t="e">
+      <c r="I274" t="e">
         <f>INDEX([1]Songs!$L:$L,MATCH(E274,[1]Songs!$E:$E,0))</f>
         <v>#N/A</v>
       </c>
-      <c r="L274" t="str">
+      <c r="K274" t="str">
         <f>IF(ISNUMBER(INDEX([1]Songs!$L:$L,MATCH(E274,[1]Songs!$E:$E,0))),"YES","")</f>
         <v/>
       </c>
     </row>
-    <row r="275" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="275" spans="5:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="E275" t="s">
         <v>271</v>
       </c>
       <c r="F275" t="s">
         <v>272</v>
       </c>
-      <c r="J275">
+      <c r="I275">
         <f>INDEX([1]Songs!$L:$L,MATCH(E275,[1]Songs!$E:$E,0))</f>
         <v>6428767</v>
       </c>
-      <c r="K275" t="s">
+      <c r="J275" t="s">
         <v>15</v>
       </c>
-      <c r="L275" t="str">
+      <c r="K275" t="str">
         <f>IF(ISNUMBER(INDEX([1]Songs!$L:$L,MATCH(E275,[1]Songs!$E:$E,0))),"YES","")</f>
         <v>YES</v>
       </c>
     </row>
-    <row r="276" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="276" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E276" t="s">
         <v>273</v>
       </c>
       <c r="F276" t="s">
         <v>274</v>
       </c>
-      <c r="J276" t="e">
+      <c r="I276" t="e">
         <f>INDEX([1]Songs!$L:$L,MATCH(E276,[1]Songs!$E:$E,0))</f>
         <v>#N/A</v>
       </c>
-      <c r="L276" t="str">
+      <c r="K276" t="str">
         <f>IF(ISNUMBER(INDEX([1]Songs!$L:$L,MATCH(E276,[1]Songs!$E:$E,0))),"YES","")</f>
         <v/>
       </c>
     </row>
-    <row r="277" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="277" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E277" t="s">
         <v>275</v>
       </c>
       <c r="F277" t="s">
         <v>4</v>
       </c>
-      <c r="J277" t="e">
+      <c r="I277" t="e">
         <f>INDEX([1]Songs!$L:$L,MATCH(E277,[1]Songs!$E:$E,0))</f>
         <v>#N/A</v>
       </c>
-      <c r="L277" t="str">
+      <c r="K277" t="str">
         <f>IF(ISNUMBER(INDEX([1]Songs!$L:$L,MATCH(E277,[1]Songs!$E:$E,0))),"YES","")</f>
         <v/>
       </c>
     </row>
-    <row r="278" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="278" spans="5:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="E278" t="s">
         <v>276</v>
       </c>
       <c r="F278" t="s">
         <v>4</v>
       </c>
-      <c r="J278">
+      <c r="I278">
         <f>INDEX([1]Songs!$L:$L,MATCH(E278,[1]Songs!$E:$E,0))</f>
         <v>1564362</v>
       </c>
-      <c r="K278" t="s">
+      <c r="J278" t="s">
         <v>5</v>
       </c>
-      <c r="L278" t="str">
+      <c r="K278" t="str">
         <f>IF(ISNUMBER(INDEX([1]Songs!$L:$L,MATCH(E278,[1]Songs!$E:$E,0))),"YES","")</f>
         <v>YES</v>
       </c>
     </row>
-    <row r="279" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="279" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E279" t="s">
         <v>277</v>
       </c>
       <c r="F279" t="s">
         <v>4</v>
       </c>
-      <c r="J279" t="e">
+      <c r="I279" t="e">
         <f>INDEX([1]Songs!$L:$L,MATCH(E279,[1]Songs!$E:$E,0))</f>
         <v>#N/A</v>
       </c>
-      <c r="L279" t="str">
+      <c r="K279" t="str">
         <f>IF(ISNUMBER(INDEX([1]Songs!$L:$L,MATCH(E279,[1]Songs!$E:$E,0))),"YES","")</f>
         <v/>
       </c>
     </row>
-    <row r="280" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="280" spans="5:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="E280" t="s">
         <v>278</v>
       </c>
       <c r="F280" t="s">
         <v>279</v>
       </c>
-      <c r="J280">
+      <c r="I280">
         <f>INDEX([1]Songs!$L:$L,MATCH(E280,[1]Songs!$E:$E,0))</f>
         <v>5508444</v>
       </c>
-      <c r="K280" t="s">
+      <c r="J280" t="s">
         <v>15</v>
       </c>
-      <c r="L280" t="str">
+      <c r="K280" t="str">
         <f>IF(ISNUMBER(INDEX([1]Songs!$L:$L,MATCH(E280,[1]Songs!$E:$E,0))),"YES","")</f>
         <v>YES</v>
       </c>
     </row>
-    <row r="281" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="281" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E281" t="s">
         <v>280</v>
       </c>
       <c r="F281" t="s">
         <v>4</v>
       </c>
-      <c r="J281" t="e">
+      <c r="I281" t="e">
         <f>INDEX([1]Songs!$L:$L,MATCH(E281,[1]Songs!$E:$E,0))</f>
         <v>#N/A</v>
       </c>
-      <c r="L281" t="str">
+      <c r="K281" t="str">
         <f>IF(ISNUMBER(INDEX([1]Songs!$L:$L,MATCH(E281,[1]Songs!$E:$E,0))),"YES","")</f>
         <v/>
       </c>
     </row>
-    <row r="282" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="282" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E282" t="s">
         <v>281</v>
       </c>
       <c r="F282" t="s">
         <v>4</v>
       </c>
-      <c r="J282" t="e">
+      <c r="I282" t="e">
         <f>INDEX([1]Songs!$L:$L,MATCH(E282,[1]Songs!$E:$E,0))</f>
         <v>#N/A</v>
       </c>
-      <c r="L282" t="str">
+      <c r="K282" t="str">
         <f>IF(ISNUMBER(INDEX([1]Songs!$L:$L,MATCH(E282,[1]Songs!$E:$E,0))),"YES","")</f>
         <v/>
       </c>
     </row>
-    <row r="283" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="283" spans="5:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="E283" t="s">
         <v>282</v>
       </c>
       <c r="F283" t="s">
         <v>4</v>
       </c>
-      <c r="J283">
+      <c r="I283">
         <f>INDEX([1]Songs!$L:$L,MATCH(E283,[1]Songs!$E:$E,0))</f>
         <v>7011438</v>
       </c>
-      <c r="L283" t="str">
+      <c r="K283" t="str">
         <f>IF(ISNUMBER(INDEX([1]Songs!$L:$L,MATCH(E283,[1]Songs!$E:$E,0))),"YES","")</f>
         <v>YES</v>
       </c>
     </row>
-    <row r="284" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="284" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E284" t="s">
         <v>283</v>
       </c>
       <c r="F284" t="s">
         <v>4</v>
       </c>
-      <c r="J284" t="e">
+      <c r="I284" t="e">
         <f>INDEX([1]Songs!$L:$L,MATCH(E284,[1]Songs!$E:$E,0))</f>
         <v>#N/A</v>
       </c>
-      <c r="L284" t="str">
+      <c r="K284" t="str">
         <f>IF(ISNUMBER(INDEX([1]Songs!$L:$L,MATCH(E284,[1]Songs!$E:$E,0))),"YES","")</f>
         <v/>
       </c>
     </row>
-    <row r="285" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="285" spans="5:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="E285" t="s">
         <v>284</v>
       </c>
       <c r="F285" t="s">
         <v>4</v>
       </c>
-      <c r="J285">
+      <c r="I285">
         <f>INDEX([1]Songs!$L:$L,MATCH(E285,[1]Songs!$E:$E,0))</f>
         <v>2298355</v>
       </c>
-      <c r="K285" t="s">
+      <c r="J285" t="s">
         <v>5</v>
       </c>
-      <c r="L285" t="str">
+      <c r="K285" t="str">
         <f>IF(ISNUMBER(INDEX([1]Songs!$L:$L,MATCH(E285,[1]Songs!$E:$E,0))),"YES","")</f>
         <v>YES</v>
       </c>
     </row>
-    <row r="286" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="286" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E286" t="s">
         <v>285</v>
       </c>
       <c r="F286" t="s">
         <v>4</v>
       </c>
-      <c r="J286" t="e">
+      <c r="I286" t="e">
         <f>INDEX([1]Songs!$L:$L,MATCH(E286,[1]Songs!$E:$E,0))</f>
         <v>#N/A</v>
       </c>
-      <c r="L286" t="str">
+      <c r="K286" t="str">
         <f>IF(ISNUMBER(INDEX([1]Songs!$L:$L,MATCH(E286,[1]Songs!$E:$E,0))),"YES","")</f>
         <v/>
       </c>
     </row>
-    <row r="287" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="287" spans="5:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="E287" t="s">
         <v>286</v>
       </c>
       <c r="F287" t="s">
         <v>4</v>
       </c>
-      <c r="J287">
+      <c r="I287">
         <f>INDEX([1]Songs!$L:$L,MATCH(E287,[1]Songs!$E:$E,0))</f>
         <v>6304702</v>
       </c>
-      <c r="L287" t="str">
+      <c r="K287" t="str">
         <f>IF(ISNUMBER(INDEX([1]Songs!$L:$L,MATCH(E287,[1]Songs!$E:$E,0))),"YES","")</f>
         <v>YES</v>
       </c>
     </row>
-    <row r="288" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="288" spans="5:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="E288" t="s">
         <v>287</v>
       </c>
       <c r="F288" t="s">
         <v>4</v>
       </c>
-      <c r="J288">
+      <c r="I288">
         <f>INDEX([1]Songs!$L:$L,MATCH(E288,[1]Songs!$E:$E,0))</f>
         <v>5677416</v>
       </c>
-      <c r="K288" t="s">
+      <c r="J288" t="s">
         <v>15</v>
       </c>
-      <c r="L288" t="str">
+      <c r="K288" t="str">
         <f>IF(ISNUMBER(INDEX([1]Songs!$L:$L,MATCH(E288,[1]Songs!$E:$E,0))),"YES","")</f>
         <v>YES</v>
       </c>
     </row>
-    <row r="289" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="289" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E289" t="s">
         <v>288</v>
       </c>
       <c r="F289" t="s">
         <v>4</v>
       </c>
-      <c r="J289" t="e">
+      <c r="I289" t="e">
         <f>INDEX([1]Songs!$L:$L,MATCH(E289,[1]Songs!$E:$E,0))</f>
         <v>#N/A</v>
       </c>
-      <c r="L289" t="str">
+      <c r="K289" t="str">
         <f>IF(ISNUMBER(INDEX([1]Songs!$L:$L,MATCH(E289,[1]Songs!$E:$E,0))),"YES","")</f>
         <v/>
       </c>
     </row>
-    <row r="290" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="290" spans="5:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="E290" t="s">
         <v>289</v>
       </c>
       <c r="F290" t="s">
         <v>4</v>
       </c>
-      <c r="J290">
+      <c r="I290">
         <f>INDEX([1]Songs!$L:$L,MATCH(E290,[1]Songs!$E:$E,0))</f>
         <v>4972837</v>
       </c>
-      <c r="L290" t="str">
+      <c r="K290" t="str">
         <f>IF(ISNUMBER(INDEX([1]Songs!$L:$L,MATCH(E290,[1]Songs!$E:$E,0))),"YES","")</f>
         <v>YES</v>
       </c>
     </row>
-    <row r="291" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="291" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E291" t="s">
         <v>290</v>
       </c>
       <c r="F291" t="s">
         <v>4</v>
       </c>
-      <c r="J291" t="e">
+      <c r="I291" t="e">
         <f>INDEX([1]Songs!$L:$L,MATCH(E291,[1]Songs!$E:$E,0))</f>
         <v>#N/A</v>
       </c>
-      <c r="L291" t="str">
+      <c r="K291" t="str">
         <f>IF(ISNUMBER(INDEX([1]Songs!$L:$L,MATCH(E291,[1]Songs!$E:$E,0))),"YES","")</f>
         <v/>
       </c>
     </row>
-    <row r="292" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="292" spans="5:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="E292" t="s">
         <v>291</v>
       </c>
       <c r="F292" t="s">
         <v>4</v>
       </c>
-      <c r="J292">
+      <c r="I292">
         <f>INDEX([1]Songs!$L:$L,MATCH(E292,[1]Songs!$E:$E,0))</f>
         <v>7067561</v>
       </c>
-      <c r="L292" t="str">
+      <c r="K292" t="str">
         <f>IF(ISNUMBER(INDEX([1]Songs!$L:$L,MATCH(E292,[1]Songs!$E:$E,0))),"YES","")</f>
         <v>YES</v>
       </c>
     </row>
-    <row r="293" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="293" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E293" t="s">
         <v>292</v>
       </c>
       <c r="F293" t="s">
         <v>4</v>
       </c>
-      <c r="J293" t="e">
+      <c r="I293" t="e">
         <f>INDEX([1]Songs!$L:$L,MATCH(E293,[1]Songs!$E:$E,0))</f>
         <v>#N/A</v>
       </c>
-      <c r="L293" t="str">
+      <c r="K293" t="str">
         <f>IF(ISNUMBER(INDEX([1]Songs!$L:$L,MATCH(E293,[1]Songs!$E:$E,0))),"YES","")</f>
         <v/>
       </c>
     </row>
-    <row r="294" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="294" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E294" t="s">
         <v>293</v>
       </c>
       <c r="F294" t="s">
         <v>4</v>
       </c>
-      <c r="J294" t="e">
+      <c r="I294" t="e">
         <f>INDEX([1]Songs!$L:$L,MATCH(E294,[1]Songs!$E:$E,0))</f>
         <v>#N/A</v>
       </c>
-      <c r="L294" t="str">
+      <c r="K294" t="str">
         <f>IF(ISNUMBER(INDEX([1]Songs!$L:$L,MATCH(E294,[1]Songs!$E:$E,0))),"YES","")</f>
         <v/>
       </c>
     </row>
-    <row r="295" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="295" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E295" t="s">
         <v>294</v>
       </c>
       <c r="F295" t="s">
         <v>4</v>
       </c>
-      <c r="J295" t="e">
+      <c r="I295" t="e">
         <f>INDEX([1]Songs!$L:$L,MATCH(E295,[1]Songs!$E:$E,0))</f>
         <v>#N/A</v>
       </c>
-      <c r="L295" t="str">
+      <c r="K295" t="str">
         <f>IF(ISNUMBER(INDEX([1]Songs!$L:$L,MATCH(E295,[1]Songs!$E:$E,0))),"YES","")</f>
         <v/>
       </c>
     </row>
-    <row r="296" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="296" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E296" t="s">
         <v>295</v>
       </c>
       <c r="F296" t="s">
         <v>296</v>
       </c>
-      <c r="J296" t="e">
+      <c r="I296" t="e">
         <f>INDEX([1]Songs!$L:$L,MATCH(E296,[1]Songs!$E:$E,0))</f>
         <v>#N/A</v>
       </c>
-      <c r="K296" t="s">
+      <c r="J296" t="s">
         <v>15</v>
       </c>
-      <c r="L296" t="str">
+      <c r="K296" t="str">
         <f>IF(ISNUMBER(INDEX([1]Songs!$L:$L,MATCH(E296,[1]Songs!$E:$E,0))),"YES","")</f>
         <v/>
       </c>
     </row>
-    <row r="297" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="297" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E297" t="s">
         <v>297</v>
       </c>
       <c r="F297" t="s">
         <v>4</v>
       </c>
-      <c r="J297" t="e">
+      <c r="I297" t="e">
         <f>INDEX([1]Songs!$L:$L,MATCH(E297,[1]Songs!$E:$E,0))</f>
         <v>#N/A</v>
       </c>
-      <c r="K297" t="s">
+      <c r="J297" t="s">
         <v>5</v>
       </c>
-      <c r="L297" t="str">
+      <c r="K297" t="str">
         <f>IF(ISNUMBER(INDEX([1]Songs!$L:$L,MATCH(E297,[1]Songs!$E:$E,0))),"YES","")</f>
         <v/>
       </c>
     </row>
-    <row r="298" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="298" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E298" t="s">
         <v>298</v>
       </c>
       <c r="F298" t="s">
         <v>4</v>
       </c>
-      <c r="J298" t="e">
+      <c r="I298" t="e">
         <f>INDEX([1]Songs!$L:$L,MATCH(E298,[1]Songs!$E:$E,0))</f>
         <v>#N/A</v>
       </c>
-      <c r="L298" t="str">
+      <c r="K298" t="str">
         <f>IF(ISNUMBER(INDEX([1]Songs!$L:$L,MATCH(E298,[1]Songs!$E:$E,0))),"YES","")</f>
         <v/>
       </c>
     </row>
-    <row r="299" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="299" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E299" t="s">
         <v>299</v>
       </c>
       <c r="F299" t="s">
         <v>4</v>
       </c>
-      <c r="J299" t="e">
+      <c r="I299" t="e">
         <f>INDEX([1]Songs!$L:$L,MATCH(E299,[1]Songs!$E:$E,0))</f>
         <v>#N/A</v>
       </c>
-      <c r="L299" t="str">
+      <c r="K299" t="str">
         <f>IF(ISNUMBER(INDEX([1]Songs!$L:$L,MATCH(E299,[1]Songs!$E:$E,0))),"YES","")</f>
         <v/>
       </c>
     </row>
-    <row r="300" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="300" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E300" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="F300" t="s">
         <v>4</v>
       </c>
-      <c r="J300" t="e">
+      <c r="I300" t="e">
         <f>INDEX([1]Songs!$L:$L,MATCH(E300,[1]Songs!$E:$E,0))</f>
         <v>#N/A</v>
       </c>
-      <c r="L300" t="str">
+      <c r="K300" t="str">
         <f>IF(ISNUMBER(INDEX([1]Songs!$L:$L,MATCH(E300,[1]Songs!$E:$E,0))),"YES","")</f>
         <v/>
       </c>
     </row>
-    <row r="301" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="301" spans="5:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="E301" t="s">
         <v>300</v>
       </c>
       <c r="F301" t="s">
         <v>4</v>
       </c>
-      <c r="J301">
+      <c r="I301">
         <f>INDEX([1]Songs!$L:$L,MATCH(E301,[1]Songs!$E:$E,0))</f>
         <v>426298</v>
       </c>
-      <c r="L301" t="str">
+      <c r="K301" t="str">
         <f>IF(ISNUMBER(INDEX([1]Songs!$L:$L,MATCH(E301,[1]Songs!$E:$E,0))),"YES","")</f>
         <v>YES</v>
       </c>
     </row>
-    <row r="302" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="302" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E302" t="s">
         <v>301</v>
       </c>
       <c r="F302" t="s">
         <v>4</v>
       </c>
-      <c r="J302" t="e">
+      <c r="I302" t="e">
         <f>INDEX([1]Songs!$L:$L,MATCH(E302,[1]Songs!$E:$E,0))</f>
         <v>#N/A</v>
       </c>
-      <c r="L302" t="str">
+      <c r="K302" t="str">
         <f>IF(ISNUMBER(INDEX([1]Songs!$L:$L,MATCH(E302,[1]Songs!$E:$E,0))),"YES","")</f>
         <v/>
       </c>
     </row>
-    <row r="303" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="303" spans="5:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="E303" t="s">
         <v>302</v>
       </c>
       <c r="F303" t="s">
         <v>4</v>
       </c>
-      <c r="J303">
+      <c r="I303">
         <f>INDEX([1]Songs!$L:$L,MATCH(E303,[1]Songs!$E:$E,0))</f>
         <v>4447960</v>
       </c>
-      <c r="K303" t="s">
+      <c r="J303" t="s">
         <v>15</v>
       </c>
-      <c r="L303" t="str">
+      <c r="K303" t="str">
         <f>IF(ISNUMBER(INDEX([1]Songs!$L:$L,MATCH(E303,[1]Songs!$E:$E,0))),"YES","")</f>
         <v>YES</v>
       </c>
     </row>
-    <row r="304" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="304" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E304" t="s">
         <v>303</v>
       </c>
       <c r="F304" t="s">
         <v>4</v>
       </c>
-      <c r="J304" t="e">
+      <c r="I304" t="e">
         <f>INDEX([1]Songs!$L:$L,MATCH(E304,[1]Songs!$E:$E,0))</f>
         <v>#N/A</v>
       </c>
-      <c r="L304" t="str">
+      <c r="K304" t="str">
         <f>IF(ISNUMBER(INDEX([1]Songs!$L:$L,MATCH(E304,[1]Songs!$E:$E,0))),"YES","")</f>
         <v/>
       </c>
     </row>
-    <row r="305" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="305" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E305" t="s">
         <v>304</v>
       </c>
       <c r="F305" t="s">
         <v>4</v>
       </c>
-      <c r="J305" t="e">
+      <c r="I305" t="e">
         <f>INDEX([1]Songs!$L:$L,MATCH(E305,[1]Songs!$E:$E,0))</f>
         <v>#N/A</v>
       </c>
-      <c r="L305" t="str">
+      <c r="K305" t="str">
         <f>IF(ISNUMBER(INDEX([1]Songs!$L:$L,MATCH(E305,[1]Songs!$E:$E,0))),"YES","")</f>
         <v/>
       </c>
     </row>
-    <row r="306" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="306" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E306" t="s">
         <v>305</v>
       </c>
       <c r="F306" t="s">
         <v>4</v>
       </c>
-      <c r="J306" t="e">
+      <c r="I306" t="e">
         <f>INDEX([1]Songs!$L:$L,MATCH(E306,[1]Songs!$E:$E,0))</f>
         <v>#N/A</v>
       </c>
-      <c r="L306" t="str">
+      <c r="K306" t="str">
         <f>IF(ISNUMBER(INDEX([1]Songs!$L:$L,MATCH(E306,[1]Songs!$E:$E,0))),"YES","")</f>
         <v/>
       </c>
     </row>
-    <row r="307" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="307" spans="5:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="E307" t="s">
         <v>306</v>
       </c>
       <c r="F307" t="s">
         <v>4</v>
       </c>
-      <c r="J307">
+      <c r="I307">
         <f>INDEX([1]Songs!$L:$L,MATCH(E307,[1]Songs!$E:$E,0))</f>
         <v>5875153</v>
       </c>
-      <c r="K307" t="s">
+      <c r="J307" t="s">
         <v>15</v>
       </c>
-      <c r="L307" t="str">
+      <c r="K307" t="str">
         <f>IF(ISNUMBER(INDEX([1]Songs!$L:$L,MATCH(E307,[1]Songs!$E:$E,0))),"YES","")</f>
         <v>YES</v>
       </c>
     </row>
-    <row r="308" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="308" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E308" t="s">
         <v>307</v>
       </c>
       <c r="F308" t="s">
         <v>4</v>
       </c>
-      <c r="J308" t="e">
+      <c r="I308" t="e">
         <f>INDEX([1]Songs!$L:$L,MATCH(E308,[1]Songs!$E:$E,0))</f>
         <v>#N/A</v>
       </c>
-      <c r="L308" t="str">
+      <c r="K308" t="str">
         <f>IF(ISNUMBER(INDEX([1]Songs!$L:$L,MATCH(E308,[1]Songs!$E:$E,0))),"YES","")</f>
         <v/>
       </c>
     </row>
-    <row r="309" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="309" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E309" t="s">
         <v>308</v>
       </c>
       <c r="F309" t="s">
         <v>4</v>
       </c>
-      <c r="J309" t="e">
+      <c r="I309" t="e">
         <f>INDEX([1]Songs!$L:$L,MATCH(E309,[1]Songs!$E:$E,0))</f>
         <v>#N/A</v>
       </c>
-      <c r="L309" t="str">
+      <c r="K309" t="str">
         <f>IF(ISNUMBER(INDEX([1]Songs!$L:$L,MATCH(E309,[1]Songs!$E:$E,0))),"YES","")</f>
         <v/>
       </c>
     </row>
-    <row r="310" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="310" spans="5:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="E310" t="s">
         <v>309</v>
       </c>
       <c r="F310" t="s">
         <v>4</v>
       </c>
-      <c r="J310">
+      <c r="I310">
         <f>INDEX([1]Songs!$L:$L,MATCH(E310,[1]Songs!$E:$E,0))</f>
         <v>6428750</v>
       </c>
-      <c r="K310" t="s">
+      <c r="J310" t="s">
         <v>15</v>
       </c>
-      <c r="L310" t="str">
+      <c r="K310" t="str">
         <f>IF(ISNUMBER(INDEX([1]Songs!$L:$L,MATCH(E310,[1]Songs!$E:$E,0))),"YES","")</f>
         <v>YES</v>
       </c>
     </row>
-    <row r="311" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="311" spans="5:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="E311" t="s">
         <v>310</v>
       </c>
       <c r="F311" t="s">
         <v>4</v>
       </c>
-      <c r="J311">
+      <c r="I311">
         <f>INDEX([1]Songs!$L:$L,MATCH(E311,[1]Songs!$E:$E,0))</f>
         <v>1352</v>
       </c>
-      <c r="L311" t="str">
+      <c r="K311" t="str">
         <f>IF(ISNUMBER(INDEX([1]Songs!$L:$L,MATCH(E311,[1]Songs!$E:$E,0))),"YES","")</f>
         <v>YES</v>
       </c>
     </row>
-    <row r="312" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="312" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E312" t="s">
         <v>311</v>
       </c>
       <c r="F312" t="s">
         <v>4</v>
       </c>
-      <c r="J312" t="e">
+      <c r="I312" t="e">
         <f>INDEX([1]Songs!$L:$L,MATCH(E312,[1]Songs!$E:$E,0))</f>
         <v>#N/A</v>
       </c>
-      <c r="L312" t="str">
+      <c r="K312" t="str">
         <f>IF(ISNUMBER(INDEX([1]Songs!$L:$L,MATCH(E312,[1]Songs!$E:$E,0))),"YES","")</f>
         <v/>
       </c>
     </row>
-    <row r="313" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="313" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E313" t="s">
         <v>312</v>
       </c>
       <c r="F313" t="s">
         <v>4</v>
       </c>
-      <c r="J313" t="e">
+      <c r="I313" t="e">
         <f>INDEX([1]Songs!$L:$L,MATCH(E313,[1]Songs!$E:$E,0))</f>
         <v>#N/A</v>
       </c>
-      <c r="L313" t="str">
+      <c r="K313" t="str">
         <f>IF(ISNUMBER(INDEX([1]Songs!$L:$L,MATCH(E313,[1]Songs!$E:$E,0))),"YES","")</f>
         <v/>
       </c>
     </row>
-    <row r="314" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="314" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E314" t="s">
         <v>313</v>
       </c>
       <c r="F314" t="s">
         <v>4</v>
       </c>
-      <c r="J314" t="e">
+      <c r="I314" t="e">
         <f>INDEX([1]Songs!$L:$L,MATCH(E314,[1]Songs!$E:$E,0))</f>
         <v>#N/A</v>
       </c>
-      <c r="L314" t="str">
+      <c r="K314" t="str">
         <f>IF(ISNUMBER(INDEX([1]Songs!$L:$L,MATCH(E314,[1]Songs!$E:$E,0))),"YES","")</f>
         <v/>
       </c>
     </row>
-    <row r="315" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="315" spans="5:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="E315" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="F315" t="s">
         <v>4</v>
       </c>
-      <c r="J315">
+      <c r="I315">
         <f>INDEX([1]Songs!$L:$L,MATCH(E315,[1]Songs!$E:$E,0))</f>
         <v>30426</v>
       </c>
-      <c r="K315" t="s">
+      <c r="J315" t="s">
         <v>5</v>
       </c>
-      <c r="L315" t="str">
+      <c r="K315" t="str">
         <f>IF(ISNUMBER(INDEX([1]Songs!$L:$L,MATCH(E315,[1]Songs!$E:$E,0))),"YES","")</f>
         <v>YES</v>
       </c>
     </row>
-    <row r="316" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="316" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E316" t="s">
         <v>314</v>
       </c>
       <c r="F316" t="s">
         <v>4</v>
       </c>
-      <c r="J316" t="e">
+      <c r="I316" t="e">
         <f>INDEX([1]Songs!$L:$L,MATCH(E316,[1]Songs!$E:$E,0))</f>
         <v>#N/A</v>
       </c>
-      <c r="L316" t="str">
+      <c r="K316" t="str">
         <f>IF(ISNUMBER(INDEX([1]Songs!$L:$L,MATCH(E316,[1]Songs!$E:$E,0))),"YES","")</f>
         <v/>
       </c>
     </row>
-    <row r="317" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="317" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E317" t="s">
         <v>315</v>
       </c>
       <c r="F317" t="s">
         <v>4</v>
       </c>
-      <c r="J317" t="e">
+      <c r="I317" t="e">
         <f>INDEX([1]Songs!$L:$L,MATCH(E317,[1]Songs!$E:$E,0))</f>
         <v>#N/A</v>
       </c>
-      <c r="L317" t="str">
+      <c r="K317" t="str">
         <f>IF(ISNUMBER(INDEX([1]Songs!$L:$L,MATCH(E317,[1]Songs!$E:$E,0))),"YES","")</f>
         <v/>
       </c>
     </row>
-    <row r="318" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="318" spans="5:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="E318" t="s">
         <v>316</v>
       </c>
       <c r="F318" t="s">
         <v>4</v>
       </c>
-      <c r="J318">
+      <c r="I318">
         <f>INDEX([1]Songs!$L:$L,MATCH(E318,[1]Songs!$E:$E,0))</f>
         <v>1406918</v>
       </c>
-      <c r="K318" t="s">
+      <c r="J318" t="s">
         <v>5</v>
       </c>
-      <c r="L318" t="str">
+      <c r="K318" t="str">
         <f>IF(ISNUMBER(INDEX([1]Songs!$L:$L,MATCH(E318,[1]Songs!$E:$E,0))),"YES","")</f>
         <v>YES</v>
       </c>
     </row>
-    <row r="319" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="319" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E319" t="s">
         <v>317</v>
       </c>
       <c r="F319" t="s">
         <v>4</v>
       </c>
-      <c r="J319" t="e">
+      <c r="I319" t="e">
         <f>INDEX([1]Songs!$L:$L,MATCH(E319,[1]Songs!$E:$E,0))</f>
         <v>#N/A</v>
       </c>
-      <c r="L319" t="str">
+      <c r="K319" t="str">
         <f>IF(ISNUMBER(INDEX([1]Songs!$L:$L,MATCH(E319,[1]Songs!$E:$E,0))),"YES","")</f>
         <v/>
       </c>
     </row>
-    <row r="320" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="320" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E320" t="s">
         <v>318</v>
       </c>
       <c r="F320" t="s">
         <v>4</v>
       </c>
-      <c r="J320" t="e">
+      <c r="I320" t="e">
         <f>INDEX([1]Songs!$L:$L,MATCH(E320,[1]Songs!$E:$E,0))</f>
         <v>#N/A</v>
       </c>
-      <c r="L320" t="str">
+      <c r="K320" t="str">
         <f>IF(ISNUMBER(INDEX([1]Songs!$L:$L,MATCH(E320,[1]Songs!$E:$E,0))),"YES","")</f>
         <v/>
       </c>
     </row>
-    <row r="321" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="321" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E321" t="s">
         <v>319</v>
       </c>
       <c r="F321" t="s">
         <v>4</v>
       </c>
-      <c r="J321" t="e">
+      <c r="I321" t="e">
         <f>INDEX([1]Songs!$L:$L,MATCH(E321,[1]Songs!$E:$E,0))</f>
         <v>#N/A</v>
       </c>
-      <c r="L321" t="str">
+      <c r="K321" t="str">
         <f>IF(ISNUMBER(INDEX([1]Songs!$L:$L,MATCH(E321,[1]Songs!$E:$E,0))),"YES","")</f>
         <v/>
       </c>
     </row>
-    <row r="322" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="322" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E322" t="s">
         <v>320</v>
       </c>
       <c r="F322" t="s">
         <v>4</v>
       </c>
-      <c r="J322" t="e">
+      <c r="I322" t="e">
         <f>INDEX([1]Songs!$L:$L,MATCH(E322,[1]Songs!$E:$E,0))</f>
         <v>#N/A</v>
       </c>
-      <c r="K322" t="s">
+      <c r="J322" t="s">
         <v>5</v>
       </c>
-      <c r="L322" t="str">
+      <c r="K322" t="str">
         <f>IF(ISNUMBER(INDEX([1]Songs!$L:$L,MATCH(E322,[1]Songs!$E:$E,0))),"YES","")</f>
         <v/>
       </c>
     </row>
-    <row r="323" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="323" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E323" t="s">
         <v>321</v>
       </c>
       <c r="F323" t="s">
         <v>4</v>
       </c>
-      <c r="J323" t="e">
+      <c r="I323" t="e">
         <f>INDEX([1]Songs!$L:$L,MATCH(E323,[1]Songs!$E:$E,0))</f>
         <v>#N/A</v>
       </c>
-      <c r="L323" t="str">
+      <c r="K323" t="str">
         <f>IF(ISNUMBER(INDEX([1]Songs!$L:$L,MATCH(E323,[1]Songs!$E:$E,0))),"YES","")</f>
         <v/>
       </c>
     </row>
-    <row r="324" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="324" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E324" t="s">
         <v>322</v>
       </c>
       <c r="F324" t="s">
         <v>4</v>
       </c>
-      <c r="J324" t="e">
+      <c r="I324" t="e">
         <f>INDEX([1]Songs!$L:$L,MATCH(E324,[1]Songs!$E:$E,0))</f>
         <v>#N/A</v>
       </c>
-      <c r="L324" t="str">
+      <c r="K324" t="str">
         <f>IF(ISNUMBER(INDEX([1]Songs!$L:$L,MATCH(E324,[1]Songs!$E:$E,0))),"YES","")</f>
         <v/>
       </c>
     </row>
-    <row r="325" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="325" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E325" t="s">
         <v>323</v>
       </c>
       <c r="F325" t="s">
         <v>4</v>
       </c>
-      <c r="J325" t="e">
+      <c r="I325" t="e">
         <f>INDEX([1]Songs!$L:$L,MATCH(E325,[1]Songs!$E:$E,0))</f>
         <v>#N/A</v>
       </c>
-      <c r="L325" t="str">
+      <c r="K325" t="str">
         <f>IF(ISNUMBER(INDEX([1]Songs!$L:$L,MATCH(E325,[1]Songs!$E:$E,0))),"YES","")</f>
         <v/>
       </c>
     </row>
-    <row r="326" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="326" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E326" t="s">
         <v>324</v>
       </c>
       <c r="F326" t="s">
         <v>4</v>
       </c>
-      <c r="J326" t="e">
+      <c r="I326" t="e">
         <f>INDEX([1]Songs!$L:$L,MATCH(E326,[1]Songs!$E:$E,0))</f>
         <v>#N/A</v>
       </c>
-      <c r="L326" t="str">
+      <c r="K326" t="str">
         <f>IF(ISNUMBER(INDEX([1]Songs!$L:$L,MATCH(E326,[1]Songs!$E:$E,0))),"YES","")</f>
         <v/>
       </c>
     </row>
-    <row r="327" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="327" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E327" t="s">
         <v>325</v>
       </c>
       <c r="F327" t="s">
         <v>4</v>
       </c>
-      <c r="J327" t="e">
+      <c r="I327" t="e">
         <f>INDEX([1]Songs!$L:$L,MATCH(E327,[1]Songs!$E:$E,0))</f>
         <v>#N/A</v>
       </c>
-      <c r="L327" t="str">
+      <c r="K327" t="str">
         <f>IF(ISNUMBER(INDEX([1]Songs!$L:$L,MATCH(E327,[1]Songs!$E:$E,0))),"YES","")</f>
         <v/>
       </c>
     </row>
-    <row r="328" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="328" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E328" t="s">
         <v>326</v>
       </c>
       <c r="F328" t="s">
         <v>4</v>
       </c>
-      <c r="J328" t="e">
+      <c r="I328" t="e">
         <f>INDEX([1]Songs!$L:$L,MATCH(E328,[1]Songs!$E:$E,0))</f>
         <v>#N/A</v>
       </c>
-      <c r="L328" t="str">
+      <c r="K328" t="str">
         <f>IF(ISNUMBER(INDEX([1]Songs!$L:$L,MATCH(E328,[1]Songs!$E:$E,0))),"YES","")</f>
         <v/>
       </c>
     </row>
-    <row r="329" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="329" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E329" t="s">
         <v>327</v>
       </c>
       <c r="F329" t="s">
         <v>4</v>
       </c>
-      <c r="J329" t="e">
+      <c r="I329" t="e">
         <f>INDEX([1]Songs!$L:$L,MATCH(E329,[1]Songs!$E:$E,0))</f>
         <v>#N/A</v>
       </c>
-      <c r="L329" t="str">
+      <c r="K329" t="str">
         <f>IF(ISNUMBER(INDEX([1]Songs!$L:$L,MATCH(E329,[1]Songs!$E:$E,0))),"YES","")</f>
         <v/>
       </c>
     </row>
-    <row r="330" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="330" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E330" t="s">
         <v>328</v>
       </c>
       <c r="F330" t="s">
         <v>4</v>
       </c>
-      <c r="J330" t="e">
+      <c r="I330" t="e">
         <f>INDEX([1]Songs!$L:$L,MATCH(E330,[1]Songs!$E:$E,0))</f>
         <v>#N/A</v>
       </c>
-      <c r="L330" t="str">
+      <c r="K330" t="str">
         <f>IF(ISNUMBER(INDEX([1]Songs!$L:$L,MATCH(E330,[1]Songs!$E:$E,0))),"YES","")</f>
         <v/>
       </c>
     </row>
-    <row r="331" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="331" spans="5:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="E331" t="s">
         <v>329</v>
       </c>
       <c r="F331" t="s">
         <v>4</v>
       </c>
-      <c r="J331">
+      <c r="I331">
         <f>INDEX([1]Songs!$L:$L,MATCH(E331,[1]Songs!$E:$E,0))</f>
         <v>4615235</v>
       </c>
-      <c r="L331" t="str">
+      <c r="K331" t="str">
         <f>IF(ISNUMBER(INDEX([1]Songs!$L:$L,MATCH(E331,[1]Songs!$E:$E,0))),"YES","")</f>
         <v>YES</v>
       </c>
     </row>
-    <row r="332" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="332" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E332" t="s">
         <v>330</v>
       </c>
       <c r="F332" t="s">
         <v>4</v>
       </c>
-      <c r="J332" t="e">
+      <c r="I332" t="e">
         <f>INDEX([1]Songs!$L:$L,MATCH(E332,[1]Songs!$E:$E,0))</f>
         <v>#N/A</v>
       </c>
-      <c r="L332" t="str">
+      <c r="K332" t="str">
         <f>IF(ISNUMBER(INDEX([1]Songs!$L:$L,MATCH(E332,[1]Songs!$E:$E,0))),"YES","")</f>
         <v/>
       </c>
     </row>
-    <row r="333" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="333" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E333" t="s">
         <v>331</v>
       </c>
       <c r="F333" t="s">
         <v>4</v>
       </c>
-      <c r="J333" t="e">
+      <c r="I333" t="e">
         <f>INDEX([1]Songs!$L:$L,MATCH(E333,[1]Songs!$E:$E,0))</f>
         <v>#N/A</v>
       </c>
-      <c r="L333" t="str">
+      <c r="K333" t="str">
         <f>IF(ISNUMBER(INDEX([1]Songs!$L:$L,MATCH(E333,[1]Songs!$E:$E,0))),"YES","")</f>
         <v/>
       </c>
     </row>
-    <row r="334" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="334" spans="5:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="E334" t="s">
         <v>332</v>
       </c>
       <c r="F334" t="s">
         <v>4</v>
       </c>
-      <c r="J334">
+      <c r="I334">
         <f>INDEX([1]Songs!$L:$L,MATCH(E334,[1]Songs!$E:$E,0))</f>
         <v>4705248</v>
       </c>
-      <c r="K334" t="s">
+      <c r="J334" t="s">
         <v>15</v>
       </c>
-      <c r="L334" t="str">
+      <c r="K334" t="str">
         <f>IF(ISNUMBER(INDEX([1]Songs!$L:$L,MATCH(E334,[1]Songs!$E:$E,0))),"YES","")</f>
         <v>YES</v>
       </c>
     </row>
-    <row r="335" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="335" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E335" t="s">
         <v>333</v>
       </c>
       <c r="F335" t="s">
         <v>4</v>
       </c>
-      <c r="J335" t="e">
+      <c r="I335" t="e">
         <f>INDEX([1]Songs!$L:$L,MATCH(E335,[1]Songs!$E:$E,0))</f>
         <v>#N/A</v>
       </c>
-      <c r="L335" t="str">
+      <c r="K335" t="str">
         <f>IF(ISNUMBER(INDEX([1]Songs!$L:$L,MATCH(E335,[1]Songs!$E:$E,0))),"YES","")</f>
         <v/>
       </c>
     </row>
-    <row r="336" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="336" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E336" t="s">
         <v>334</v>
       </c>
       <c r="F336" t="s">
         <v>4</v>
       </c>
-      <c r="J336" t="e">
+      <c r="I336" t="e">
         <f>INDEX([1]Songs!$L:$L,MATCH(E336,[1]Songs!$E:$E,0))</f>
         <v>#N/A</v>
       </c>
-      <c r="L336" t="str">
+      <c r="K336" t="str">
         <f>IF(ISNUMBER(INDEX([1]Songs!$L:$L,MATCH(E336,[1]Songs!$E:$E,0))),"YES","")</f>
         <v/>
       </c>
     </row>
-    <row r="337" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="337" spans="5:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="E337" t="s">
         <v>335</v>
       </c>
       <c r="F337" t="s">
         <v>4</v>
       </c>
-      <c r="J337">
+      <c r="I337">
         <f>INDEX([1]Songs!$L:$L,MATCH(E337,[1]Songs!$E:$E,0))</f>
         <v>5060810</v>
       </c>
-      <c r="K337" t="s">
+      <c r="J337" t="s">
         <v>15</v>
       </c>
-      <c r="L337" t="str">
+      <c r="K337" t="str">
         <f>IF(ISNUMBER(INDEX([1]Songs!$L:$L,MATCH(E337,[1]Songs!$E:$E,0))),"YES","")</f>
         <v>YES</v>
       </c>
     </row>
-    <row r="338" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="338" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E338" t="s">
         <v>336</v>
       </c>
       <c r="F338" t="s">
         <v>4</v>
       </c>
-      <c r="J338" t="e">
+      <c r="I338" t="e">
         <f>INDEX([1]Songs!$L:$L,MATCH(E338,[1]Songs!$E:$E,0))</f>
         <v>#N/A</v>
       </c>
-      <c r="L338" t="str">
+      <c r="K338" t="str">
         <f>IF(ISNUMBER(INDEX([1]Songs!$L:$L,MATCH(E338,[1]Songs!$E:$E,0))),"YES","")</f>
         <v/>
       </c>
     </row>
-    <row r="339" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="339" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E339" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="F339" t="s">
         <v>4</v>
       </c>
-      <c r="J339" t="e">
+      <c r="I339" t="e">
         <f>INDEX([1]Songs!$L:$L,MATCH(E339,[1]Songs!$E:$E,0))</f>
         <v>#N/A</v>
       </c>
-      <c r="L339" t="str">
+      <c r="K339" t="str">
         <f>IF(ISNUMBER(INDEX([1]Songs!$L:$L,MATCH(E339,[1]Songs!$E:$E,0))),"YES","")</f>
         <v/>
       </c>
     </row>
-    <row r="340" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="340" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E340" t="s">
         <v>337</v>
       </c>
       <c r="F340" t="s">
         <v>4</v>
       </c>
-      <c r="J340" t="e">
+      <c r="I340" t="e">
         <f>INDEX([1]Songs!$L:$L,MATCH(E340,[1]Songs!$E:$E,0))</f>
         <v>#N/A</v>
       </c>
-      <c r="L340" t="str">
+      <c r="K340" t="str">
         <f>IF(ISNUMBER(INDEX([1]Songs!$L:$L,MATCH(E340,[1]Songs!$E:$E,0))),"YES","")</f>
         <v/>
       </c>
     </row>
-    <row r="341" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="341" spans="5:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="E341" t="s">
         <v>338</v>
       </c>
       <c r="F341" t="s">
         <v>4</v>
       </c>
-      <c r="J341">
+      <c r="I341">
         <f>INDEX([1]Songs!$L:$L,MATCH(E341,[1]Songs!$E:$E,0))</f>
         <v>4514635</v>
       </c>
-      <c r="L341" t="str">
+      <c r="K341" t="str">
         <f>IF(ISNUMBER(INDEX([1]Songs!$L:$L,MATCH(E341,[1]Songs!$E:$E,0))),"YES","")</f>
         <v>YES</v>
       </c>
     </row>
-    <row r="342" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="342" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E342" t="s">
         <v>339</v>
       </c>
       <c r="F342" t="s">
         <v>340</v>
       </c>
-      <c r="J342" t="e">
+      <c r="I342" t="e">
         <f>INDEX([1]Songs!$L:$L,MATCH(E342,[1]Songs!$E:$E,0))</f>
         <v>#N/A</v>
       </c>
-      <c r="L342" t="str">
+      <c r="K342" t="str">
         <f>IF(ISNUMBER(INDEX([1]Songs!$L:$L,MATCH(E342,[1]Songs!$E:$E,0))),"YES","")</f>
         <v/>
       </c>
     </row>
-    <row r="343" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="343" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E343" t="s">
         <v>341</v>
       </c>
       <c r="F343" t="s">
         <v>4</v>
       </c>
-      <c r="J343" t="e">
+      <c r="I343" t="e">
         <f>INDEX([1]Songs!$L:$L,MATCH(E343,[1]Songs!$E:$E,0))</f>
         <v>#N/A</v>
       </c>
-      <c r="L343" t="str">
+      <c r="K343" t="str">
         <f>IF(ISNUMBER(INDEX([1]Songs!$L:$L,MATCH(E343,[1]Songs!$E:$E,0))),"YES","")</f>
         <v/>
       </c>
     </row>
-    <row r="344" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="344" spans="5:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="E344" t="s">
         <v>342</v>
       </c>
       <c r="F344" t="s">
         <v>343</v>
       </c>
-      <c r="J344">
+      <c r="I344">
         <f>INDEX([1]Songs!$L:$L,MATCH(E344,[1]Songs!$E:$E,0))</f>
         <v>6016351</v>
       </c>
-      <c r="K344" t="s">
+      <c r="J344" t="s">
         <v>15</v>
       </c>
-      <c r="L344" t="str">
+      <c r="K344" t="str">
         <f>IF(ISNUMBER(INDEX([1]Songs!$L:$L,MATCH(E344,[1]Songs!$E:$E,0))),"YES","")</f>
         <v>YES</v>
       </c>
     </row>
-    <row r="345" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="345" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E345" t="s">
         <v>344</v>
       </c>
       <c r="F345" t="s">
         <v>4</v>
       </c>
-      <c r="J345" t="e">
+      <c r="I345" t="e">
         <f>INDEX([1]Songs!$L:$L,MATCH(E345,[1]Songs!$E:$E,0))</f>
         <v>#N/A</v>
       </c>
-      <c r="L345" t="str">
+      <c r="K345" t="str">
         <f>IF(ISNUMBER(INDEX([1]Songs!$L:$L,MATCH(E345,[1]Songs!$E:$E,0))),"YES","")</f>
         <v/>
       </c>
     </row>
-    <row r="346" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="346" spans="5:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="E346" t="s">
         <v>345</v>
       </c>
       <c r="F346" t="s">
         <v>4</v>
       </c>
-      <c r="J346">
+      <c r="I346">
         <f>INDEX([1]Songs!$L:$L,MATCH(E346,[1]Songs!$E:$E,0))</f>
         <v>11483</v>
       </c>
-      <c r="K346" t="s">
+      <c r="J346" t="s">
         <v>5</v>
       </c>
-      <c r="L346" t="str">
+      <c r="K346" t="str">
         <f>IF(ISNUMBER(INDEX([1]Songs!$L:$L,MATCH(E346,[1]Songs!$E:$E,0))),"YES","")</f>
         <v>YES</v>
       </c>
     </row>
-    <row r="347" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="347" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E347" t="s">
         <v>346</v>
       </c>
       <c r="F347" t="s">
         <v>4</v>
       </c>
-      <c r="J347" t="e">
+      <c r="I347" t="e">
         <f>INDEX([1]Songs!$L:$L,MATCH(E347,[1]Songs!$E:$E,0))</f>
         <v>#N/A</v>
       </c>
-      <c r="L347" t="str">
+      <c r="K347" t="str">
         <f>IF(ISNUMBER(INDEX([1]Songs!$L:$L,MATCH(E347,[1]Songs!$E:$E,0))),"YES","")</f>
         <v/>
       </c>
     </row>
-    <row r="348" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="348" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E348" t="s">
         <v>347</v>
       </c>
       <c r="F348" t="s">
         <v>4</v>
       </c>
-      <c r="J348" t="e">
+      <c r="I348" t="e">
         <f>INDEX([1]Songs!$L:$L,MATCH(E348,[1]Songs!$E:$E,0))</f>
         <v>#N/A</v>
       </c>
-      <c r="L348" t="str">
+      <c r="K348" t="str">
         <f>IF(ISNUMBER(INDEX([1]Songs!$L:$L,MATCH(E348,[1]Songs!$E:$E,0))),"YES","")</f>
         <v/>
       </c>
     </row>
-    <row r="349" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="349" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E349" t="s">
         <v>348</v>
       </c>
       <c r="F349" t="s">
         <v>4</v>
       </c>
-      <c r="J349" t="e">
+      <c r="I349" t="e">
         <f>INDEX([1]Songs!$L:$L,MATCH(E349,[1]Songs!$E:$E,0))</f>
         <v>#N/A</v>
       </c>
-      <c r="L349" t="str">
+      <c r="K349" t="str">
         <f>IF(ISNUMBER(INDEX([1]Songs!$L:$L,MATCH(E349,[1]Songs!$E:$E,0))),"YES","")</f>
         <v/>
       </c>
     </row>
-    <row r="350" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="350" spans="5:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="E350" t="s">
         <v>349</v>
       </c>
       <c r="F350" t="s">
         <v>350</v>
       </c>
-      <c r="J350">
+      <c r="I350">
         <f>INDEX([1]Songs!$L:$L,MATCH(E350,[1]Songs!$E:$E,0))</f>
         <v>7018338</v>
       </c>
-      <c r="K350" t="s">
+      <c r="J350" t="s">
         <v>15</v>
       </c>
-      <c r="L350" t="str">
+      <c r="K350" t="str">
         <f>IF(ISNUMBER(INDEX([1]Songs!$L:$L,MATCH(E350,[1]Songs!$E:$E,0))),"YES","")</f>
         <v>YES</v>
       </c>
     </row>
-    <row r="351" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="351" spans="5:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="E351" t="s">
         <v>351</v>
       </c>
       <c r="F351" t="s">
         <v>4</v>
       </c>
-      <c r="J351">
+      <c r="I351">
         <f>INDEX([1]Songs!$L:$L,MATCH(E351,[1]Songs!$E:$E,0))</f>
         <v>6333821</v>
       </c>
-      <c r="K351" t="s">
+      <c r="J351" t="s">
         <v>15</v>
       </c>
-      <c r="L351" t="str">
+      <c r="K351" t="str">
         <f>IF(ISNUMBER(INDEX([1]Songs!$L:$L,MATCH(E351,[1]Songs!$E:$E,0))),"YES","")</f>
         <v>YES</v>
       </c>
     </row>
-    <row r="352" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="352" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E352" t="s">
         <v>352</v>
       </c>
       <c r="F352" t="s">
         <v>4</v>
       </c>
-      <c r="J352" t="e">
+      <c r="I352" t="e">
         <f>INDEX([1]Songs!$L:$L,MATCH(E352,[1]Songs!$E:$E,0))</f>
         <v>#N/A</v>
       </c>
-      <c r="L352" t="str">
+      <c r="K352" t="str">
         <f>IF(ISNUMBER(INDEX([1]Songs!$L:$L,MATCH(E352,[1]Songs!$E:$E,0))),"YES","")</f>
         <v/>
       </c>
     </row>
-    <row r="353" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="353" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E353" t="s">
         <v>353</v>
       </c>
       <c r="F353" t="s">
         <v>4</v>
       </c>
-      <c r="J353" t="e">
+      <c r="I353" t="e">
         <f>INDEX([1]Songs!$L:$L,MATCH(E353,[1]Songs!$E:$E,0))</f>
         <v>#N/A</v>
       </c>
-      <c r="L353" t="str">
+      <c r="K353" t="str">
         <f>IF(ISNUMBER(INDEX([1]Songs!$L:$L,MATCH(E353,[1]Songs!$E:$E,0))),"YES","")</f>
         <v/>
       </c>
     </row>
-    <row r="354" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="354" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E354" t="s">
         <v>354</v>
       </c>
       <c r="F354" t="s">
         <v>4</v>
       </c>
-      <c r="J354" t="e">
+      <c r="I354" t="e">
         <f>INDEX([1]Songs!$L:$L,MATCH(E354,[1]Songs!$E:$E,0))</f>
         <v>#N/A</v>
       </c>
-      <c r="L354" t="str">
+      <c r="K354" t="str">
         <f>IF(ISNUMBER(INDEX([1]Songs!$L:$L,MATCH(E354,[1]Songs!$E:$E,0))),"YES","")</f>
         <v/>
       </c>
     </row>
-    <row r="355" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="355" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E355" t="s">
         <v>355</v>
       </c>
       <c r="F355" t="s">
         <v>4</v>
       </c>
-      <c r="J355" t="e">
+      <c r="I355" t="e">
         <f>INDEX([1]Songs!$L:$L,MATCH(E355,[1]Songs!$E:$E,0))</f>
         <v>#N/A</v>
       </c>
-      <c r="L355" t="str">
+      <c r="K355" t="str">
         <f>IF(ISNUMBER(INDEX([1]Songs!$L:$L,MATCH(E355,[1]Songs!$E:$E,0))),"YES","")</f>
         <v/>
       </c>
     </row>
-    <row r="356" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="356" spans="5:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="E356" t="s">
         <v>356</v>
       </c>
       <c r="F356" t="s">
         <v>4</v>
       </c>
-      <c r="J356">
+      <c r="I356">
         <f>INDEX([1]Songs!$L:$L,MATCH(E356,[1]Songs!$E:$E,0))</f>
         <v>5200924</v>
       </c>
-      <c r="L356" t="str">
+      <c r="K356" t="str">
         <f>IF(ISNUMBER(INDEX([1]Songs!$L:$L,MATCH(E356,[1]Songs!$E:$E,0))),"YES","")</f>
         <v>YES</v>
       </c>
     </row>
-    <row r="357" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="357" spans="5:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="E357" t="s">
         <v>357</v>
       </c>
       <c r="F357" t="s">
         <v>4</v>
       </c>
-      <c r="J357">
+      <c r="I357">
         <f>INDEX([1]Songs!$L:$L,MATCH(E357,[1]Songs!$E:$E,0))</f>
         <v>7033417</v>
       </c>
-      <c r="L357" t="str">
+      <c r="K357" t="str">
         <f>IF(ISNUMBER(INDEX([1]Songs!$L:$L,MATCH(E357,[1]Songs!$E:$E,0))),"YES","")</f>
         <v>YES</v>
       </c>
     </row>
-    <row r="358" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="358" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E358" t="s">
         <v>358</v>
       </c>
       <c r="F358" t="s">
         <v>4</v>
       </c>
-      <c r="J358" t="e">
+      <c r="I358" t="e">
         <f>INDEX([1]Songs!$L:$L,MATCH(E358,[1]Songs!$E:$E,0))</f>
         <v>#N/A</v>
       </c>
-      <c r="K358" t="s">
+      <c r="J358" t="s">
         <v>5</v>
       </c>
-      <c r="L358" t="str">
+      <c r="K358" t="str">
         <f>IF(ISNUMBER(INDEX([1]Songs!$L:$L,MATCH(E358,[1]Songs!$E:$E,0))),"YES","")</f>
         <v/>
       </c>
     </row>
-    <row r="359" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="359" spans="5:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="E359" t="s">
         <v>359</v>
       </c>
       <c r="F359" t="s">
         <v>4</v>
       </c>
-      <c r="J359">
+      <c r="I359">
         <f>INDEX([1]Songs!$L:$L,MATCH(E359,[1]Songs!$E:$E,0))</f>
         <v>15960</v>
       </c>
-      <c r="L359" t="str">
+      <c r="K359" t="str">
         <f>IF(ISNUMBER(INDEX([1]Songs!$L:$L,MATCH(E359,[1]Songs!$E:$E,0))),"YES","")</f>
         <v>YES</v>
       </c>
     </row>
-    <row r="360" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="360" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E360" t="s">
         <v>360</v>
       </c>
       <c r="F360" t="s">
         <v>4</v>
       </c>
-      <c r="J360" t="e">
+      <c r="I360" t="e">
         <f>INDEX([1]Songs!$L:$L,MATCH(E360,[1]Songs!$E:$E,0))</f>
         <v>#N/A</v>
       </c>
-      <c r="L360" t="str">
+      <c r="K360" t="str">
         <f>IF(ISNUMBER(INDEX([1]Songs!$L:$L,MATCH(E360,[1]Songs!$E:$E,0))),"YES","")</f>
         <v/>
       </c>
     </row>
-    <row r="361" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="361" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E361" t="s">
         <v>361</v>
       </c>
       <c r="F361" t="s">
         <v>4</v>
       </c>
-      <c r="J361" t="e">
+      <c r="I361" t="e">
         <f>INDEX([1]Songs!$L:$L,MATCH(E361,[1]Songs!$E:$E,0))</f>
         <v>#N/A</v>
       </c>
-      <c r="L361" t="str">
+      <c r="K361" t="str">
         <f>IF(ISNUMBER(INDEX([1]Songs!$L:$L,MATCH(E361,[1]Songs!$E:$E,0))),"YES","")</f>
         <v/>
       </c>
     </row>
-    <row r="362" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="362" spans="5:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="E362" t="s">
         <v>362</v>
       </c>
       <c r="F362" t="s">
         <v>4</v>
       </c>
-      <c r="J362">
+      <c r="I362">
         <f>INDEX([1]Songs!$L:$L,MATCH(E362,[1]Songs!$E:$E,0))</f>
         <v>7011436</v>
       </c>
-      <c r="L362" t="str">
+      <c r="K362" t="str">
         <f>IF(ISNUMBER(INDEX([1]Songs!$L:$L,MATCH(E362,[1]Songs!$E:$E,0))),"YES","")</f>
         <v>YES</v>
       </c>
     </row>
-    <row r="363" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="363" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E363" t="s">
         <v>363</v>
       </c>
       <c r="F363" t="s">
         <v>4</v>
       </c>
-      <c r="J363" t="e">
+      <c r="I363" t="e">
         <f>INDEX([1]Songs!$L:$L,MATCH(E363,[1]Songs!$E:$E,0))</f>
         <v>#N/A</v>
       </c>
-      <c r="L363" t="str">
+      <c r="K363" t="str">
         <f>IF(ISNUMBER(INDEX([1]Songs!$L:$L,MATCH(E363,[1]Songs!$E:$E,0))),"YES","")</f>
         <v/>
       </c>
     </row>
-    <row r="364" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="364" spans="5:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="E364" t="s">
         <v>364</v>
       </c>
       <c r="F364" t="s">
         <v>4</v>
       </c>
-      <c r="J364">
+      <c r="I364">
         <f>INDEX([1]Songs!$L:$L,MATCH(E364,[1]Songs!$E:$E,0))</f>
         <v>1259</v>
       </c>
-      <c r="K364" t="s">
+      <c r="J364" t="s">
         <v>27</v>
       </c>
-      <c r="L364" t="str">
+      <c r="K364" t="str">
         <f>IF(ISNUMBER(INDEX([1]Songs!$L:$L,MATCH(E364,[1]Songs!$E:$E,0))),"YES","")</f>
         <v>YES</v>
       </c>
     </row>
-    <row r="365" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="365" spans="5:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="E365" t="s">
         <v>365</v>
       </c>
       <c r="F365" t="s">
         <v>4</v>
       </c>
-      <c r="J365">
+      <c r="I365">
         <f>INDEX([1]Songs!$L:$L,MATCH(E365,[1]Songs!$E:$E,0))</f>
         <v>5925663</v>
       </c>
-      <c r="L365" t="str">
+      <c r="K365" t="str">
         <f>IF(ISNUMBER(INDEX([1]Songs!$L:$L,MATCH(E365,[1]Songs!$E:$E,0))),"YES","")</f>
         <v>YES</v>
       </c>
     </row>
-    <row r="366" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="366" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E366" t="s">
         <v>366</v>
       </c>
       <c r="F366" t="s">
         <v>4</v>
       </c>
-      <c r="J366" t="e">
+      <c r="I366" t="e">
         <f>INDEX([1]Songs!$L:$L,MATCH(E366,[1]Songs!$E:$E,0))</f>
         <v>#N/A</v>
       </c>
-      <c r="L366" t="str">
+      <c r="K366" t="str">
         <f>IF(ISNUMBER(INDEX([1]Songs!$L:$L,MATCH(E366,[1]Songs!$E:$E,0))),"YES","")</f>
         <v/>
       </c>
     </row>
-    <row r="367" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="367" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E367" t="s">
         <v>367</v>
       </c>
       <c r="F367" t="s">
         <v>4</v>
       </c>
-      <c r="J367" t="e">
+      <c r="I367" t="e">
         <f>INDEX([1]Songs!$L:$L,MATCH(E367,[1]Songs!$E:$E,0))</f>
         <v>#N/A</v>
       </c>
-      <c r="L367" t="str">
+      <c r="K367" t="str">
         <f>IF(ISNUMBER(INDEX([1]Songs!$L:$L,MATCH(E367,[1]Songs!$E:$E,0))),"YES","")</f>
         <v/>
       </c>
     </row>
-    <row r="368" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="368" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E368" t="s">
         <v>368</v>
       </c>
       <c r="F368" t="s">
         <v>4</v>
       </c>
-      <c r="J368" t="e">
+      <c r="I368" t="e">
         <f>INDEX([1]Songs!$L:$L,MATCH(E368,[1]Songs!$E:$E,0))</f>
         <v>#N/A</v>
       </c>
-      <c r="L368" t="str">
+      <c r="K368" t="str">
         <f>IF(ISNUMBER(INDEX([1]Songs!$L:$L,MATCH(E368,[1]Songs!$E:$E,0))),"YES","")</f>
         <v/>
       </c>
     </row>
-    <row r="369" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="369" spans="5:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="E369" t="s">
         <v>369</v>
       </c>
       <c r="F369" t="s">
         <v>4</v>
       </c>
-      <c r="J369">
+      <c r="I369">
         <f>INDEX([1]Songs!$L:$L,MATCH(E369,[1]Songs!$E:$E,0))</f>
         <v>6367165</v>
       </c>
-      <c r="K369" t="s">
+      <c r="J369" t="s">
         <v>15</v>
       </c>
-      <c r="L369" t="str">
+      <c r="K369" t="str">
         <f>IF(ISNUMBER(INDEX([1]Songs!$L:$L,MATCH(E369,[1]Songs!$E:$E,0))),"YES","")</f>
         <v>YES</v>
       </c>
     </row>
-    <row r="370" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="370" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E370" t="s">
         <v>370</v>
       </c>
       <c r="F370" t="s">
         <v>4</v>
       </c>
-      <c r="J370" t="e">
+      <c r="I370" t="e">
         <f>INDEX([1]Songs!$L:$L,MATCH(E370,[1]Songs!$E:$E,0))</f>
         <v>#N/A</v>
       </c>
-      <c r="L370" t="str">
+      <c r="K370" t="str">
         <f>IF(ISNUMBER(INDEX([1]Songs!$L:$L,MATCH(E370,[1]Songs!$E:$E,0))),"YES","")</f>
         <v/>
       </c>
     </row>
-    <row r="371" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="371" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E371" t="s">
         <v>371</v>
       </c>
       <c r="F371" t="s">
         <v>4</v>
       </c>
-      <c r="J371" t="e">
+      <c r="I371" t="e">
         <f>INDEX([1]Songs!$L:$L,MATCH(E371,[1]Songs!$E:$E,0))</f>
         <v>#N/A</v>
       </c>
-      <c r="L371" t="str">
+      <c r="K371" t="str">
         <f>IF(ISNUMBER(INDEX([1]Songs!$L:$L,MATCH(E371,[1]Songs!$E:$E,0))),"YES","")</f>
         <v/>
       </c>
     </row>
-    <row r="372" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="372" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E372" t="s">
         <v>372</v>
       </c>
       <c r="F372" t="s">
         <v>4</v>
       </c>
-      <c r="J372" t="e">
+      <c r="I372" t="e">
         <f>INDEX([1]Songs!$L:$L,MATCH(E372,[1]Songs!$E:$E,0))</f>
         <v>#N/A</v>
       </c>
-      <c r="L372" t="str">
+      <c r="K372" t="str">
         <f>IF(ISNUMBER(INDEX([1]Songs!$L:$L,MATCH(E372,[1]Songs!$E:$E,0))),"YES","")</f>
         <v/>
       </c>
     </row>
-    <row r="373" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="373" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E373" t="s">
         <v>373</v>
       </c>
       <c r="F373" t="s">
         <v>4</v>
       </c>
-      <c r="J373" t="e">
+      <c r="I373" t="e">
         <f>INDEX([1]Songs!$L:$L,MATCH(E373,[1]Songs!$E:$E,0))</f>
         <v>#N/A</v>
       </c>
-      <c r="L373" t="str">
+      <c r="K373" t="str">
         <f>IF(ISNUMBER(INDEX([1]Songs!$L:$L,MATCH(E373,[1]Songs!$E:$E,0))),"YES","")</f>
         <v/>
       </c>
     </row>
-    <row r="374" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="374" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E374" t="s">
         <v>374</v>
       </c>
       <c r="F374" t="s">
         <v>4</v>
       </c>
-      <c r="J374" t="e">
+      <c r="I374" t="e">
         <f>INDEX([1]Songs!$L:$L,MATCH(E374,[1]Songs!$E:$E,0))</f>
         <v>#N/A</v>
       </c>
-      <c r="L374" t="str">
+      <c r="K374" t="str">
         <f>IF(ISNUMBER(INDEX([1]Songs!$L:$L,MATCH(E374,[1]Songs!$E:$E,0))),"YES","")</f>
         <v/>
       </c>
     </row>
-    <row r="375" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="375" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E375" t="s">
         <v>375</v>
       </c>
       <c r="F375" t="s">
         <v>4</v>
       </c>
-      <c r="J375" t="e">
+      <c r="I375" t="e">
         <f>INDEX([1]Songs!$L:$L,MATCH(E375,[1]Songs!$E:$E,0))</f>
         <v>#N/A</v>
       </c>
-      <c r="L375" t="str">
+      <c r="K375" t="str">
         <f>IF(ISNUMBER(INDEX([1]Songs!$L:$L,MATCH(E375,[1]Songs!$E:$E,0))),"YES","")</f>
         <v/>
       </c>
     </row>
-    <row r="376" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="376" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E376" t="s">
         <v>376</v>
       </c>
       <c r="F376" t="s">
         <v>4</v>
       </c>
-      <c r="J376" t="e">
+      <c r="I376" t="e">
         <f>INDEX([1]Songs!$L:$L,MATCH(E376,[1]Songs!$E:$E,0))</f>
         <v>#N/A</v>
       </c>
-      <c r="L376" t="str">
+      <c r="K376" t="str">
         <f>IF(ISNUMBER(INDEX([1]Songs!$L:$L,MATCH(E376,[1]Songs!$E:$E,0))),"YES","")</f>
         <v/>
       </c>
     </row>
-    <row r="377" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="377" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E377" t="s">
         <v>377</v>
       </c>
       <c r="F377" t="s">
         <v>4</v>
       </c>
-      <c r="J377" t="e">
+      <c r="I377" t="e">
         <f>INDEX([1]Songs!$L:$L,MATCH(E377,[1]Songs!$E:$E,0))</f>
         <v>#N/A</v>
       </c>
-      <c r="L377" t="str">
+      <c r="K377" t="str">
         <f>IF(ISNUMBER(INDEX([1]Songs!$L:$L,MATCH(E377,[1]Songs!$E:$E,0))),"YES","")</f>
         <v/>
       </c>
     </row>
-    <row r="378" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="378" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E378" t="s">
         <v>378</v>
       </c>
       <c r="F378" t="s">
         <v>4</v>
       </c>
-      <c r="J378" t="e">
+      <c r="I378" t="e">
         <f>INDEX([1]Songs!$L:$L,MATCH(E378,[1]Songs!$E:$E,0))</f>
         <v>#N/A</v>
       </c>
-      <c r="L378" t="str">
+      <c r="K378" t="str">
         <f>IF(ISNUMBER(INDEX([1]Songs!$L:$L,MATCH(E378,[1]Songs!$E:$E,0))),"YES","")</f>
         <v/>
       </c>
     </row>
-    <row r="379" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="379" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E379" t="s">
         <v>379</v>
       </c>
       <c r="F379" t="s">
         <v>4</v>
       </c>
-      <c r="J379" t="e">
+      <c r="I379" t="e">
         <f>INDEX([1]Songs!$L:$L,MATCH(E379,[1]Songs!$E:$E,0))</f>
         <v>#N/A</v>
       </c>
-      <c r="L379" t="str">
+      <c r="K379" t="str">
         <f>IF(ISNUMBER(INDEX([1]Songs!$L:$L,MATCH(E379,[1]Songs!$E:$E,0))),"YES","")</f>
         <v/>
       </c>
     </row>
-    <row r="380" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="380" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E380" t="s">
         <v>380</v>
       </c>
       <c r="F380" t="s">
         <v>4</v>
       </c>
-      <c r="J380" t="e">
+      <c r="I380" t="e">
         <f>INDEX([1]Songs!$L:$L,MATCH(E380,[1]Songs!$E:$E,0))</f>
         <v>#N/A</v>
       </c>
-      <c r="L380" t="str">
+      <c r="K380" t="str">
         <f>IF(ISNUMBER(INDEX([1]Songs!$L:$L,MATCH(E380,[1]Songs!$E:$E,0))),"YES","")</f>
         <v/>
       </c>
     </row>
-    <row r="381" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="381" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E381" t="s">
         <v>381</v>
       </c>
       <c r="F381" t="s">
         <v>4</v>
       </c>
-      <c r="J381" t="e">
+      <c r="I381" t="e">
         <f>INDEX([1]Songs!$L:$L,MATCH(E381,[1]Songs!$E:$E,0))</f>
         <v>#N/A</v>
       </c>
-      <c r="L381" t="str">
+      <c r="K381" t="str">
         <f>IF(ISNUMBER(INDEX([1]Songs!$L:$L,MATCH(E381,[1]Songs!$E:$E,0))),"YES","")</f>
         <v/>
       </c>
     </row>
-    <row r="382" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="382" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E382" t="s">
         <v>382</v>
       </c>
       <c r="F382" t="s">
         <v>4</v>
       </c>
-      <c r="J382" t="e">
+      <c r="I382" t="e">
         <f>INDEX([1]Songs!$L:$L,MATCH(E382,[1]Songs!$E:$E,0))</f>
         <v>#N/A</v>
       </c>
-      <c r="L382" t="str">
+      <c r="K382" t="str">
         <f>IF(ISNUMBER(INDEX([1]Songs!$L:$L,MATCH(E382,[1]Songs!$E:$E,0))),"YES","")</f>
         <v/>
       </c>
     </row>
-    <row r="383" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="383" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E383" t="s">
         <v>383</v>
       </c>
       <c r="F383" t="s">
         <v>4</v>
       </c>
-      <c r="J383" t="e">
+      <c r="I383" t="e">
         <f>INDEX([1]Songs!$L:$L,MATCH(E383,[1]Songs!$E:$E,0))</f>
         <v>#N/A</v>
       </c>
-      <c r="L383" t="str">
+      <c r="K383" t="str">
         <f>IF(ISNUMBER(INDEX([1]Songs!$L:$L,MATCH(E383,[1]Songs!$E:$E,0))),"YES","")</f>
         <v/>
       </c>
     </row>
-    <row r="384" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="384" spans="5:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="E384" t="s">
         <v>384</v>
       </c>
       <c r="F384" t="s">
         <v>385</v>
       </c>
-      <c r="J384">
+      <c r="I384">
         <f>INDEX([1]Songs!$L:$L,MATCH(E384,[1]Songs!$E:$E,0))</f>
         <v>6440288</v>
       </c>
-      <c r="K384" t="s">
+      <c r="J384" t="s">
         <v>15</v>
       </c>
-      <c r="L384" t="str">
+      <c r="K384" t="str">
         <f>IF(ISNUMBER(INDEX([1]Songs!$L:$L,MATCH(E384,[1]Songs!$E:$E,0))),"YES","")</f>
         <v>YES</v>
       </c>
     </row>
-    <row r="385" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="385" spans="5:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="E385" t="s">
         <v>386</v>
       </c>
       <c r="F385" t="s">
         <v>4</v>
       </c>
-      <c r="J385">
+      <c r="I385">
         <f>INDEX([1]Songs!$L:$L,MATCH(E385,[1]Songs!$E:$E,0))</f>
         <v>3148435</v>
       </c>
-      <c r="K385" t="s">
+      <c r="J385" t="s">
         <v>27</v>
       </c>
-      <c r="L385" t="str">
+      <c r="K385" t="str">
         <f>IF(ISNUMBER(INDEX([1]Songs!$L:$L,MATCH(E385,[1]Songs!$E:$E,0))),"YES","")</f>
         <v>YES</v>
       </c>
     </row>
-    <row r="386" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="386" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E386" t="s">
         <v>387</v>
       </c>
       <c r="F386" t="s">
         <v>4</v>
       </c>
-      <c r="J386" t="e">
+      <c r="I386" t="e">
         <f>INDEX([1]Songs!$L:$L,MATCH(E386,[1]Songs!$E:$E,0))</f>
         <v>#N/A</v>
       </c>
-      <c r="L386" t="str">
+      <c r="K386" t="str">
         <f>IF(ISNUMBER(INDEX([1]Songs!$L:$L,MATCH(E386,[1]Songs!$E:$E,0))),"YES","")</f>
         <v/>
       </c>
     </row>
-    <row r="387" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="387" spans="5:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="E387" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="F387" t="s">
         <v>4</v>
       </c>
-      <c r="J387">
+      <c r="I387">
         <f>INDEX([1]Songs!$L:$L,MATCH(E387,[1]Songs!$E:$E,0))</f>
         <v>106879</v>
       </c>
-      <c r="K387" t="s">
+      <c r="J387" t="s">
         <v>27</v>
       </c>
-      <c r="L387" t="str">
+      <c r="K387" t="str">
         <f>IF(ISNUMBER(INDEX([1]Songs!$L:$L,MATCH(E387,[1]Songs!$E:$E,0))),"YES","")</f>
         <v>YES</v>
       </c>
     </row>
-    <row r="388" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="388" spans="5:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="E388" t="s">
         <v>388</v>
       </c>
       <c r="F388" t="s">
         <v>4</v>
       </c>
-      <c r="J388">
+      <c r="I388">
         <f>INDEX([1]Songs!$L:$L,MATCH(E388,[1]Songs!$E:$E,0))</f>
         <v>3217555</v>
       </c>
-      <c r="L388" t="str">
+      <c r="K388" t="str">
         <f>IF(ISNUMBER(INDEX([1]Songs!$L:$L,MATCH(E388,[1]Songs!$E:$E,0))),"YES","")</f>
         <v>YES</v>
       </c>
     </row>
-    <row r="389" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="389" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E389" t="s">
         <v>389</v>
       </c>
       <c r="F389" t="s">
         <v>4</v>
       </c>
-      <c r="J389" t="e">
+      <c r="I389" t="e">
         <f>INDEX([1]Songs!$L:$L,MATCH(E389,[1]Songs!$E:$E,0))</f>
         <v>#N/A</v>
       </c>
-      <c r="L389" t="str">
+      <c r="K389" t="str">
         <f>IF(ISNUMBER(INDEX([1]Songs!$L:$L,MATCH(E389,[1]Songs!$E:$E,0))),"YES","")</f>
         <v/>
       </c>
     </row>
-    <row r="390" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="390" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E390" t="s">
+        <v>443</v>
+      </c>
+      <c r="F390" t="s">
+        <v>4</v>
+      </c>
+      <c r="I390" t="e">
+        <f>INDEX([1]Songs!$L:$L,MATCH(E390,[1]Songs!$E:$E,0))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="K390" t="str">
+        <f>IF(ISNUMBER(INDEX([1]Songs!$L:$L,MATCH(E390,[1]Songs!$E:$E,0))),"YES","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="391" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="E391" t="s">
         <v>444</v>
       </c>
-      <c r="F390" t="s">
-        <v>4</v>
-      </c>
-      <c r="J390" t="e">
-        <f>INDEX([1]Songs!$L:$L,MATCH(E390,[1]Songs!$E:$E,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="L390" t="str">
-        <f>IF(ISNUMBER(INDEX([1]Songs!$L:$L,MATCH(E390,[1]Songs!$E:$E,0))),"YES","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="391" spans="5:12" x14ac:dyDescent="0.25">
-      <c r="E391" t="s">
-        <v>445</v>
-      </c>
       <c r="F391" t="s">
         <v>4</v>
       </c>
-      <c r="J391" t="e">
+      <c r="I391" t="e">
         <f>INDEX([1]Songs!$L:$L,MATCH(E391,[1]Songs!$E:$E,0))</f>
         <v>#N/A</v>
       </c>
-      <c r="L391" t="str">
+      <c r="K391" t="str">
         <f>IF(ISNUMBER(INDEX([1]Songs!$L:$L,MATCH(E391,[1]Songs!$E:$E,0))),"YES","")</f>
         <v/>
       </c>
     </row>
-    <row r="392" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="392" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E392" t="s">
         <v>390</v>
       </c>
       <c r="F392" t="s">
         <v>4</v>
       </c>
-      <c r="J392" t="e">
+      <c r="I392" t="e">
         <f>INDEX([1]Songs!$L:$L,MATCH(E392,[1]Songs!$E:$E,0))</f>
         <v>#N/A</v>
       </c>
-      <c r="L392" t="str">
+      <c r="K392" t="str">
         <f>IF(ISNUMBER(INDEX([1]Songs!$L:$L,MATCH(E392,[1]Songs!$E:$E,0))),"YES","")</f>
         <v/>
       </c>
     </row>
-    <row r="393" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="393" spans="5:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="E393" t="s">
         <v>391</v>
       </c>
       <c r="F393" t="s">
         <v>4</v>
       </c>
-      <c r="J393">
+      <c r="I393">
         <f>INDEX([1]Songs!$L:$L,MATCH(E393,[1]Songs!$E:$E,0))</f>
         <v>5376377</v>
       </c>
-      <c r="L393" t="str">
+      <c r="K393" t="str">
         <f>IF(ISNUMBER(INDEX([1]Songs!$L:$L,MATCH(E393,[1]Songs!$E:$E,0))),"YES","")</f>
         <v>YES</v>
       </c>
     </row>
-    <row r="394" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="394" spans="5:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="E394" t="s">
         <v>392</v>
       </c>
       <c r="F394" t="s">
         <v>393</v>
       </c>
-      <c r="J394">
+      <c r="I394">
         <f>INDEX([1]Songs!$L:$L,MATCH(E394,[1]Songs!$E:$E,0))</f>
         <v>4243463</v>
       </c>
-      <c r="L394" t="str">
+      <c r="K394" t="str">
         <f>IF(ISNUMBER(INDEX([1]Songs!$L:$L,MATCH(E394,[1]Songs!$E:$E,0))),"YES","")</f>
         <v>YES</v>
       </c>
     </row>
-    <row r="395" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="395" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E395" t="s">
         <v>394</v>
       </c>
       <c r="F395" t="s">
         <v>4</v>
       </c>
-      <c r="J395" t="e">
+      <c r="I395" t="e">
         <f>INDEX([1]Songs!$L:$L,MATCH(E395,[1]Songs!$E:$E,0))</f>
         <v>#N/A</v>
       </c>
-      <c r="L395" t="str">
+      <c r="K395" t="str">
         <f>IF(ISNUMBER(INDEX([1]Songs!$L:$L,MATCH(E395,[1]Songs!$E:$E,0))),"YES","")</f>
         <v/>
       </c>
     </row>
-    <row r="396" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="396" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E396" t="s">
         <v>394</v>
       </c>
       <c r="F396" t="s">
         <v>4</v>
       </c>
-      <c r="J396" t="e">
+      <c r="I396" t="e">
         <f>INDEX([1]Songs!$L:$L,MATCH(E396,[1]Songs!$E:$E,0))</f>
         <v>#N/A</v>
       </c>
-      <c r="L396" t="str">
+      <c r="K396" t="str">
         <f>IF(ISNUMBER(INDEX([1]Songs!$L:$L,MATCH(E396,[1]Songs!$E:$E,0))),"YES","")</f>
         <v/>
       </c>
     </row>
-    <row r="397" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="397" spans="5:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="E397" t="s">
         <v>395</v>
       </c>
       <c r="F397" t="s">
         <v>396</v>
       </c>
-      <c r="J397">
+      <c r="I397">
         <f>INDEX([1]Songs!$L:$L,MATCH(E397,[1]Songs!$E:$E,0))</f>
         <v>2332149</v>
       </c>
-      <c r="K397" t="s">
+      <c r="J397" t="s">
         <v>15</v>
       </c>
-      <c r="L397" t="str">
+      <c r="K397" t="str">
         <f>IF(ISNUMBER(INDEX([1]Songs!$L:$L,MATCH(E397,[1]Songs!$E:$E,0))),"YES","")</f>
         <v>YES</v>
       </c>
     </row>
-    <row r="398" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="398" spans="5:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="E398" t="s">
         <v>397</v>
       </c>
       <c r="F398" t="s">
         <v>4</v>
       </c>
-      <c r="J398">
+      <c r="I398">
         <f>INDEX([1]Songs!$L:$L,MATCH(E398,[1]Songs!$E:$E,0))</f>
         <v>825356</v>
       </c>
-      <c r="K398" t="s">
+      <c r="J398" t="s">
         <v>5</v>
       </c>
-      <c r="L398" t="str">
+      <c r="K398" t="str">
         <f>IF(ISNUMBER(INDEX([1]Songs!$L:$L,MATCH(E398,[1]Songs!$E:$E,0))),"YES","")</f>
         <v>YES</v>
       </c>
     </row>
-    <row r="399" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="399" spans="5:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="E399" t="s">
         <v>398</v>
       </c>
       <c r="F399" t="s">
         <v>399</v>
       </c>
-      <c r="J399">
+      <c r="I399">
         <f>INDEX([1]Songs!$L:$L,MATCH(E399,[1]Songs!$E:$E,0))</f>
         <v>2456623</v>
       </c>
-      <c r="K399" t="s">
+      <c r="J399" t="s">
         <v>5</v>
       </c>
-      <c r="L399" t="str">
+      <c r="K399" t="str">
         <f>IF(ISNUMBER(INDEX([1]Songs!$L:$L,MATCH(E399,[1]Songs!$E:$E,0))),"YES","")</f>
         <v>YES</v>
       </c>
     </row>
-    <row r="400" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="400" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E400" t="s">
         <v>400</v>
       </c>
       <c r="F400" t="s">
         <v>4</v>
       </c>
-      <c r="J400" t="e">
+      <c r="I400" t="e">
         <f>INDEX([1]Songs!$L:$L,MATCH(E400,[1]Songs!$E:$E,0))</f>
         <v>#N/A</v>
       </c>
-      <c r="L400" t="str">
+      <c r="K400" t="str">
         <f>IF(ISNUMBER(INDEX([1]Songs!$L:$L,MATCH(E400,[1]Songs!$E:$E,0))),"YES","")</f>
         <v/>
       </c>
     </row>
-    <row r="401" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="401" spans="5:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="E401" t="s">
         <v>401</v>
       </c>
       <c r="F401" t="s">
         <v>4</v>
       </c>
-      <c r="J401">
+      <c r="I401">
         <f>INDEX([1]Songs!$L:$L,MATCH(E401,[1]Songs!$E:$E,0))</f>
         <v>7003306</v>
       </c>
-      <c r="L401" t="str">
+      <c r="K401" t="str">
         <f>IF(ISNUMBER(INDEX([1]Songs!$L:$L,MATCH(E401,[1]Songs!$E:$E,0))),"YES","")</f>
         <v>YES</v>
       </c>
     </row>
-    <row r="402" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="402" spans="5:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="E402" t="s">
         <v>402</v>
       </c>
       <c r="F402" t="s">
         <v>4</v>
       </c>
-      <c r="J402">
+      <c r="I402">
         <f>INDEX([1]Songs!$L:$L,MATCH(E402,[1]Songs!$E:$E,0))</f>
         <v>4674166</v>
       </c>
-      <c r="L402" t="str">
+      <c r="K402" t="str">
         <f>IF(ISNUMBER(INDEX([1]Songs!$L:$L,MATCH(E402,[1]Songs!$E:$E,0))),"YES","")</f>
         <v>YES</v>
       </c>
     </row>
-    <row r="403" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="403" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E403" t="s">
         <v>403</v>
       </c>
       <c r="F403" t="s">
         <v>4</v>
       </c>
-      <c r="J403" t="e">
+      <c r="I403" t="e">
         <f>INDEX([1]Songs!$L:$L,MATCH(E403,[1]Songs!$E:$E,0))</f>
         <v>#N/A</v>
       </c>
-      <c r="L403" t="str">
+      <c r="K403" t="str">
         <f>IF(ISNUMBER(INDEX([1]Songs!$L:$L,MATCH(E403,[1]Songs!$E:$E,0))),"YES","")</f>
         <v/>
       </c>
     </row>
-    <row r="404" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="404" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E404" t="s">
         <v>404</v>
       </c>
       <c r="F404" t="s">
         <v>4</v>
       </c>
-      <c r="J404" t="e">
+      <c r="I404" t="e">
         <f>INDEX([1]Songs!$L:$L,MATCH(E404,[1]Songs!$E:$E,0))</f>
         <v>#N/A</v>
       </c>
-      <c r="L404" t="str">
+      <c r="K404" t="str">
         <f>IF(ISNUMBER(INDEX([1]Songs!$L:$L,MATCH(E404,[1]Songs!$E:$E,0))),"YES","")</f>
         <v/>
       </c>
     </row>
-    <row r="405" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="405" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E405" t="s">
         <v>405</v>
       </c>
       <c r="F405" t="s">
         <v>4</v>
       </c>
-      <c r="J405" t="e">
+      <c r="I405" t="e">
         <f>INDEX([1]Songs!$L:$L,MATCH(E405,[1]Songs!$E:$E,0))</f>
         <v>#N/A</v>
       </c>
-      <c r="L405" t="str">
+      <c r="K405" t="str">
         <f>IF(ISNUMBER(INDEX([1]Songs!$L:$L,MATCH(E405,[1]Songs!$E:$E,0))),"YES","")</f>
         <v/>
       </c>
     </row>
-    <row r="406" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="406" spans="5:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="E406" t="s">
         <v>406</v>
       </c>
       <c r="F406" t="s">
         <v>4</v>
       </c>
-      <c r="J406">
+      <c r="I406">
         <f>INDEX([1]Songs!$L:$L,MATCH(E406,[1]Songs!$E:$E,0))</f>
         <v>7000686</v>
       </c>
-      <c r="L406" t="str">
+      <c r="K406" t="str">
         <f>IF(ISNUMBER(INDEX([1]Songs!$L:$L,MATCH(E406,[1]Songs!$E:$E,0))),"YES","")</f>
         <v>YES</v>
       </c>
     </row>
-    <row r="407" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="407" spans="5:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="E407" t="s">
         <v>407</v>
       </c>
       <c r="F407" t="s">
         <v>4</v>
       </c>
-      <c r="J407">
+      <c r="I407">
         <f>INDEX([1]Songs!$L:$L,MATCH(E407,[1]Songs!$E:$E,0))</f>
         <v>4477026</v>
       </c>
-      <c r="L407" t="str">
+      <c r="K407" t="str">
         <f>IF(ISNUMBER(INDEX([1]Songs!$L:$L,MATCH(E407,[1]Songs!$E:$E,0))),"YES","")</f>
         <v>YES</v>
       </c>
     </row>
-    <row r="408" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="408" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E408" t="s">
         <v>408</v>
       </c>
       <c r="F408" t="s">
         <v>4</v>
       </c>
-      <c r="J408" t="e">
+      <c r="I408" t="e">
         <f>INDEX([1]Songs!$L:$L,MATCH(E408,[1]Songs!$E:$E,0))</f>
         <v>#N/A</v>
       </c>
-      <c r="L408" t="str">
+      <c r="K408" t="str">
         <f>IF(ISNUMBER(INDEX([1]Songs!$L:$L,MATCH(E408,[1]Songs!$E:$E,0))),"YES","")</f>
         <v/>
       </c>
     </row>
-    <row r="409" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="409" spans="5:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="E409" t="s">
         <v>409</v>
       </c>
       <c r="F409" t="s">
         <v>4</v>
       </c>
-      <c r="J409">
+      <c r="I409">
         <f>INDEX([1]Songs!$L:$L,MATCH(E409,[1]Songs!$E:$E,0))</f>
         <v>5393329</v>
       </c>
-      <c r="K409" t="s">
+      <c r="J409" t="s">
         <v>15</v>
       </c>
-      <c r="L409" t="str">
+      <c r="K409" t="str">
         <f>IF(ISNUMBER(INDEX([1]Songs!$L:$L,MATCH(E409,[1]Songs!$E:$E,0))),"YES","")</f>
         <v>YES</v>
       </c>
     </row>
-    <row r="410" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="410" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E410" t="s">
         <v>410</v>
       </c>
       <c r="F410" t="s">
         <v>4</v>
       </c>
-      <c r="J410" t="e">
+      <c r="I410" t="e">
         <f>INDEX([1]Songs!$L:$L,MATCH(E410,[1]Songs!$E:$E,0))</f>
         <v>#N/A</v>
       </c>
-      <c r="L410" t="str">
+      <c r="K410" t="str">
         <f>IF(ISNUMBER(INDEX([1]Songs!$L:$L,MATCH(E410,[1]Songs!$E:$E,0))),"YES","")</f>
         <v/>
       </c>
     </row>
-    <row r="411" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="411" spans="5:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="E411" t="s">
         <v>279</v>
       </c>
       <c r="F411" t="s">
         <v>4</v>
       </c>
-      <c r="J411">
+      <c r="I411">
         <f>INDEX([1]Songs!$L:$L,MATCH(E411,[1]Songs!$E:$E,0))</f>
         <v>5337172</v>
       </c>
-      <c r="L411" t="str">
+      <c r="K411" t="str">
         <f>IF(ISNUMBER(INDEX([1]Songs!$L:$L,MATCH(E411,[1]Songs!$E:$E,0))),"YES","")</f>
         <v>YES</v>
       </c>
     </row>
-    <row r="412" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="412" spans="5:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="E412" t="s">
         <v>411</v>
       </c>
       <c r="F412" t="s">
         <v>4</v>
       </c>
-      <c r="J412">
+      <c r="I412">
         <f>INDEX([1]Songs!$L:$L,MATCH(E412,[1]Songs!$E:$E,0))</f>
         <v>4611679</v>
       </c>
-      <c r="L412" t="str">
+      <c r="K412" t="str">
         <f>IF(ISNUMBER(INDEX([1]Songs!$L:$L,MATCH(E412,[1]Songs!$E:$E,0))),"YES","")</f>
         <v>YES</v>
       </c>
     </row>
-    <row r="413" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="413" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E413" t="s">
         <v>412</v>
       </c>
       <c r="F413" t="s">
         <v>4</v>
       </c>
-      <c r="J413" t="e">
+      <c r="I413" t="e">
         <f>INDEX([1]Songs!$L:$L,MATCH(E413,[1]Songs!$E:$E,0))</f>
         <v>#N/A</v>
       </c>
-      <c r="L413" t="str">
+      <c r="K413" t="str">
         <f>IF(ISNUMBER(INDEX([1]Songs!$L:$L,MATCH(E413,[1]Songs!$E:$E,0))),"YES","")</f>
         <v/>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:L413" xr:uid="{9DA64FF2-4404-459F-8D0D-6A6B4070B7DF}"/>
-  <conditionalFormatting sqref="J1">
+  <autoFilter ref="A1:K413" xr:uid="{9DA64FF2-4404-459F-8D0D-6A6B4070B7DF}">
+    <filterColumn colId="8">
+      <filters>
+        <filter val="#N/A"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
+  <conditionalFormatting sqref="I1">
     <cfRule type="duplicateValues" dxfId="2" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E1">
